--- a/QALD9-Plus-testing/few-shot-entity-aligned/few_shot_wikidata_dbpedia/comparison_results_llama_fewshot_wikidata_dbpedia.xlsx
+++ b/QALD9-Plus-testing/few-shot-entity-aligned/few_shot_wikidata_dbpedia/comparison_results_llama_fewshot_wikidata_dbpedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Which films did Stanley Kubrick direct?</t>
+          <t>Who is the founder of Penguin Books?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
+          <t>['http://dbpedia.org/resource/Allen_Lane']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
+          <t>['http://dbpedia.org/resource/Allen_Lane']</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>List all the musicals with music by Elton John.</t>
+          <t>Which films did Stanley Kubrick direct?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
+          <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
+          <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Give me all actors starring in movies directed by William Shatner.</t>
+          <t>Who developed Skype?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>How many films did Leonardo DiCaprio star in?</t>
+          <t>Which movies star both Liz Taylor and Richard Burton?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,37 +538,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['5280', '5580', '205', '3600', '4980', '5700', '1380', '2160', '3000', '6000', '6120', '6120', '6000', '260', '6540', '288', '6300', '14400', '6480', '273', '1320', '-2100', '-2700', '-5400', '5760', '5400', '217', '5400', '280', '3600', '4800', '-2640', '5100', '225', '228', '185', '180', '207', '-2700', '1500', '202', '250', '236', '6300', '6780', '2400', '185', '255', '214', '6300', '1800', '206', '5580', '202', '204', '1620', '6000', '202', '218', '5460', '3000', '6000', '-2700', '219', '3600', '2640', '3600', '222', '162', '188', '192', '128', '-2700', '2700', '5760', '221', '5400', '7320', '2640', '5700', '3600', '3600', '205', '6480', '6780', '2520', '5040', '7200', '7140', '358', '586', '1800', '1800', '6300', '5340', '146', '2880', '2640', '2640', '2640', '8760', '210', '5340', '-5400', '251', '5640', '3600', '597', '2520', '2580', '6240', '-3600', '4740', '9180', '208', '5400', '270', '182', '2700', '6000', '2520', '600', '6060', '3000', '5760', '4980', '6720', '205', '5820', '210', '3720', '3600', '223', '5880', '5940', '276', '9480', '260', '300', '2580', '1800', '3900', '152', '242', '2700', '236', '223', '272.4', '223', '969', '5700', '5280', '1200', '6120', '4920', '5400', '217', '3660', '3120', '5760', '5700', '1800', '5100', '247', '242', '5400', '9000', '4680', '168', '209', '210', '1320', '6060', '1800', '1200', '1800', '197', '182', '149', '270', '236', '4560', '218', '13680', '283', '233', '331', '225', '207', '6840', '297', '5940', '224', '232', '252', '295', '298', '359', '177', '292', '326', '8400', '229', '1500', '3600', '5220', '205', '1500', '1260', '225', '230', '446', '283', '223', '245', '323', '203', '289', '148', '231', '217', '500', '225', '205', '135', '235', '270', '230', '150', '156', '5400', '120', '60', '220', '219', '225', '308', '273', '206', '470', '300', '209', '197', '7', '284', '246', '246', '394', '238', '214', '218', '246', '242', '168', '235', '3600', '177', '225', '206', '243', '244', '283', '206', '144', '179', '260', '133', '203', '221', '290', '141', '178', '178', '214', '246', '345', '251', '160', '225', '235', '211', '203', '216', '290', '186', '195', '145', '264', '279', '263', '216', '245', '323', '656', '150', '270', '274', '205', '185', '249', '406', '113', '170', '280', '214', '266', '175', '12', '238', '355', '169', '178', '163', '252', '115', '215', '143', '229', '188', '205', '7', '269', '496', '260', '185', '207', '236', '212', '239', '206', '250', '228', '208', '220', '215', '368', '138', '178', '177', '241', '321', '155', '185', '166', '207', '211', '132', '234', '180', '233', '190', '162', '212', '372', '106', '106', '171', '269', '158', '198', '255', '267', '274', '213', '173', '201', '127', '143', '140', '238', '297', '7', '921', '217', '208', '255', '339', '303', '170', '159', '151', '158', '249', '289', '177', '600', '242', '247', '257', '293', '207', '144', '175', '277', '5040', '6540', '230', '187', '661', '270', '180', '12', '201', '242', '183', '230', '158', '243', '255', '288', '200', '220', '223', '145', '5040', '125', '136', '227', '186', '175', '169', '240', '141', '220', '142', '180', '200', '180', '189', '198', '209', '422', '162', '178', '195', '220', '273', '210', '241', '208', '143', '205', '142', '195', '5760', '225', '220', '138', '130', '172', '191', '260', '239', '257', '146', '265', '267', '214', '212', '244', '175', '190', '239', '208', '240', '12', '216', '260', '175', '201', '165', '180', '130', '159', '196', '200', '209', '165', '203', '165', '171', '206', '245', '276', '277', '180', '360', '174', '180', '350', '137', '152', '180', '142', '208', '242', '179', '1800', '1320', '1800', '5520', '2040', '1800', '3600', '179', '232', '5520', '7860', '2040', '212', '367', '271', '7200', '5400', '2520', '5400', '5400', '255', '290', '6000', '2700', '4920', '1380', '219', '5760', '192', '4260', '4200', '4800', '3600', '3000', '1800', '3300', '4680', '4740', '1260', '5460', '394', '3300', '368', '5460', '2520', '11880', '5400', '5400', '5040', '6300', '4320', '2700', '1101', '7200', '5700', '5520', '6720', '5400', '5340', '9000', '2700', '6120', '2520', '1800', '2880', '6240', '5160', '1800', '3600', '4800', '3720', '5160', '5400', '163', '241', '372', '-1320', '-2580', '2820', '2700', '3000', '5400', '1800', '3600', '3600', '7', '208', '144', '205', '5160', '621', '215', '258', '250', '5220', '4980', '308', '202', '201', '213', '1800', '207', '198', '200', '115', '6240', '205', '218', '3000', '4200', '3600', '8340', '9420', '10620', '2580', '420', '6360', '6300', '198', '1860', '232', '463', '656', '5520', '248', '273', '250', '200', '7320', '179', '5220', '6420', '5460', '6240', '7320', '6660', '185', '8640', '208', '114', '4920', '-1320', '2580', '2580', '262', '600', '5580', '199', '234', '5340', '5520', '3300', '3900', '5280', '1315', '7020', '5100', '6660', '5640', '6000', '5880', '187', '5280', '157', '1500', '5820', '6600', '6060', '3240', '6060', '166', '1800', '3600', '3600', '2880', '233', '6540', '3600', '5700', '6420', '167', '5940', '173', '6180', '262', '5700', '222', '5100', '5760', '5220', '212', '267', '9900', '10140', '238', '176', '300', '5280', '780', '6960', '8460', '2580', '2580', '206', '334', '185', '3600', '223', '5400', '1440', '2700', '256', '1440', '2640', '9420', '6000', '6240', '1320', '4020', '-5100', '2520', '900', '-2520', '-3600', '5220', '5700', '-1440', '227', '271', '3600', '5400', '6300', '5040', '-3600', '5040', '5640', '205', '1440', '278', '-2460', '1800', '3600', '5400', '6480', '1800', '5880', '275', '1560', '6000', '217', '217', '-6540', '5640', '226', '1500', '1320', '6600', '5580', '5280', '1320', '7200', '5520', '7200', '5880', '138', '245', '239', '3300', '3600', '7200', '6780', '790', '2220', '200', '344', '4740', '231', '1800', '181', '252', '196', '148', '179', '5100', '222', '3600', '3600', '3600', '9060', '8400', '3600', '280', '3600', '5400', '5760', '3600', '3600', '303', '141', '274', '212', '48', '259', '5700', '4500', '239', '12840', '5940', '1260', '1320', '240', '5580', '227', '4500', '187', '5280', '5580', '5520', '6000', '1800', '247', '1320', '660', '6180', '4440', '1320', '1500', '6600', '4680', '5280', '2640', '3600', '6480', '7200', '4440', '6000', '6120', '6120', '3360', '284', '244', '332', '3600', '7200', '9000', '5580', '6240', '6120', '5400', '6600', '10800', '4980', '6300', '1500', '5280', '230', '5940', '204', '1800', '6600', '5640', '5160', '4860', '240', '224', '175', '213', '12000', '5820', '9600', '223', '5160', '7140', '4800', '-4860', '6120', '8100', '5220', '6900', '7980', '1260', '1320', '324', '7560', '1320', '1320', '1239', '120', '4500', '2700', '266', '243', '2040', '7140', '8100', '7440', '9540', '180', '5700', '4680', '5760', '7020', '1320', '6360', '3600', '260', '5400', '5160', '1620', '5100', '5040', '5160', '5340', '5580', '5700', '7080', '-2880', '7740', '4500', '3060', '-720', '6180', '6540', '5640', '5400', '6300', '7740', '5160', '1320', '4440', '5340', '8040', '174', '2580', '5520', '1500', '5340', '147', '392', '5160', '1440', '7200', '7200', '7200', '5580', '185', '5160', '183', '4860', '7920', '5640', '7800', '4800', '9780', '5820', '5640', '-1800', '7500', '8460', '6600', '6960', '5220', '2760', '5100', '1800', '4320', '5220', '6060', '4140', '5340', '5040', '5880', '4620', '2700', '8640', '8100', '3840', '3840', '6840', '6480', '5580', '-5880', '7920', '5700', '6060', '5520', '5700', '4200', '4800', '3000', '3300', '3600', '310', '5100', '6000', '5940', '24960', '218', '6840', '433', '3780', '6300', '5940', '-1500', '5640', '5700', '6060', '6660', '4800', '256', '5400', '6360', '175', '6240', '8400', '8580', '9360', '5760', '5820', '5400', '7440', '275', '3900', '1080', '159', '206', '179', '5880', '7200', '6960', '6000', '1800', '4980', '5760', '3000', '1800', '7680', '156', '237', '222', '203', '5520', '3000', '1800', '6120', '3600', '8700', '17040', '9480', '3000', '4920', '250', '6000', '8340', '5400', '6120', '5280', '3600', '1320', '3600', '226', '188', '148', '196', '6300', '293', '220', '5880', '211', '5160', '6120', '166', '191', '295', '5100', '3600', '1080', '240', '1800', '8460', '10080', '5400', '6780', '2640', '6240', '249', '5580', '-4500', '231', '5700', '232', '5220', '4200', '6060', '5280', '6900', '210', '1320', '4800', '6600', '1920', '2520', '3600', '5520', '6000', '5400', '6600', '7800', '7560', '1980', '7320', '5100', '4980', '1200', '4800', '3600', '6000', '-4020', '6900', '5700', '7740', '-3720', '4980', '235', '277', '205', '1800', '-2640', '4680', '5940', '200', '217', '2520', '-2700', '210', '6180', '234', '6480', '1320', '9240', '9720', '14820', '19020', '155', '311', '193', '7500', '2700', '6720', '4920', '3000', '7140', '5760', '5640', '5940', '225', '245', '8280', '7020', '7140', '10200', '8640', '8220', '8100', '6060', '178', '266', '7080', '8760', '213', '9420', '6000', '180', '5460', '7320', '207', '283', '239', '5700', '5760', '180', '238', '6540', '305', '332', '7200', '7800', '5640', '5700', '8100', '4800', '7800', '282', '262', '8940', '256', '264', '241', '6120', '219', '6720', '5400', '6000', '179', '222', '805', '5400', '60', '207', '5100', '190', '193', '221', '2880', '6600', '179', '7740', '1800', '3300', '5340', '6060', '5700', '3000', '3000', '3600', '-3120', '243', '5760', '260', '6360', '223', '365', '481', '189', '6060', '216', '378', '236', '230', '5400', '2700', '206', '294', '157', '229', '1500', '1800', '4740', '184', '1800', '226', '6960', '292', '8580', '5400', '267', '165', '201', '53', '5460', '229', '187', '280', '241', '245', '-1320', '3000', '6480', '5700', '4200', '6000', '5760', '6060', '6300', '221', '6480', '6300', '3720', '1800', '6540', '8160', '212', '6000', '3600', '8400', '9060', '193', '196', '205', '5040', '7', '336', '432', '472', '616', '1800', '5820', '364', '1260', '7320', '245', '331', '231', '5100', '240', '184', '199', '232', '6000', '9000', '195', '285', '325', '1320', '226', '6420', '200', '5400', '202', '263', '6240', '5880', '480', '5700', '5100', '204', '8820', '212', '6420', '5460', '6780', '6720', '5640', '-7200', '5220', '5700', '5400', '4320', '229', '4980', '1800', '5040', '7860', '3600', '5700', '5700', '3660', '6300', '7620', '3000', '5700', '9480', '5040', '4680', '3600', '7200', '230', '-4980', '2520', '5940', '6060', '6900', '5880', '171', '5520', '7200', '6540', '172', '2700', '172', '285', '180', '220', '6600', '7260', '5400', '1800', '4800', '5040', '5220', '8580', '5940', '4620', '5640', '187', '7200', '7200', '3600', '7200', '7200', '7200', '7200', '7200', '8160', '16200', '6960', '201', '16200', '9480', '199', '221', '773', '4800', '5220', '5100', '541', '16200', '1075', '1075', '16200', '4530', '9900', '1065', '5340', '8400', '-21600', '8400', '8400', '10800', '7800', '5460', '-480', '10800', '5460', '1320', '98', '8700', '1320', '8100', '5400', '5880', '6000', '5640', '360', '7560', '5520', '7740', '360', '6180', '6240', '123', '6000', '6840', '258', '1560', '205', '3600', '3600', '219', '7140', '3600', '237', '297', '357', '3600', '7080', '7380', '3240', '193', '163', '5580', '1500', '6000', '4320', '7440', '281', '321', '6060', '6540', '-2880', '4680', '6600', '242', '190', '224', '155', '234', '303', '215', '208', '2640', '6300', '573', '3600', '2940', '5160', '139', '1233', '205', '6600', '127', '5520', '7680', '167', '170', '212', '251', '310', '240', '219', '180', '211', '261', '444', '220', '186', '173', '232', '232', '6900', '5400', '7320', '113', '8580', '6720', '7260', '214', '360', '176', '-1440', '7200', '5940', '252', '179', '3000', '5880', '243', '6180', '480', '6120', '4680', '5340', '305', '11100', '226', '4680', '9840', '4620', '197', '182', '160', '-3060', '6420', '5400', '6600', '4620', '6840', '6780', '-5400', '3600', '1860', '7020', '86400', '-3600', '3600', '-4080', '4500', '206', '241', '201', '215', '1800', '2700', '5400', '5400', '4380', '5040', '6420', '5400', '4620', '4920', '5640', '5580', '5460', '1800', '5580', '258', '249', '8400', '-2700', '-2700', '-2700', '-2700', '-5400', '6180', '60', '2580', '2580', '5340', '6120', '231', '271', '282', '279', '1800', '197', '225', '274', '221', '-4500', '7800', '6900', '2880', '5400', '225', '1800', '5100', '5520', '6480', '8400', '6960', '260', '172', '290', '-5640', '1800', '236', '145', '3480', '1380', '960', '8100', '231', '1500', '151', '7860', '8100', '207', '7080', '6660', '6660', '5880', '6000', '6720', '5160', '4500', '3360', '6240', '6780', '4920', '189', '201', '5940', '176', '163', '237', '4980', '6240', '1740', '5580', '291', '210', '151', '6660', '5220', '6060', '237', '5520', '1080', '5400', '-1800', '215', '151', '6420', '1800', '-4260', '270', '4200', '2700', '186', '234', '247', '1800', '2700', '153', '163', '194', '195', '2640', '5700', '8880', '213', '236', '2700', '2580', '5880', '5280', '319', '5760', '163', '350', '355', '4800', '5880', '1320', '5280', '5280', '5520', '5640', '4380', '5940', '5400', '5580', '4740', '4980', '6900', '5520', '4920', '7020', '2520', '5640', '7200', '4860', '7320', '9600', '1009', '1980', '6000', '4440', '6900', '5520', '3600', '6360', '6480', '169', '10260', '4260', '220', '228', '3600', '215', '166', '300', '180', '7680', '5400', '7200', '7620', '5400', '177', '5040', '5760', '5580', '5280', '5580', '21300', '1800', '4680', '185', '5400', '6180', '-1800', '6600', '6000', '1020', '6000', '1320', '4920', '6000', '5220', '5340', '5700', '6060', '3000', '7440', '244', '215', '1800', '1320', '1800', '-3300', '5340', '5280', '219', '1320', '182', '171', '3600', '7200', '5340', '5400', '5520', '7320', '7500', '5400', '214', '3600', '4980', '-2520', '-4440', '1620', '5280', '3000', '5220', '185', '-2880', '238', '6840', '1800', '5520', '1800', '202', '3600', '4380', '323', '5160', '5040', '1500', '2700', '199', '1800', '1800', '198', '4980', '4800', '2280', '6300', '1320', '1800', '381', '1320', '1320', '8700', '3600', '5400', '6180', '5940', '30', '3600', '6960', '258', '7020', '329', '5400', '3600', '66', '6120', '7500', '235', '6000', '5460', '5400', '5040', '6660', '6120', '8520', '4980', '-1980', '4740', '2580', '250', '220', '225', '367', '169', '5880', '5340', '6960', '2700', '600', '5820', '6000', '3600', '197', '300', '173', '182', '200', '220', '6000', '461', '1800', '8040', '7320', '5400', '6420', '5280', '4980', '6900', '3960', '6600', '4860', '6900', '6600', '221', '182', '6600', '6840', '6540', '7500', '1757', '4620', '2100', '6000', '316', '6060', '10620', '840', '6900', '226', '540', '258', '5160', '6960', '4200', '240', '237', '226', '239', '1500', '1440', '7080', '7740', '7500', '8400', '6480', '600', '660', '1440', '4320', '1320', '300', '4140', '7560', '5280', '126', '255', '186', '222', '290', '196', '660', '208', '5820', '259', '155', '5820', '2820', '5820', '6000', '5340', '6900', '209', '240', '8760', '291', '8340', '6120', '5760', '190', '244', '6780', '258', '263', '289', '261', '660', '-1680', '292', '202', '6720', '267', '292', '229', '244', '5880', '1500', '8160', '1320', '199', '208', '6000', '230', '2640', '237', '235', '256', '259', '2580', '284', '5040', '267', '1260', '7020', '272', '155', '4800', '6600', '442', '5760', '5400', '265', '5700', '200', '5580', '6360', '4800', '4200', '5520', '5940', '1800', '194', '4020', '174', '10920', '5400', '3600', '180', '2940', '3360', '119', '6720', '399', '240', '3600', '2700', '7680', '237', '-3540', '5880', '1298', '5340', '93', '660', '5700', '6180', '188', '6900', '213', '720', '249', '201', '3600', '4200', '3600', '900', '190', '3000', '5700', '2758', '10800', '5400', '249', '3000', '385', '194', '6420', '5400', '5100', '5340', '7920', '7080', '3780', '2820', '5520', '2520', '5340', '5940', '4620', '5760', '5760', '4200', '311', '7680', '305', '6060', '5280', '7380', '210', '257', '6720', '5100', '271', '210', '6240', '3600', '305', '153', '5160', '228', '340', '132', '336', '5160', '7140', '275', '120', '519', '6300', '5400', '1800', '5700', '4980', '202', '3600', '4920', '5640', '5760', '6180', '6000', '178', '6780', '208', '6480', '5520', '189', '3600', '7200', '3600', '8460', '169', '1800', '8280', '5940', '5820', '5460', '5760', '261', '311', '3600', '197', '350', '182', '3600', '285', '189', '210', '281', '-7200', '6300', '713', '275', '443', '5580', '4200', '247', '224', '3600', '4800', '5700', '3600', '5400', '313', '242', '182', '180', '7920', '119', '5400', '3000', '1560', '202', '194', '235', '288', '299', '162', '180', '-2880', '1320', '3720', '3120', '2340', '5940', '1800', '169', '4440', '600', '6600', '5400', '5700', '215', '248', '246', '5340', '1500', '5220', '6000', '6840', '1500', '241', '3600', '180', '202', '271', '2760', '234', '5700', '2880', '262', '546', '7800', '181', '-5400', '6480', '6360', '287', '303', '146', '-3000', '5400', '5280', '5280', '6600', '6540', '5280', '6600', '4800', '4500', '6540', '5580', '6300', '182', '7200', '9180', '3600', '1800', '6900', '184', '5400', '5280', '15900', '202', '148', '264', '6360', '7800', '5640', '153', '2880', '5760', '1200', '5700', '3600', '5400', '7740', '243', '7080', '4440', '5880', '4140', '5640', '2520', '305', '249', '5700', '225', '431', '260', '199', '-1320', '280', '6000', '6600', '8760', '7680', '234', '213', '4740', '300', '7380', '8040', '3720', '5640', '5760', '217', '1800', '7020', '8820', '6780', '960', '-3000', '230', '274', '3600', '3600', '3600', '-2880', '3600', '3600', '3600', '60', '3600', '60', '8160', '5100', '4500', '360', '1348', '7740', '5100', '3600', '3600', '6120', '185', '4500', '6000', '9900', '7260', '7140', '15900', '4200', '3900', '261', '5340', '155', '4920', '2520', '6900', '5700', '2580', '4440', '6000', '9900', '187', '196', '2400', '2700', '5700', '5520', '-2820', '2400', '2700', '780', '1800', '6120', '509', '15900', '12600', '1800', '4620', '1800', '1320', '337', '2820', '256', '240', '309', '347', '135', '4620', '6120', '4680', '6600', '6420', '7980', '258', '4500', '295', '6660', '5160', '206', '236', '1380', '7740', '2700', '2700', '4500', '2820', '5520', '3600', '5460', '5700', '6000', '-720', '3600', '5040', '5700', '7200', '8820', '1800', '6960', '5400', '5520', '5400', '211', '5400', '8520', '6360', '8340', '121', '5400', '3600', '178', '166', '4800', '6060', '307', '3000', '86400', '5100', '210', '213', '1800', '5160', '1700', '221', '5220', '238', '5160', '239', '168', '6000', '5640', '480', '1800', '213', '4140', '251', '220', '1440', '7320', '5400', '15900', '2760', '3600', '5760', '7200', '8160', '1740', '6120', '4680', '15900', '-2880', '-2760', '5580', '-6000', '6540', '6720', '2520', '7800', '1800', '6900', '5520', '5880', '15900', '900', '2700', '2400', '245', '780', '5520', '221', '5400', '4320', '5580', '5820', '4920', '5700', '-3000', '302', '9840', '7', '720', '234', '-1320', '10080', '-1320', '1380', '943', '10440', '11100', '4560', '8040', '5280', '3600', '6600', '2640', '208', '300', '-5400', '5700', '428', '6000', '209', '4980', '1200', '5700', '190', '6660', '6900', '3600', '5160', '-3900', '-1680', '195', '6300', '1320', '8700', '6660', '7140', '269', '5820', '6420', '1800', '4800', '7380', '6060', '1620', '6720', '5880', '168', '4020', '3360', '6300', '4800', '6420', '6780', '252', '203', '413', '7440', '3180', '-3180', '174', '6600', '2700', '4800', '3180', '6420', '180', '211', '7080', '8280', '5400', '9660', '6000', '5700', '201', '190', '225', '-3000', '5280', '7320', '287', '6600', '3900', '6300', '4620', '8820', '720', '758', '196', '206', '7380', '6360', '8760', '1440', '182', '208', '298', '374', '7', '12', '5640', '239', '5460', '660', '4740', '5880', '8880', '6300', '1245', '2400', '1320', '7200', '219', '2880', '4980', '231', '4200', '992', '6000', '4920', '8100', '239', '317', '150', '395', '134', '4200', '7140', '163', '6600', '180', '203', '200', '1800', '5700', '-2700', '-2880', '5340', '180', '150', '4260', '179', '5340', '6720', '5400', '5280', '5400', '5100', '5400', '6240', '6000', '4200', '1800', '7200', '8580', '7260', '5400', '7740', '3600', '245', '373', '4980', '4020', '-2520', '9540', '7200', '216', '238', '7020', '300', '350', '41', '259', '255', '197', '4320', '5280', '5640', '286', '7080', '216', '3000', '6360', '5400', '6360', '3300', '4620', '196', '4860', '5760', '5580', '202', '176', '2700', '5820', '2640', '5520', '5580', '5520', '6300', '5160', '165', '8400', '208', '316', '5880', '5940', '6720', '233', '178', '233', '234', '-4980', '7860', '208', '5400', '3000', '6600', '5400', '193', '5820', '3000', '413', '1800', '224', '6180', '3600', '219', '7200', '3600', '1320', '2700', '3600', '216', '5340', '600', '8160', '8880', '202', '203', '200', '4200', '1680', '9180', '5400', '5400', '292', '5640', '6480', '245', '306', '219', '6240', '6600', '9000', '5100', '6300', '6600', '5760', '172', '2820', '660', '5100', '6600', '5880', '6000', '1200', '5820', '7260', '303', '5460', '4320', '840', '7980', '5040', '430', '5400', '1020', '4260', '223', '-2700', '6540', '245', '4860', '7440', '8100', '3600', '152', '5820', '199', '5400', '2760', '242', '7620', '5160', '5580', '5220', '6120', '5940', '6180', '2520', '4860', '5640', '162', '239', '184', '4740', '222', '599', '516', '5220', '7440', '6840', '6240', '7140', '5700', '5760', '3300', '6000', '6480', '5700', '132', '6300', '7440', '4200', '4440', '5700', '390', '600', '421', '1038', '5880', '2400', '5160', '3000', '5160', '1800', '4200', '4920', '5400', '392', '5340', '3000', '227', '220', '179', '7140', '540', '1560', '6480', '4920', '3420', '5880', '3600', '5280', '6900', '5280', '180', '5340', '4560', '5760', '5400', '3900', '420', '6300', '5400', '6000', '3420', '4440', '93', '1260', '5460', '6480', '5940', '6360', '4800', '7320', '5820', '5700', '5520', '6480', '1800', '4740', '3480', '224', '118', '5520', '4500', '5340', '209', '5400', '6420', '5040', '205', '160', '4440', '5520', '4980', '4200', '7200', '7320', '5820', '146', '5700', '2700', '3480', '10740', '10560', '4800', '6360', '4920', '7080', '3900', '229', '14220', '4920', '5400', '4560', '5520', '4200', '3000', '3300', '3000', '225', '360', '5820', '215', '660', '7200', '4680', '5400', '5520', '7020', '3600', '1800', '4980', '3900', '6900', '5040', '5760', '5700', '5220', '5280', '5700', '5340', '10800', '4920', '5400', '5400', '5700', '5760', '1500', '1380', '215', '6240', '3000', '900', '1860', '2640', '5700', '5700', '6120', '360', '5460', '5700', '2700', '3600', '5340', '5580', '720', '5400', '6360', '3000', '480', '7440', '243', '252', '7260', '5700', '5100', '4980', '7440', '2640', '5700', '232', '5400', '6240', '5580', '7020', '5760', '420', '5100', '5400', '5520', '3600', '5220', '7200', '5040', '451', '5400', '6180', '3000', '4800', '365', '1800', '5700', '5340', '6000', '495', '5340', '260', '5880', '6240', '3900', '5340', '8100', '235', '234', '250', '1710', '177', '3720', '7080', '4320', '2520', '162', '5280', '4140', '5760', '5400', '5400', '6300', '3600', '3600', '6240', '167', '3480', '600', '5760', '1260', '1020', '5220', '1800', '1080', '178', '221', '229', '2580', '191', '2700', '281', '283', '2700', '6120', '1020', '230', '180', '3600', '1525', '1500', '1505', '5160', '5520', '6000', '-1800', '60', '7260', '5100', '4740', '6240', '4320', '160', '6600', '5760', '4440', '6000', '5700', '6000', '6240', '6240', '4920', '6480', '5220', '5700', '5520', '2700', '1440', '1440', '1140', '2400', '7200', '6720', '3900', '3480', '5340', '7080', '6300', '900', '3600', '900', '780', '4140', '1680', '4500', '6000', '4140', '5700', '5400', '5220', '2880', '5760', '5700', '3600', '10380', '1500', '288', '5940', '5760', '4980', '2700', '5100', '5520', '5520', '5640', '6600', '4920', '1800', '5160', '5880', '7980', '10800', '5640', '9000', '6000', '6000', '5340', '5700', '6840', '660', '4980', '2521', '3761', '181', '7200', '5160', '5580', '5280', '6000', '5760', '7620', '1620', '340', '5400', '9420', '191', '3000', '4800', '4800', '6900', '7680', '5700', '1440', '2100', '1380', '5160', '8160', '3600', '3900', '1800', '5280', '5100', '540', '5640', '4980', '5700', '3600', '4440', '5160', '4800', '6120', '180', '5040', '3600', '5760', '5640', '5340', '5400', '5820', '5760', '5400', '6420', '60', '5040', '780', '3000', '7500', '6360', '12000', '272', '5820', '3480', '22', '6480', '4260', '5820', '6000', '6960', '6240', '2520', '900', '478', '1560', '4920', '4620', '5400', '6420', '239', '256', '5580', '1080', '1260', '2880', '5400', '3840', '5820', '5400', '284', '198', '5880', '480', '4800', '5400', '4800', '4020', '4200', '5700', '5520', '6360', '5340', '5340', '2580', '6000', '278', '441', '6120', '3900', '5340', '5640', '245', '8520', '5340', '1020', '4380', '5760', '6240', '5940', '4500', '4860', '200', '4440', '5820', '4200', '6960', '5100', '4860', '233', '3600', '780', '8760', '-360', '1440', '1800', '5880', '7200', '4200', '6420', '3480', '4500', '5760', '4260', '3000', '3720', '6360', '31320', '3300', '6420', '5640', '5940', '4740', '5280', '4800', '6120', '3900', '5340', '6120', '5940', '6360', '7800', '1200', '5040', '720', '4920', '435', '3300', '7200', '1800', '6780', '1800', '2700', '5820', '3780', '600', '1255', '2100', '3000', '10800', '3000', '3000', '3000', '4320', '5220', '8220', '5400', '5520', '5820', '6540', '420', '5340', '5040', '4800', '6060', '360', '281', '840', '6360', '3000', '240', '5400', '-1680', '187', '4680', '420', '335', '186', '4740', '3840', '4380', '6300', '5400', '4800', '5460', '6000', '6000', '228', '192', '1500', '3600', '4500', '5040', '5400', '152', '7500', '6420', '4380', '3000', '8280', '250', '5700', '6660', '5520', '8100', '1020', '9420', '274', '228', '356', '336', '1800', '1080', '7980', '3660', '3600', '3000', '256', '3420', '3000', '4020', '4200', '5940', '3840', '5580', '1800', '2280', '6420', '5040', '1260', '214', '3120', '7620', '231', '5760', '516', '6480', '198', '208', '-1500', '7080', '6000', '5460', '199', '205', '8460', '5340', '4260', '2700', '3600', '5400', '3600', '-5400', '5880', '7020', '7200', '3000', '6300', '4620', '6420', '5160', '4860', '5700', '5040', '6600', '4320', '5760', '6780', '1140', '4800', '4200', '5280', '6540', '6480', '1980', '672', '6000', '5760', '6240', '5040', '1080', '5700', '4680', '5400', '6300', '6360', '8400', '2700', '228', '238', '6420', '3120', '204', '6240', '5400', '3600', '3000', '185', '232', '4920', '6420', '263', '219', '225', '230', '3000', '4200', '6360', '44100', '2700', '7920', '240', '5940', '6300', '1800', '229', '-900', '6420', '976', '265', '225', '362', '1800', '3600', '6660', '7500', '249', '238', '3960', '4320', '5400', '240', '3960', '3660', '3960', '4320', '5460', '4500', '5700', '-3000', '7200', '3420', '5640', '5700', '6120', '5820', '140', '4140', '5820', '6420', '3600', '2460', '1800', '7800', '5280', '6480', '5160', '6540', '5880', '5400', '5880', '5880', '5400', '6000', '6060', '6240', '6480', '3120', '5280', '9120', '351', '6480', '5040', '5460', '5940', '5760', '5400', '198', '6720', '233', '-4260', '3600', '3600', '6300', '4320', '420', '212', '600', '1020', '460', '7020', '5760', '5400', '8400', '6720', '4740', '7860', '5220', '5400', '8280', '163', '165', '229', '6480', '5520', '420', '217', '226', '5460', '182', '4140', '3000', '3600', '3000', '3480', '6300', '6000', '3600', '5280', '720', '5340', '4980', '5340', '2280', '6240', '5400', '5340', '1800', '3600', '4920', '151.8', '264', '6780', '9600', '4200', '180', '5640', '9000', '6480', '5760', '5700', '2700', '4980', '5940', '4680', '2700', '780', '5100', '540', '6360', '1800', '1020', '3060', '7140', '5640', '5400', '2880', '1380', '4200', '480', '2880', '3780', '7200', '5160', '9060', '3360', '4860', '154', '183', '150', '211', '121', '3960', '4200', '3780', '3600', '660', '5700', '6000', '5100', '2700', '8400', '-4380', '9240', '5400', '5640', '261', '6960', '5700', '7', '12', '293', '355', '143', '346', '5940', '9720', '5700', '1800', '423', '3180', '5100', '2460', '420', '540', '5460', '6240', '5880', '6000', '282', '285', '200', '5040', '6120', '6000', '5460', '-3360', '5220', '7500', '5640', '6000', '3600', '7920', '4980', '3180', '3000', '5700', '3000', '145', '1380', '497', '5400', '5940', '2820', '5760', '6060', '4440', '229', '1200', '3000', '4320', '1500', '1800', '3000', '540', '5340', '380', '6120', '5400', '1440', '4980', '2700', '540', '6960', '5460', '5400', '5100', '987', '2700', '4980', '7020', '4080', '8580', '3420', '900', '5280', '4440', '-4200', '3600', '3900', '4680', '3000', '1800', '3600', '6720', '4200', '7800', '4860', '3600', '5400', '5880', '2940', '8520', '4500', '-3000', '5520', '4800', '934', '3000', '5580', '3600', '2640', '5400', '1260', '2700', '6360', '609', '7140', '5400', '221', '6600', '8100', '6840', '6480', '6240', '6600', '5280', '5400', '4980', '5880', '5700', '162', '5400', '6420', '6000', '4680', '5160', '5100', '2400', '8100', '221', '5640', '2880', '5460', '420', '5760', '3000', '151', '194', '217', '239', '282', '6660', '5520', '3000', '5100', '6600', '3600', '4680', '14220', '6060', '3900', '5220', '5580', '4200', '4560', '145', '5400', '5220', '3000', '3900', '163', '2700', '1620', '5460', '4980', '6720', '5220', '4200', '4860', '7680', '5160', '5100', '3360', '6480', '660', '5040', '5040', '6060', '7200', '3780', '6120', '5700', '3120', '5100', '5220', '4200', '5520', '5820', '6180', '188', '2460', '279', '6240', '6180', '6480', '184', '3000', '5640', '6120', '6000', '168', '203', '5700', '5400', '162', '5400', '250', '4320', '457', '215', '5400', '5580', '5820', '218', '188', '192', '7080', '4680', '6000', '4500', '1200', '1380', '5940', '6240', '1800', '1800', '5400', '5400', '3600', '4500', '420', '255', '4800', '257', '3600', '5640', '720', '3960', '5820', '2700', '5040', '420', '6900', '14400', '5400', '2880', '119', '210', '122', '446', '5340', '5880', '4860', '3000', '6240', '3000', '1020', '5100', '5280', '4740', '3480', '271', '355', '1800', '5880', '4560', '3000', '5640', '3900', '5100', '259', '174', '7320', '6060', '196', '190', '3720', '4500', '407', '7080', '5640', '8520', '2700', '5820', '7440', '6120', '6540', '401', '5220', '6360', '209', '1195', '5220', '2580', '154', '6660', '4800', '7200', '6000', '415', '500', '1800', '6540', '5160', '5160', '4860', '5760', '6000', '5400', '497', '-3000', '5700', '5400', '12', '166', '197', '137', '209', '223', '212', '293', '420', '4740', '3000', '300', '6300', '252', '372', '6600', '5400', '1320', '5340', '5580', '220', '5820', '5400', '5760', '5040', '2520', '5400', '300', '3300', '6420', '3600', '5880', '5160', '5100', '4020', '3600', '258', '6180', '7620', '5700', '10440', '6180', '-2820', '5940', '4860', '5760', '3600', '3540', '3000', '3600', '3600', '3600', '12000', '5760', '3180', '5640', '5880', '5820', '7200', '4980', '6780', '1620', '7500', '5460', '5400', '5700', '135', '5820', '3180', '5400', '5940', '5760', '6000', '152', '6180', '2700', '3120', '7320', '5520', '3000', '3960', '7740', '5220', '5460', '420', '4260', '248', '2940', '6660', '780', '4200', '262', '2520', '5400', '242', '4980', '5220', '5880', '427', '188', '2700', '205', '135', '5940', '3540', '5340', '5280', '205', '5520', '172', '420', '5460', '6000', '6960', '5160', '1147', '4260', '1320', '5280', '142', '213', '5820', '6300', '4140', '5820', '10200', '6000', '3300', '3600', '6000', '1800', '7200', '885', '5100', '3000', '7620', '4860', '4800', '4860', '1980', '290', '6300', '5640', '7860', '2700', '5520', '5460', '4500', '209', '5460', '4500', '247', '420', '6660', '1800', '5760', '5820', '5340', '5400', '5880', '5760', '6000', '5400', '5100', '3420', '5220', '6000', '6000', '6000', '3000', '5400', '1800', '6900', '3000', '230', '4500', '6720', '7', '12', '217', '250', '780', '1560', '5700', '2700', '5820', '6300', '6600', '5040', '6120', '5760', '5160', '5640', '5640', '5880', '5280', '3000', '4560', '4200', '3600', '5220', '3000', '3600', '500', '-480', '420', '5400', '3000', '3420', '7920', '4200', '1245', '2400', '316', '5400', '217', '220', '285', '291', '6600', '3120', '3300', '215', '5880', '6360', '210', '283', '302', '6780', '7140', '1011', '4500', '3000', '213', '3600', '4680', '5700', '5160', '5520', '4440', '5220', '4080', '9420', '6960', '6960', '5520', '5700', '5400', '360', '6600', '3600', '73', '6720', '6360', '3000', '4680', '3480', '5520', '5760', '5580', '1800', '-3600', '3600', '1800', '3600', '7680', '5520', '7200', '180', '6900', '174', '2400', '5460', '5580', '-3420', '3600', '5400', '6300', '5460', '220', '182', '600', '5760', '3180', '5340', '900', '5400', '1020', '1980', '3600', '312', '660', '7200', '175', '6180', '5280', '5100', '5400', '226', '5760', '4560', '3960', '5400', '4920', '4440', '4680', '255', '6180', '1500', '6480', '2700', '210', '6720', '5520', '378', '2700', '198', '38', '4320', '6180', '229', '3600', '6000', '4800', '4500', '4980', '1245', '2400', '3480', '210', '5400', '5</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -598,37 +598,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How much did the Lego Movie cost?</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,37 +678,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>Give me all the TV shows with Neil Patrick Harris.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/8-Bit_Christmas', 'http://dbpedia.org/resource/A_Million_Ways_to_Die_in_the_West', 'http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/A_Very_Harold_&amp;_Kumar_Christmas', 'http://dbpedia.org/resource/Animal_Room', 'http://dbpedia.org/resource/Batman:_Under_the_Red_Hood', 'http://dbpedia.org/resource/Beastly_(film)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Cats_&amp;_Dogs:_The_Revenge_of_Kitty_Galore', "http://dbpedia.org/resource/Clara's_Heart", 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_(film)', 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_2', 'http://dbpedia.org/resource/Company_(2011_film)', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/Gone_Girl_(film)', 'http://dbpedia.org/resource/Harold_&amp;_Kumar_Escape_from_Guantanamo_Bay', 'http://dbpedia.org/resource/Harold_&amp;_Kumar', 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', 'http://dbpedia.org/resource/Justice_League:_The_New_Frontier', 'http://dbpedia.org/resource/My_Antonia_(film)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Purple_People_Eater_(film)', 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/Starship_Troopers_(film)', 'http://dbpedia.org/resource/The_Best_and_the_Brightest_(film)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/The_Matrix_Resurrections', 'http://dbpedia.org/resource/The_Proposition_(1998_film)', 'http://dbpedia.org/resource/The_Smurfs_(film)', 'http://dbpedia.org/resource/The_Smurfs_2', 'http://dbpedia.org/resource/The_Unbearable_Weight_of_Massive_Talent', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>What country is Mount Everest in?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Give me all movies with Tom Cruise.</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,57 +758,57 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,57 +838,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Rotbusch']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Give me the capitals of all countries that the Himalayas run through.</t>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/New_Delhi']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/New_Delhi']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/American_Sniper', 'http://dbpedia.org/resource/Bird_(1988_film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Breezy', 'http://dbpedia.org/resource/Changeling_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Flags_of_Our_Fathers_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/Hereafter_(film)', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Invictus_(film)', 'http://dbpedia.org/resource/J._Edgar', 'http://dbpedia.org/resource/Letters_from_Iwo_Jima', 'http://dbpedia.org/resource/Midnight_in_the_Garden_of_Good_and_Evil_(film)', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Mystic_River_(film)', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Richard_Jewell_(film)', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_15:17_to_Paris', 'http://dbpedia.org/resource/The_Blues_(film_series)__Piano_Blues__1', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>In which countries can you pay using the West African CFA franc?</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Give me the birthdays of all actors of the television show Charmed.</t>
+          <t>Who created Batman?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,201 +958,41 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>What movies does Jesse Eisenberg play in?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
         </is>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Who discovered Ceres?</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
-        </is>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>What is the capital of Canada?</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
-        </is>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Who created Batman?</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
-        </is>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>['34084130000']</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>['96330000', '148620000', '99100000', '152600000', '79660000', '95180000', '47770000', '78630000', '51410000', '35920000', '66080000', '76960000', '76040000', '87690000', '78080000', '34084130000', '48110000', '109100000', '56180000', '35310000']</t>
-        </is>
-      </c>
-      <c r="D32" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>How much did Pulp Fiction cost?</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>['8.0']</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>['8.0']</t>
-        </is>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Give me all Danish movies.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
-        </is>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
-        </is>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Who created Goofy?</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
-        </is>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/QALD9-Plus-testing/few-shot-entity-aligned/few_shot_wikidata_dbpedia/comparison_results_llama_fewshot_wikidata_dbpedia.xlsx
+++ b/QALD9-Plus-testing/few-shot-entity-aligned/few_shot_wikidata_dbpedia/comparison_results_llama_fewshot_wikidata_dbpedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,117 +538,117 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Give me the runtime of Toy Story.</t>
+          <t>Which movies star both Liz Taylor and Richard Burton?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['4860']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['5280', '5580', '205', '3600', '4980', '5700', '1380', '2160', '3000', '6000', '6120', '6120', '6000', '260', '6540', '288', '6300', '14400', '6480', '273', '1320', '-2100', '-2700', '-5400', '5760', '5400', '217', '5400', '280', '3600', '4800', '-2640', '5100', '225', '228', '185', '180', '207', '-2700', '1500', '202', '250', '236', '6300', '6780', '2400', '185', '255', '214', '6300', '1800', '206', '5580', '202', '204', '1620', '6000', '202', '218', '5460', '3000', '6000', '-2700', '219', '3600', '2640', '3600', '222', '162', '188', '192', '128', '-2700', '2700', '5760', '221', '5400', '7320', '2640', '5700', '3600', '3600', '205', '6480', '6780', '2520', '5040', '7200', '7140', '358', '586', '1800', '1800', '6300', '5340', '146', '2880', '2640', '2640', '2640', '8760', '210', '5340', '-5400', '251', '5640', '3600', '597', '2520', '2580', '6240', '-3600', '4740', '9180', '208', '5400', '270', '182', '2700', '6000', '2520', '600', '6060', '3000', '5760', '4980', '6720', '205', '5820', '210', '3720', '3600', '223', '5880', '5940', '276', '9480', '260', '300', '2580', '1800', '3900', '152', '242', '2700', '236', '223', '272.4', '223', '969', '5700', '5280', '1200', '6120', '4920', '5400', '217', '3660', '3120', '5760', '5700', '1800', '5100', '247', '242', '5400', '9000', '4680', '168', '209', '210', '1320', '6060', '1800', '1200', '1800', '197', '182', '149', '270', '236', '4560', '218', '13680', '283', '233', '331', '225', '207', '6840', '297', '5940', '224', '232', '252', '295', '298', '359', '177', '292', '326', '8400', '229', '1500', '3600', '5220', '205', '1500', '1260', '225', '230', '446', '283', '223', '245', '323', '203', '289', '148', '231', '217', '500', '225', '205', '135', '235', '270', '230', '150', '156', '5400', '120', '60', '220', '219', '225', '308', '273', '206', '470', '300', '209', '197', '7', '284', '246', '246', '394', '238', '214', '218', '246', '242', '168', '235', '3600', '177', '225', '206', '243', '244', '283', '206', '144', '179', '260', '133', '203', '221', '290', '141', '178', '178', '214', '246', '345', '251', '160', '225', '235', '211', '203', '216', '290', '186', '195', '145', '264', '279', '263', '216', '245', '323', '656', '150', '270', '274', '205', '185', '249', '406', '113', '170', '280', '214', '266', '175', '12', '238', '355', '169', '178', '163', '252', '115', '215', '143', '229', '188', '205', '7', '269', '496', '260', '185', '207', '236', '212', '239', '206', '250', '228', '208', '220', '215', '368', '138', '178', '177', '241', '321', '155', '185', '166', '207', '211', '132', '234', '180', '233', '190', '162', '212', '372', '106', '106', '171', '269', '158', '198', '255', '267', '274', '213', '173', '201', '127', '143', '140', '238', '297', '7', '921', '217', '208', '255', '339', '303', '170', '159', '151', '158', '249', '289', '177', '600', '242', '247', '257', '293', '207', '144', '175', '277', '5040', '6540', '230', '187', '661', '270', '180', '12', '201', '242', '183', '230', '158', '243', '255', '288', '200', '220', '223', '145', '5040', '125', '136', '227', '186', '175', '169', '240', '141', '220', '142', '180', '200', '180', '189', '198', '209', '422', '162', '178', '195', '220', '273', '210', '241', '208', '143', '205', '142', '195', '5760', '225', '220', '138', '130', '172', '191', '260', '239', '257', '146', '265', '267', '214', '212', '244', '175', '190', '239', '208', '240', '12', '216', '260', '175', '201', '165', '180', '130', '159', '196', '200', '209', '165', '203', '165', '171', '206', '245', '276', '277', '180', '360', '174', '180', '350', '137', '152', '180', '142', '208', '242', '179', '1800', '1320', '1800', '5520', '2040', '1800', '3600', '179', '232', '5520', '7860', '2040', '212', '367', '271', '7200', '5400', '2520', '5400', '5400', '255', '290', '6000', '2700', '4920', '1380', '219', '5760', '192', '4260', '4200', '4800', '3600', '3000', '1800', '3300', '4680', '4740', '1260', '5460', '394', '3300', '368', '5460', '2520', '11880', '5400', '5400', '5040', '6300', '4320', '2700', '1101', '7200', '5700', '5520', '6720', '5400', '5340', '9000', '2700', '6120', '2520', '1800', '2880', '6240', '5160', '1800', '3600', '4800', '3720', '5160', '5400', '163', '241', '372', '-1320', '-2580', '2820', '2700', '3000', '5400', '1800', '3600', '3600', '7', '208', '144', '205', '5160', '621', '215', '258', '250', '5220', '4980', '308', '202', '201', '213', '1800', '207', '198', '200', '115', '6240', '205', '218', '3000', '4200', '3600', '8340', '9420', '10620', '2580', '420', '6360', '6300', '198', '1860', '232', '463', '656', '5520', '248', '273', '250', '200', '7320', '179', '5220', '6420', '5460', '6240', '7320', '6660', '185', '8640', '208', '114', '4920', '-1320', '2580', '2580', '262', '600', '5580', '199', '234', '5340', '5520', '3300', '3900', '5280', '1315', '7020', '5100', '6660', '5640', '6000', '5880', '187', '5280', '157', '1500', '5820', '6600', '6060', '3240', '6060', '166', '1800', '3600', '3600', '2880', '233', '6540', '3600', '5700', '6420', '167', '5940', '173', '6180', '262', '5700', '222', '5100', '5760', '5220', '212', '267', '9900', '10140', '238', '176', '300', '5280', '780', '6960', '8460', '2580', '2580', '206', '334', '185', '3600', '223', '5400', '1440', '2700', '256', '1440', '2640', '9420', '6000', '6240', '1320', '4020', '-5100', '2520', '900', '-2520', '-3600', '5220', '5700', '-1440', '227', '271', '3600', '5400', '6300', '5040', '-3600', '5040', '5640', '205', '1440', '278', '-2460', '1800', '3600', '5400', '6480', '1800', '5880', '275', '1560', '6000', '217', '217', '-6540', '5640', '226', '1500', '1320', '6600', '5580', '5280', '1320', '7200', '5520', '7200', '5880', '138', '245', '239', '3300', '3600', '7200', '6780', '790', '2220', '200', '344', '4740', '231', '1800', '181', '252', '196', '148', '179', '5100', '222', '3600', '3600', '3600', '9060', '8400', '3600', '280', '3600', '5400', '5760', '3600', '3600', '303', '141', '274', '212', '48', '259', '5700', '4500', '239', '12840', '5940', '1260', '1320', '240', '5580', '227', '4500', '187', '5280', '5580', '5520', '6000', '1800', '247', '1320', '660', '6180', '4440', '1320', '1500', '6600', '4680', '5280', '2640', '3600', '6480', '7200', '4440', '6000', '6120', '6120', '3360', '284', '244', '332', '3600', '7200', '9000', '5580', '6240', '6120', '5400', '6600', '10800', '4980', '6300', '1500', '5280', '230', '5940', '204', '1800', '6600', '5640', '5160', '4860', '240', '224', '175', '213', '12000', '5820', '9600', '223', '5160', '7140', '4800', '-4860', '6120', '8100', '5220', '6900', '7980', '1260', '1320', '324', '7560', '1320', '1320', '1239', '120', '4500', '2700', '266', '243', '2040', '7140', '8100', '7440', '9540', '180', '5700', '4680', '5760', '7020', '1320', '6360', '3600', '260', '5400', '5160', '1620', '5100', '5040', '5160', '5340', '5580', '5700', '7080', '-2880', '7740', '4500', '3060', '-720', '6180', '6540', '5640', '5400', '6300', '7740', '5160', '1320', '4440', '5340', '8040', '174', '2580', '5520', '1500', '5340', '147', '392', '5160', '1440', '7200', '7200', '7200', '5580', '185', '5160', '183', '4860', '7920', '5640', '7800', '4800', '9780', '5820', '5640', '-1800', '7500', '8460', '6600', '6960', '5220', '2760', '5100', '1800', '4320', '5220', '6060', '4140', '5340', '5040', '5880', '4620', '2700', '8640', '8100', '3840', '3840', '6840', '6480', '5580', '-5880', '7920', '5700', '6060', '5520', '5700', '4200', '4800', '3000', '3300', '3600', '310', '5100', '6000', '5940', '24960', '218', '6840', '433', '3780', '6300', '5940', '-1500', '5640', '5700', '6060', '6660', '4800', '256', '5400', '6360', '175', '6240', '8400', '8580', '9360', '5760', '5820', '5400', '7440', '275', '3900', '1080', '159', '206', '179', '5880', '7200', '6960', '6000', '1800', '4980', '5760', '3000', '1800', '7680', '156', '237', '222', '203', '5520', '3000', '1800', '6120', '3600', '8700', '17040', '9480', '3000', '4920', '250', '6000', '8340', '5400', '6120', '5280', '3600', '1320', '3600', '226', '188', '148', '196', '6300', '293', '220', '5880', '211', '5160', '6120', '166', '191', '295', '5100', '3600', '1080', '240', '1800', '8460', '10080', '5400', '6780', '2640', '6240', '249', '5580', '-4500', '231', '5700', '232', '5220', '4200', '6060', '5280', '6900', '210', '1320', '4800', '6600', '1920', '2520', '3600', '5520', '6000', '5400', '6600', '7800', '7560', '1980', '7320', '5100', '4980', '1200', '4800', '3600', '6000', '-4020', '6900', '5700', '7740', '-3720', '4980', '235', '277', '205', '1800', '-2640', '4680', '5940', '200', '217', '2520', '-2700', '210', '6180', '234', '6480', '1320', '9240', '9720', '14820', '19020', '155', '311', '193', '7500', '2700', '6720', '4920', '3000', '7140', '5760', '5640', '5940', '225', '245', '8280', '7020', '7140', '10200', '8640', '8220', '8100', '6060', '178', '266', '7080', '8760', '213', '9420', '6000', '180', '5460', '7320', '207', '283', '239', '5700', '5760', '180', '238', '6540', '305', '332', '7200', '7800', '5640', '5700', '8100', '4800', '7800', '282', '262', '8940', '256', '264', '241', '6120', '219', '6720', '5400', '6000', '179', '222', '805', '5400', '60', '207', '5100', '190', '193', '221', '2880', '6600', '179', '7740', '1800', '3300', '5340', '6060', '5700', '3000', '3000', '3600', '-3120', '243', '5760', '260', '6360', '223', '365', '481', '189', '6060', '216', '378', '236', '230', '5400', '2700', '206', '294', '157', '229', '1500', '1800', '4740', '184', '1800', '226', '6960', '292', '8580', '5400', '267', '165', '201', '53', '5460', '229', '187', '280', '241', '245', '-1320', '3000', '6480', '5700', '4200', '6000', '5760', '6060', '6300', '221', '6480', '6300', '3720', '1800', '6540', '8160', '212', '6000', '3600', '8400', '9060', '193', '196', '205', '5040', '7', '336', '432', '472', '616', '1800', '5820', '364', '1260', '7320', '245', '331', '231', '5100', '240', '184', '199', '232', '6000', '9000', '195', '285', '325', '1320', '226', '6420', '200', '5400', '202', '263', '6240', '5880', '480', '5700', '5100', '204', '8820', '212', '6420', '5460', '6780', '6720', '5640', '-7200', '5220', '5700', '5400', '4320', '229', '4980', '1800', '5040', '7860', '3600', '5700', '5700', '3660', '6300', '7620', '3000', '5700', '9480', '5040', '4680', '3600', '7200', '230', '-4980', '2520', '5940', '6060', '6900', '5880', '171', '5520', '7200', '6540', '172', '2700', '172', '285', '180', '220', '6600', '7260', '5400', '1800', '4800', '5040', '5220', '8580', '5940', '4620', '5640', '187', '7200', '7200', '3600', '7200', '7200', '7200', '7200', '7200', '8160', '16200', '6960', '201', '16200', '9480', '199', '221', '773', '4800', '5220', '5100', '541', '16200', '1075', '1075', '16200', '4530', '9900', '1065', '5340', '8400', '-21600', '8400', '8400', '10800', '7800', '5460', '-480', '10800', '5460', '1320', '98', '8700', '1320', '8100', '5400', '5880', '6000', '5640', '360', '7560', '5520', '7740', '360', '6180', '6240', '123', '6000', '6840', '258', '1560', '205', '3600', '3600', '219', '7140', '3600', '237', '297', '357', '3600', '7080', '7380', '3240', '193', '163', '5580', '1500', '6000', '4320', '7440', '281', '321', '6060', '6540', '-2880', '4680', '6600', '242', '190', '224', '155', '234', '303', '215', '208', '2640', '6300', '573', '3600', '2940', '5160', '139', '1233', '205', '6600', '127', '5520', '7680', '167', '170', '212', '251', '310', '240', '219', '180', '211', '261', '444', '220', '186', '173', '232', '232', '6900', '5400', '7320', '113', '8580', '6720', '7260', '214', '360', '176', '-1440', '7200', '5940', '252', '179', '3000', '5880', '243', '6180', '480', '6120', '4680', '5340', '305', '11100', '226', '4680', '9840', '4620', '197', '182', '160', '-3060', '6420', '5400', '6600', '4620', '6840', '6780', '-5400', '3600', '1860', '7020', '86400', '-3600', '3600', '-4080', '4500', '206', '241', '201', '215', '1800', '2700', '5400', '5400', '4380', '5040', '6420', '5400', '4620', '4920', '5640', '5580', '5460', '1800', '5580', '258', '249', '8400', '-2700', '-2700', '-2700', '-2700', '-5400', '6180', '60', '2580', '2580', '5340', '6120', '231', '271', '282', '279', '1800', '197', '225', '274', '221', '-4500', '7800', '6900', '2880', '5400', '225', '1800', '5100', '5520', '6480', '8400', '6960', '260', '172', '290', '-5640', '1800', '236', '145', '3480', '1380', '960', '8100', '231', '1500', '151', '7860', '8100', '207', '7080', '6660', '6660', '5880', '6000', '6720', '5160', '4500', '3360', '6240', '6780', '4920', '189', '201', '5940', '176', '163', '237', '4980', '6240', '1740', '5580', '291', '210', '151', '6660', '5220', '6060', '237', '5520', '1080', '5400', '-1800', '215', '151', '6420', '1800', '-4260', '270', '4200', '2700', '186', '234', '247', '1800', '2700', '153', '163', '194', '195', '2640', '5700', '8880', '213', '236', '2700', '2580', '5880', '5280', '319', '5760', '163', '350', '355', '4800', '5880', '1320', '5280', '5280', '5520', '5640', '4380', '5940', '5400', '5580', '4740', '4980', '6900', '5520', '4920', '7020', '2520', '5640', '7200', '4860', '7320', '9600', '1009', '1980', '6000', '4440', '6900', '5520', '3600', '6360', '6480', '169', '10260', '4260', '220', '228', '3600', '215', '166', '300', '180', '7680', '5400', '7200', '7620', '5400', '177', '5040', '5760', '5580', '5280', '5580', '21300', '1800', '4680', '185', '5400', '6180', '-1800', '6600', '6000', '1020', '6000', '1320', '4920', '6000', '5220', '5340', '5700', '6060', '3000', '7440', '244', '215', '1800', '1320', '1800', '-3300', '5340', '5280', '219', '1320', '182', '171', '3600', '7200', '5340', '5400', '5520', '7320', '7500', '5400', '214', '3600', '4980', '-2520', '-4440', '1620', '5280', '3000', '5220', '185', '-2880', '238', '6840', '1800', '5520', '1800', '202', '3600', '4380', '323', '5160', '5040', '1500', '2700', '199', '1800', '1800', '198', '4980', '4800', '2280', '6300', '1320', '1800', '381', '1320', '1320', '8700', '3600', '5400', '6180', '5940', '30', '3600', '6960', '258', '7020', '329', '5400', '3600', '66', '6120', '7500', '235', '6000', '5460', '5400', '5040', '6660', '6120', '8520', '4980', '-1980', '4740', '2580', '250', '220', '225', '367', '169', '5880', '5340', '6960', '2700', '600', '5820', '6000', '3600', '197', '300', '173', '182', '200', '220', '6000', '461', '1800', '8040', '7320', '5400', '6420', '5280', '4980', '6900', '3960', '6600', '4860', '6900', '6600', '221', '182', '6600', '6840', '6540', '7500', '1757', '4620', '2100', '6000', '316', '6060', '10620', '840', '6900', '226', '540', '258', '5160', '6960', '4200', '240', '237', '226', '239', '1500', '1440', '7080', '7740', '7500', '8400', '6480', '600', '660', '1440', '4320', '1320', '300', '4140', '7560', '5280', '126', '255', '186', '222', '290', '196', '660', '208', '5820', '259', '155', '5820', '2820', '5820', '6000', '5340', '6900', '209', '240', '8760', '291', '8340', '6120', '5760', '190', '244', '6780', '258', '263', '289', '261', '660', '-1680', '292', '202', '6720', '267', '292', '229', '244', '5880', '1500', '8160', '1320', '199', '208', '6000', '230', '2640', '237', '235', '256', '259', '2580', '284', '5040', '267', '1260', '7020', '272', '155', '4800', '6600', '442', '5760', '5400', '265', '5700', '200', '5580', '6360', '4800', '4200', '5520', '5940', '1800', '194', '4020', '174', '10920', '5400', '3600', '180', '2940', '3360', '119', '6720', '399', '240', '3600', '2700', '7680', '237', '-3540', '5880', '1298', '5340', '93', '660', '5700', '6180', '188', '6900', '213', '720', '249', '201', '3600', '4200', '3600', '900', '190', '3000', '5700', '2758', '10800', '5400', '249', '3000', '385', '194', '6420', '5400', '5100', '5340', '7920', '7080', '3780', '2820', '5520', '2520', '5340', '5940', '4620', '5760', '5760', '4200', '311', '7680', '305', '6060', '5280', '7380', '210', '257', '6720', '5100', '271', '210', '6240', '3600', '305', '153', '5160', '228', '340', '132', '336', '5160', '7140', '275', '120', '519', '6300', '5400', '1800', '5700', '4980', '202', '3600', '4920', '5640', '5760', '6180', '6000', '178', '6780', '208', '6480', '5520', '189', '3600', '7200', '3600', '8460', '169', '1800', '8280', '5940', '5820', '5460', '5760', '261', '311', '3600', '197', '350', '182', '3600', '285', '189', '210', '281', '-7200', '6300', '713', '275', '443', '5580', '4200', '247', '224', '3600', '4800', '5700', '3600', '5400', '313', '242', '182', '180', '7920', '119', '5400', '3000', '1560', '202', '194', '235', '288', '299', '162', '180', '-2880', '1320', '3720', '3120', '2340', '5940', '1800', '169', '4440', '600', '6600', '5400', '5700', '215', '248', '246', '5340', '1500', '5220', '6000', '6840', '1500', '241', '3600', '180', '202', '271', '2760', '234', '5700', '2880', '262', '546', '7800', '181', '-5400', '6480', '6360', '287', '303', '146', '-3000', '5400', '5280', '5280', '6600', '6540', '5280', '6600', '4800', '4500', '6540', '5580', '6300', '182', '7200', '9180', '3600', '1800', '6900', '184', '5400', '5280', '15900', '202', '148', '264', '6360', '7800', '5640', '153', '2880', '5760', '1200', '5700', '3600', '5400', '7740', '243', '7080', '4440', '5880', '4140', '5640', '2520', '305', '249', '5700', '225', '431', '260', '199', '-1320', '280', '6000', '6600', '8760', '7680', '234', '213', '4740', '300', '7380', '8040', '3720', '5640', '5760', '217', '1800', '7020', '8820', '6780', '960', '-3000', '230', '274', '3600', '3600', '3600', '-2880', '3600', '3600', '3600', '60', '3600', '60', '8160', '5100', '4500', '360', '1348', '7740', '5100', '3600', '3600', '6120', '185', '4500', '6000', '9900', '7260', '7140', '15900', '4200', '3900', '261', '5340', '155', '4920', '2520', '6900', '5700', '2580', '4440', '6000', '9900', '187', '196', '2400', '2700', '5700', '5520', '-2820', '2400', '2700', '780', '1800', '6120', '509', '15900', '12600', '1800', '4620', '1800', '1320', '337', '2820', '256', '240', '309', '347', '135', '4620', '6120', '4680', '6600', '6420', '7980', '258', '4500', '295', '6660', '5160', '206', '236', '1380', '7740', '2700', '2700', '4500', '2820', '5520', '3600', '5460', '5700', '6000', '-720', '3600', '5040', '5700', '7200', '8820', '1800', '6960', '5400', '5520', '5400', '211', '5400', '8520', '6360', '8340', '121', '5400', '3600', '178', '166', '4800', '6060', '307', '3000', '86400', '5100', '210', '213', '1800', '5160', '1700', '221', '5220', '238', '5160', '239', '168', '6000', '5640', '480', '1800', '213', '4140', '251', '220', '1440', '7320', '5400', '15900', '2760', '3600', '5760', '7200', '8160', '1740', '6120', '4680', '15900', '-2880', '-2760', '5580', '-6000', '6540', '6720', '2520', '7800', '1800', '6900', '5520', '5880', '15900', '900', '2700', '2400', '245', '780', '5520', '221', '5400', '4320', '5580', '5820', '4920', '5700', '-3000', '302', '9840', '7', '720', '234', '-1320', '10080', '-1320', '1380', '943', '10440', '11100', '4560', '8040', '5280', '3600', '6600', '2640', '208', '300', '-5400', '5700', '428', '6000', '209', '4980', '1200', '5700', '190', '6660', '6900', '3600', '5160', '-3900', '-1680', '195', '6300', '1320', '8700', '6660', '7140', '269', '5820', '6420', '1800', '4800', '7380', '6060', '1620', '6720', '5880', '168', '4020', '3360', '6300', '4800', '6420', '6780', '252', '203', '413', '7440', '3180', '-3180', '174', '6600', '2700', '4800', '3180', '6420', '180', '211', '7080', '8280', '5400', '9660', '6000', '5700', '201', '190', '225', '-3000', '5280', '7320', '287', '6600', '3900', '6300', '4620', '8820', '720', '758', '196', '206', '7380', '6360', '8760', '1440', '182', '208', '298', '374', '7', '12', '5640', '239', '5460', '660', '4740', '5880', '8880', '6300', '1245', '2400', '1320', '7200', '219', '2880', '4980', '231', '4200', '992', '6000', '4920', '8100', '239', '317', '150', '395', '134', '4200', '7140', '163', '6600', '180', '203', '200', '1800', '5700', '-2700', '-2880', '5340', '180', '150', '4260', '179', '5340', '6720', '5400', '5280', '5400', '5100', '5400', '6240', '6000', '4200', '1800', '7200', '8580', '7260', '5400', '7740', '3600', '245', '373', '4980', '4020', '-2520', '9540', '7200', '216', '238', '7020', '300', '350', '41', '259', '255', '197', '4320', '5280', '5640', '286', '7080', '216', '3000', '6360', '5400', '6360', '3300', '4620', '196', '4860', '5760', '5580', '202', '176', '2700', '5820', '2640', '5520', '5580', '5520', '6300', '5160', '165', '8400', '208', '316', '5880', '5940', '6720', '233', '178', '233', '234', '-4980', '7860', '208', '5400', '3000', '6600', '5400', '193', '5820', '3000', '413', '1800', '224', '6180', '3600', '219', '7200', '3600', '1320', '2700', '3600', '216', '5340', '600', '8160', '8880', '202', '203', '200', '4200', '1680', '9180', '5400', '5400', '292', '5640', '6480', '245', '306', '219', '6240', '6600', '9000', '5100', '6300', '6600', '5760', '172', '2820', '660', '5100', '6600', '5880', '6000', '1200', '5820', '7260', '303', '5460', '4320', '840', '7980', '5040', '430', '5400', '1020', '4260', '223', '-2700', '6540', '245', '4860', '7440', '8100', '3600', '152', '5820', '199', '5400', '2760', '242', '7620', '5160', '5580', '5220', '6120', '5940', '6180', '2520', '4860', '5640', '162', '239', '184', '4740', '222', '599', '516', '5220', '7440', '6840', '6240', '7140', '5700', '5760', '3300', '6000', '6480', '5700', '132', '6300', '7440', '4200', '4440', '5700', '390', '600', '421', '1038', '5880', '2400', '5160', '3000', '5160', '1800', '4200', '4920', '5400', '392', '5340', '3000', '227', '220', '179', '7140', '540', '1560', '6480', '4920', '3420', '5880', '3600', '5280', '6900', '5280', '180', '5340', '4560', '5760', '5400', '3900', '420', '6300', '5400', '6000', '3420', '4440', '93', '1260', '5460', '6480', '5940', '6360', '4800', '7320', '5820', '5700', '5520', '6480', '1800', '4740', '3480', '224', '118', '5520', '4500', '5340', '209', '5400', '6420', '5040', '205', '160', '4440', '5520', '4980', '4200', '7200', '7320', '5820', '146', '5700', '2700', '3480', '10740', '10560', '4800', '6360', '4920', '7080', '3900', '229', '14220', '4920', '5400', '4560', '5520', '4200', '3000', '3300', '3000', '225', '360', '5820', '215', '660', '7200', '4680', '5400', '5520', '7020', '3600', '1800', '4980', '3900', '6900', '5040', '5760', '5700', '5220', '5280', '5700', '5340', '10800', '4920', '5400', '5400', '5700', '5760', '1500', '1380', '215', '6240', '3000', '900', '1860', '2640', '5700', '5700', '6120', '360', '5460', '5700', '2700', '3600', '5340', '5580', '720', '5400', '6360', '3000', '480', '7440', '243', '252', '7260', '5700', '5100', '4980', '7440', '2640', '5700', '232', '5400', '6240', '5580', '7020', '5760', '420', '5100', '5400', '5520', '3600', '5220', '7200', '5040', '451', '5400', '6180', '3000', '4800', '365', '1800', '5700', '5340', '6000', '495', '5340', '260', '5880', '6240', '3900', '5340', '8100', '235', '234', '250', '1710', '177', '3720', '7080', '4320', '2520', '162', '5280', '4140', '5760', '5400', '5400', '6300', '3600', '3600', '6240', '167', '3480', '600', '5760', '1260', '1020', '5220', '1800', '1080', '178', '221', '229', '2580', '191', '2700', '281', '283', '2700', '6120', '1020', '230', '180', '3600', '1525', '1500', '1505', '5160', '5520', '6000', '-1800', '60', '7260', '5100', '4740', '6240', '4320', '160', '6600', '5760', '4440', '6000', '5700', '6000', '6240', '6240', '4920', '6480', '5220', '5700', '5520', '2700', '1440', '1440', '1140', '2400', '7200', '6720', '3900', '3480', '5340', '7080', '6300', '900', '3600', '900', '780', '4140', '1680', '4500', '6000', '4140', '5700', '5400', '5220', '2880', '5760', '5700', '3600', '10380', '1500', '288', '5940', '5760', '4980', '2700', '5100', '5520', '5520', '5640', '6600', '4920', '1800', '5160', '5880', '7980', '10800', '5640', '9000', '6000', '6000', '5340', '5700', '6840', '660', '4980', '2521', '3761', '181', '7200', '5160', '5580', '5280', '6000', '5760', '7620', '1620', '340', '5400', '9420', '191', '3000', '4800', '4800', '6900', '7680', '5700', '1440', '2100', '1380', '5160', '8160', '3600', '3900', '1800', '5280', '5100', '540', '5640', '4980', '5700', '3600', '4440', '5160', '4800', '6120', '180', '5040', '3600', '5760', '5640', '5340', '5400', '5820', '5760', '5400', '6420', '60', '5040', '780', '3000', '7500', '6360', '12000', '272', '5820', '3480', '22', '6480', '4260', '5820', '6000', '6960', '6240', '2520', '900', '478', '1560', '4920', '4620', '5400', '6420', '239', '256', '5580', '1080', '1260', '2880', '5400', '3840', '5820', '5400', '284', '198', '5880', '480', '4800', '5400', '4800', '4020', '4200', '5700', '5520', '6360', '5340', '5340', '2580', '6000', '278', '441', '6120', '3900', '5340', '5640', '245', '8520', '5340', '1020', '4380', '5760', '6240', '5940', '4500', '4860', '200', '4440', '5820', '4200', '6960', '5100', '4860', '233', '3600', '780', '8760', '-360', '1440', '1800', '5880', '7200', '4200', '6420', '3480', '4500', '5760', '4260', '3000', '3720', '6360', '31320', '3300', '6420', '5640', '5940', '4740', '5280', '4800', '6120', '3900', '5340', '6120', '5940', '6360', '7800', '1200', '5040', '720', '4920', '435', '3300', '7200', '1800', '6780', '1800', '2700', '5820', '3780', '600', '1255', '2100', '3000', '10800', '3000', '3000', '3000', '4320', '5220', '8220', '5400', '5520', '5820', '6540', '420', '5340', '5040', '4800', '6060', '360', '281', '840', '6360', '3000', '240', '5400', '-1680', '187', '4680', '420', '335', '186', '4740', '3840', '4380', '6300', '5400', '4800', '5460', '6000', '6000', '228', '192', '1500', '3600', '4500', '5040', '5400', '152', '7500', '6420', '4380', '3000', '8280', '250', '5700', '6660', '5520', '8100', '1020', '9420', '274', '228', '356', '336', '1800', '1080', '7980', '3660', '3600', '3000', '256', '3420', '3000', '4020', '4200', '5940', '3840', '5580', '1800', '2280', '6420', '5040', '1260', '214', '3120', '7620', '231', '5760', '516', '6480', '198', '208', '-1500', '7080', '6000', '5460', '199', '205', '8460', '5340', '4260', '2700', '3600', '5400', '3600', '-5400', '5880', '7020', '7200', '3000', '6300', '4620', '6420', '5160', '4860', '5700', '5040', '6600', '4320', '5760', '6780', '1140', '4800', '4200', '5280', '6540', '6480', '1980', '672', '6000', '5760', '6240', '5040', '1080', '5700', '4680', '5400', '6300', '6360', '8400', '2700', '228', '238', '6420', '3120', '204', '6240', '5400', '3600', '3000', '185', '232', '4920', '6420', '263', '219', '225', '230', '3000', '4200', '6360', '44100', '2700', '7920', '240', '5940', '6300', '1800', '229', '-900', '6420', '976', '265', '225', '362', '1800', '3600', '6660', '7500', '249', '238', '3960', '4320', '5400', '240', '3960', '3660', '3960', '4320', '5460', '4500', '5700', '-3000', '7200', '3420', '5640', '5700', '6120', '5820', '140', '4140', '5820', '6420', '3600', '2460', '1800', '7800', '5280', '6480', '5160', '6540', '5880', '5400', '5880', '5880', '5400', '6000', '6060', '6240', '6480', '3120', '5280', '9120', '351', '6480', '5040', '5460', '5940', '5760', '5400', '198', '6720', '233', '-4260', '3600', '3600', '6300', '4320', '420', '212', '600', '1020', '460', '7020', '5760', '5400', '8400', '6720', '4740', '7860', '5220', '5400', '8280', '163', '165', '229', '6480', '5520', '420', '217', '226', '5460', '182', '4140', '3000', '3600', '3000', '3480', '6300', '6000', '3600', '5280', '720', '5340', '4980', '5340', '2280', '6240', '5400', '5340', '1800', '3600', '4920', '151.8', '264', '6780', '9600', '4200', '180', '5640', '9000', '6480', '5760', '5700', '2700', '4980', '5940', '4680', '2700', '780', '5100', '540', '6360', '1800', '1020', '3060', '7140', '5640', '5400', '2880', '1380', '4200', '480', '2880', '3780', '7200', '5160', '9060', '3360', '4860', '154', '183', '150', '211', '121', '3960', '4200', '3780', '3600', '660', '5700', '6000', '5100', '2700', '8400', '-4380', '9240', '5400', '5640', '261', '6960', '5700', '7', '12', '293', '355', '143', '346', '5940', '9720', '5700', '1800', '423', '3180', '5100', '2460', '420', '540', '5460', '6240', '5880', '6000', '282', '285', '200', '5040', '6120', '6000', '5460', '-3360', '5220', '7500', '5640', '6000', '3600', '7920', '4980', '3180', '3000', '5700', '3000', '145', '1380', '497', '5400', '5940', '2820', '5760', '6060', '4440', '229', '1200', '3000', '4320', '1500', '1800', '3000', '540', '5340', '380', '6120', '5400', '1440', '4980', '2700', '540', '6960', '5460', '5400', '5100', '987', '2700', '4980', '7020', '4080', '8580', '3420', '900', '5280', '4440', '-4200', '3600', '3900', '4680', '3000', '1800', '3600', '6720', '4200', '7800', '4860', '3600', '5400', '5880', '2940', '8520', '4500', '-3000', '5520', '4800', '934', '3000', '5580', '3600', '2640', '5400', '1260', '2700', '6360', '609', '7140', '5400', '221', '6600', '8100', '6840', '6480', '6240', '6600', '5280', '5400', '4980', '5880', '5700', '162', '5400', '6420', '6000', '4680', '5160', '5100', '2400', '8100', '221', '5640', '2880', '5460', '420', '5760', '3000', '151', '194', '217', '239', '282', '6660', '5520', '3000', '5100', '6600', '3600', '4680', '14220', '6060', '3900', '5220', '5580', '4200', '4560', '145', '5400', '5220', '3000', '3900', '163', '2700', '1620', '5460', '4980', '6720', '5220', '4200', '4860', '7680', '5160', '5100', '3360', '6480', '660', '5040', '5040', '6060', '7200', '3780', '6120', '5700', '3120', '5100', '5220', '4200', '5520', '5820', '6180', '188', '2460', '279', '6240', '6180', '6480', '184', '3000', '5640', '6120', '6000', '168', '203', '5700', '5400', '162', '5400', '250', '4320', '457', '215', '5400', '5580', '5820', '218', '188', '192', '7080', '4680', '6000', '4500', '1200', '1380', '5940', '6240', '1800', '1800', '5400', '5400', '3600', '4500', '420', '255', '4800', '257', '3600', '5640', '720', '3960', '5820', '2700', '5040', '420', '6900', '14400', '5400', '2880', '119', '210', '122', '446', '5340', '5880', '4860', '3000', '6240', '3000', '1020', '5100', '5280', '4740', '3480', '271', '355', '1800', '5880', '4560', '3000', '5640', '3900', '5100', '259', '174', '7320', '6060', '196', '190', '3720', '4500', '407', '7080', '5640', '8520', '2700', '5820', '7440', '6120', '6540', '401', '5220', '6360', '209', '1195', '5220', '2580', '154', '6660', '4800', '7200', '6000', '415', '500', '1800', '6540', '5160', '5160', '4860', '5760', '6000', '5400', '497', '-3000', '5700', '5400', '12', '166', '197', '137', '209', '223', '212', '293', '420', '4740', '3000', '300', '6300', '252', '372', '6600', '5400', '1320', '5340', '5580', '220', '5820', '5400', '5760', '5040', '2520', '5400', '300', '3300', '6420', '3600', '5880', '5160', '5100', '4020', '3600', '258', '6180', '7620', '5700', '10440', '6180', '-2820', '5940', '4860', '5760', '3600', '3540', '3000', '3600', '3600', '3600', '12000', '5760', '3180', '5640', '5880', '5820', '7200', '4980', '6780', '1620', '7500', '5460', '5400', '5700', '135', '5820', '3180', '5400', '5940', '5760', '6000', '152', '6180', '2700', '3120', '7320', '5520', '3000', '3960', '7740', '5220', '5460', '420', '4260', '248', '2940', '6660', '780', '4200', '262', '2520', '5400', '242', '4980', '5220', '5880', '427', '188', '2700', '205', '135', '5940', '3540', '5340', '5280', '205', '5520', '172', '420', '5460', '6000', '6960', '5160', '1147', '4260', '1320', '5280', '142', '213', '5820', '6300', '4140', '5820', '10200', '6000', '3300', '3600', '6000', '1800', '7200', '885', '5100', '3000', '7620', '4860', '4800', '4860', '1980', '290', '6300', '5640', '7860', '2700', '5520', '5460', '4500', '209', '5460', '4500', '247', '420', '6660', '1800', '5760', '5820', '5340', '5400', '5880', '5760', '6000', '5400', '5100', '3420', '5220', '6000', '6000', '6000', '3000', '5400', '1800', '6900', '3000', '230', '4500', '6720', '7', '12', '217', '250', '780', '1560', '5700', '2700', '5820', '6300', '6600', '5040', '6120', '5760', '5160', '5640', '5640', '5880', '5280', '3000', '4560', '4200', '3600', '5220', '3000', '3600', '500', '-480', '420', '5400', '3000', '3420', '7920', '4200', '1245', '2400', '316', '5400', '217', '220', '285', '291', '6600', '3120', '3300', '215', '5880', '6360', '210', '283', '302', '6780', '7140', '1011', '4500', '3000', '213', '3600', '4680', '5700', '5160', '5520', '4440', '5220', '4080', '9420', '6960', '6960', '5520', '5700', '5400', '360', '6600', '3600', '73', '6720', '6360', '3000', '4680', '3480', '5520', '5760', '5580', '1800', '-3600', '3600', '1800', '3600', '7680', '5520', '7200', '180', '6900', '174', '2400', '5460', '5580', '-3420', '3600', '5400', '6300', '5460', '220', '182', '600', '5760', '3180', '5340', '900', '5400', '1020', '1980', '3600', '312', '660', '7200', '175', '6180', '5280', '5100', '5400', '226', '5760', '4560', '3960', '5400', '4920', '4440', '4680', '255', '6180', '1500', '6480', '2700', '210', '6720', '5520', '378', '2700', '198', '38', '4320', '6180', '229', '3600', '6000', '4800', '4500', '4980', '1245', '2400', '3480', '210', '5400', '5</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['5280', '5580', '205', '3600', '4980', '5700', '1380', '2160', '3000', '6000', '6120', '6120', '6000', '260', '6540', '288', '6300', '14400', '6480', '273', '1320', '-2100', '-2700', '-5400', '5760', '5400', '217', '5400', '280', '3600', '4800', '-2640', '5100', '225', '228', '185', '180', '207', '-2700', '1500', '202', '250', '236', '6300', '6780', '2400', '185', '255', '214', '6300', '1800', '206', '5580', '202', '204', '1620', '6000', '202', '218', '5460', '3000', '6000', '-2700', '219', '3600', '2640', '3600', '222', '162', '188', '192', '128', '-2700', '2700', '5760', '221', '5400', '7320', '2640', '5700', '3600', '3600', '205', '6480', '6780', '2520', '5040', '7200', '7140', '358', '586', '1800', '1800', '6300', '5340', '146', '2880', '2640', '2640', '2640', '8760', '210', '5340', '-5400', '251', '5640', '3600', '597', '2520', '2580', '6240', '-3600', '4740', '9180', '208', '5400', '270', '182', '2700', '6000', '2520', '600', '6060', '3000', '5760', '4980', '6720', '205', '5820', '210', '3720', '3600', '223', '5880', '5940', '276', '9480', '260', '300', '2580', '1800', '3900', '152', '242', '2700', '236', '223', '272.4', '223', '969', '5700', '5280', '1200', '6120', '4920', '5400', '217', '3660', '3120', '5760', '5700', '1800', '5100', '247', '242', '5400', '9000', '4680', '168', '209', '210', '1320', '6060', '1800', '1200', '1800', '197', '182', '149', '270', '236', '4560', '218', '13680', '283', '233', '331', '225', '207', '6840', '297', '5940', '224', '232', '252', '295', '298', '359', '177', '292', '326', '8400', '229', '1500', '3600', '5220', '205', '1500', '1260', '225', '230', '446', '283', '223', '245', '323', '203', '289', '148', '231', '217', '500', '225', '205', '135', '235', '270', '230', '150', '156', '5400', '120', '60', '220', '219', '225', '308', '273', '206', '470', '300', '209', '197', '7', '284', '246', '246', '394', '238', '214', '218', '246', '242', '168', '235', '3600', '177', '225', '206', '243', '244', '283', '206', '144', '179', '260', '133', '203', '221', '290', '141', '178', '178', '214', '246', '345', '251', '160', '225', '235', '211', '203', '216', '290', '186', '195', '145', '264', '279', '263', '216', '245', '323', '656', '150', '270', '274', '205', '185', '249', '406', '113', '170', '280', '214', '266', '175', '12', '238', '355', '169', '178', '163', '252', '115', '215', '143', '229', '188', '205', '7', '269', '496', '260', '185', '207', '236', '212', '239', '206', '250', '228', '208', '220', '215', '368', '138', '178', '177', '241', '321', '155', '185', '166', '207', '211', '132', '234', '180', '233', '190', '162', '212', '372', '106', '106', '171', '269', '158', '198', '255', '267', '274', '213', '173', '201', '127', '143', '140', '238', '297', '7', '921', '217', '208', '255', '339', '303', '170', '159', '151', '158', '249', '289', '177', '600', '242', '247', '257', '293', '207', '144', '175', '277', '5040', '6540', '230', '187', '661', '270', '180', '12', '201', '242', '183', '230', '158', '243', '255', '288', '200', '220', '223', '145', '5040', '125', '136', '227', '186', '175', '169', '240', '141', '220', '142', '180', '200', '180', '189', '198', '209', '422', '162', '178', '195', '220', '273', '210', '241', '208', '143', '205', '142', '195', '5760', '225', '220', '138', '130', '172', '191', '260', '239', '257', '146', '265', '267', '214', '212', '244', '175', '190', '239', '208', '240', '12', '216', '260', '175', '201', '165', '180', '130', '159', '196', '200', '209', '165', '203', '165', '171', '206', '245', '276', '277', '180', '360', '174', '180', '350', '137', '152', '180', '142', '208', '242', '179', '1800', '1320', '1800', '5520', '2040', '1800', '3600', '179', '232', '5520', '7860', '2040', '212', '367', '271', '7200', '5400', '2520', '5400', '5400', '255', '290', '6000', '2700', '4920', '1380', '219', '5760', '192', '4260', '4200', '4800', '3600', '3000', '1800', '3300', '4680', '4740', '1260', '5460', '394', '3300', '368', '5460', '2520', '11880', '5400', '5400', '5040', '6300', '4320', '2700', '1101', '7200', '5700', '5520', '6720', '5400', '5340', '9000', '2700', '6120', '2520', '1800', '2880', '6240', '5160', '1800', '3600', '4800', '3720', '5160', '5400', '163', '241', '372', '-1320', '-2580', '2820', '2700', '3000', '5400', '1800', '3600', '3600', '7', '208', '144', '205', '5160', '621', '215', '258', '250', '5220', '4980', '308', '202', '201', '213', '1800', '207', '198', '200', '115', '6240', '205', '218', '3000', '4200', '3600', '8340', '9420', '10620', '2580', '420', '6360', '6300', '198', '1860', '232', '463', '656', '5520', '248', '273', '250', '200', '7320', '179', '5220', '6420', '5460', '6240', '7320', '6660', '185', '8640', '208', '114', '4920', '-1320', '2580', '2580', '262', '600', '5580', '199', '234', '5340', '5520', '3300', '3900', '5280', '1315', '7020', '5100', '6660', '5640', '6000', '5880', '187', '5280', '157', '1500', '5820', '6600', '6060', '3240', '6060', '166', '1800', '3600', '3600', '2880', '233', '6540', '3600', '5700', '6420', '167', '5940', '173', '6180', '262', '5700', '222', '5100', '5760', '5220', '212', '267', '9900', '10140', '238', '176', '300', '5280', '780', '6960', '8460', '2580', '2580', '206', '334', '185', '3600', '223', '5400', '1440', '2700', '256', '1440', '2640', '9420', '6000', '6240', '1320', '4020', '-5100', '2520', '900', '-2520', '-3600', '5220', '5700', '-1440', '227', '271', '3600', '5400', '6300', '5040', '-3600', '5040', '5640', '205', '1440', '278', '-2460', '1800', '3600', '5400', '6480', '1800', '5880', '275', '1560', '6000', '217', '217', '-6540', '5640', '226', '1500', '1320', '6600', '5580', '5280', '1320', '7200', '5520', '7200', '5880', '138', '245', '239', '3300', '3600', '7200', '6780', '790', '2220', '200', '344', '4740', '231', '1800', '181', '252', '196', '148', '179', '5100', '222', '3600', '3600', '3600', '9060', '8400', '3600', '280', '3600', '5400', '5760', '3600', '3600', '303', '141', '274', '212', '48', '259', '5700', '4500', '239', '12840', '5940', '1260', '1320', '240', '5580', '227', '4500', '187', '5280', '5580', '5520', '6000', '1800', '247', '1320', '660', '6180', '4440', '1320', '1500', '6600', '4680', '5280', '2640', '3600', '6480', '7200', '4440', '6000', '6120', '6120', '3360', '284', '244', '332', '3600', '7200', '9000', '5580', '6240', '6120', '5400', '6600', '10800', '4980', '6300', '1500', '5280', '230', '5940', '204', '1800', '6600', '5640', '5160', '4860', '240', '224', '175', '213', '12000', '5820', '9600', '223', '5160', '7140', '4800', '-4860', '6120', '8100', '5220', '6900', '7980', '1260', '1320', '324', '7560', '1320', '1320', '1239', '120', '4500', '2700', '266', '243', '2040', '7140', '8100', '7440', '9540', '180', '5700', '4680', '5760', '7020', '1320', '6360', '3600', '260', '5400', '5160', '1620', '5100', '5040', '5160', '5340', '5580', '5700', '7080', '-2880', '7740', '4500', '3060', '-720', '6180', '6540', '5640', '5400', '6300', '7740', '5160', '1320', '4440', '5340', '8040', '174', '2580', '5520', '1500', '5340', '147', '392', '5160', '1440', '7200', '7200', '7200', '5580', '185', '5160', '183', '4860', '7920', '5640', '7800', '4800', '9780', '5820', '5640', '-1800', '7500', '8460', '6600', '6960', '5220', '2760', '5100', '1800', '4320', '5220', '6060', '4140', '5340', '5040', '5880', '4620', '2700', '8640', '8100', '3840', '3840', '6840', '6480', '5580', '-5880', '7920', '5700', '6060', '5520', '5700', '4200', '4800', '3000', '3300', '3600', '310', '5100', '6000', '5940', '24960', '218', '6840', '433', '3780', '6300', '5940', '-1500', '5640', '5700', '6060', '6660', '4800', '256', '5400', '6360', '175', '6240', '8400', '8580', '9360', '5760', '5820', '5400', '7440', '275', '3900', '1080', '159', '206', '179', '5880', '7200', '6960', '6000', '1800', '4980', '5760', '3000', '1800', '7680', '156', '237', '222', '203', '5520', '3000', '1800', '6120', '3600', '8700', '17040', '9480', '3000', '4920', '250', '6000', '8340', '5400', '6120', '5280', '3600', '1320', '3600', '226', '188', '148', '196', '6300', '293', '220', '5880', '211', '5160', '6120', '166', '191', '295', '5100', '3600', '1080', '240', '1800', '8460', '10080', '5400', '6780', '2640', '6240', '249', '5580', '-4500', '231', '5700', '232', '5220', '4200', '6060', '5280', '6900', '210', '1320', '4800', '6600', '1920', '2520', '3600', '5520', '6000', '5400', '6600', '7800', '7560', '1980', '7320', '5100', '4980', '1200', '4800', '3600', '6000', '-4020', '6900', '5700', '7740', '-3720', '4980', '235', '277', '205', '1800', '-2640', '4680', '5940', '200', '217', '2520', '-2700', '210', '6180', '234', '6480', '1320', '9240', '9720', '14820', '19020', '155', '311', '193', '7500', '2700', '6720', '4920', '3000', '7140', '5760', '5640', '5940', '225', '245', '8280', '7020', '7140', '10200', '8640', '8220', '8100', '6060', '178', '266', '7080', '8760', '213', '9420', '6000', '180', '5460', '7320', '207', '283', '239', '5700', '5760', '180', '238', '6540', '305', '332', '7200', '7800', '5640', '5700', '8100', '4800', '7800', '282', '262', '8940', '256', '264', '241', '6120', '219', '6720', '5400', '6000', '179', '222', '805', '5400', '60', '207', '5100', '190', '193', '221', '2880', '6600', '179', '7740', '1800', '3300', '5340', '6060', '5700', '3000', '3000', '3600', '-3120', '243', '5760', '260', '6360', '223', '365', '481', '189', '6060', '216', '378', '236', '230', '5400', '2700', '206', '294', '157', '229', '1500', '1800', '4740', '184', '1800', '226', '6960', '292', '8580', '5400', '267', '165', '201', '53', '5460', '229', '187', '280', '241', '245', '-1320', '3000', '6480', '5700', '4200', '6000', '5760', '6060', '6300', '221', '6480', '6300', '3720', '1800', '6540', '8160', '212', '6000', '3600', '8400', '9060', '193', '196', '205', '5040', '7', '336', '432', '472', '616', '1800', '5820', '364', '1260', '7320', '245', '331', '231', '5100', '240', '184', '199', '232', '6000', '9000', '195', '285', '325', '1320', '226', '6420', '200', '5400', '202', '263', '6240', '5880', '480', '5700', '5100', '204', '8820', '212', '6420', '5460', '6780', '6720', '5640', '-7200', '5220', '5700', '5400', '4320', '229', '4980', '1800', '5040', '7860', '3600', '5700', '5700', '3660', '6300', '7620', '3000', '5700', '9480', '5040', '4680', '3600', '7200', '230', '-4980', '2520', '5940', '6060', '6900', '5880', '171', '5520', '7200', '6540', '172', '2700', '172', '285', '180', '220', '6600', '7260', '5400', '1800', '4800', '5040', '5220', '8580', '5940', '4620', '5640', '187', '7200', '7200', '3600', '7200', '7200', '7200', '7200', '7200', '8160', '16200', '6960', '201', '16200', '9480', '199', '221', '773', '4800', '5220', '5100', '541', '16200', '1075', '1075', '16200', '4530', '9900', '1065', '5340', '8400', '-21600', '8400', '8400', '10800', '7800', '5460', '-480', '10800', '5460', '1320', '98', '8700', '1320', '8100', '5400', '5880', '6000', '5640', '360', '7560', '5520', '7740', '360', '6180', '6240', '123', '6000', '6840', '258', '1560', '205', '3600', '3600', '219', '7140', '3600', '237', '297', '357', '3600', '7080', '7380', '3240', '193', '163', '5580', '1500', '6000', '4320', '7440', '281', '321', '6060', '6540', '-2880', '4680', '6600', '242', '190', '224', '155', '234', '303', '215', '208', '2640', '6300', '573', '3600', '2940', '5160', '139', '1233', '205', '6600', '127', '5520', '7680', '167', '170', '212', '251', '310', '240', '219', '180', '211', '261', '444', '220', '186', '173', '232', '232', '6900', '5400', '7320', '113', '8580', '6720', '7260', '214', '360', '176', '-1440', '7200', '5940', '252', '179', '3000', '5880', '243', '6180', '480', '6120', '4680', '5340', '305', '11100', '226', '4680', '9840', '4620', '197', '182', '160', '-3060', '6420', '5400', '6600', '4620', '6840', '6780', '-5400', '3600', '1860', '7020', '86400', '-3600', '3600', '-4080', '4500', '206', '241', '201', '215', '1800', '2700', '5400', '5400', '4380', '5040', '6420', '5400', '4620', '4920', '5640', '5580', '5460', '1800', '5580', '258', '249', '8400', '-2700', '-2700', '-2700', '-2700', '-5400', '6180', '60', '2580', '2580', '5340', '6120', '231', '271', '282', '279', '1800', '197', '225', '274', '221', '-4500', '7800', '6900', '2880', '5400', '225', '1800', '5100', '5520', '6480', '8400', '6960', '260', '172', '290', '-5640', '1800', '236', '145', '3480', '1380', '960', '8100', '231', '1500', '151', '7860', '8100', '207', '7080', '6660', '6660', '5880', '6000', '6720', '5160', '4500', '3360', '6240', '6780', '4920', '189', '201', '5940', '176', '163', '237', '4980', '6240', '1740', '5580', '291', '210', '151', '6660', '5220', '6060', '237', '5520', '1080', '5400', '-1800', '215', '151', '6420', '1800', '-4260', '270', '4200', '2700', '186', '234', '247', '1800', '2700', '153', '163', '194', '195', '2640', '5700', '8880', '213', '236', '2700', '2580', '5880', '5280', '319', '5760', '163', '350', '355', '4800', '5880', '1320', '5280', '5280', '5520', '5640', '4380', '5940', '5400', '5580', '4740', '4980', '6900', '5520', '4920', '7020', '2520', '5640', '7200', '4860', '7320', '9600', '1009', '1980', '6000', '4440', '6900', '5520', '3600', '6360', '6480', '169', '10260', '4260', '220', '228', '3600', '215', '166', '300', '180', '7680', '5400', '7200', '7620', '5400', '177', '5040', '5760', '5580', '5280', '5580', '21300', '1800', '4680', '185', '5400', '6180', '-1800', '6600', '6000', '1020', '6000', '1320', '4920', '6000', '5220', '5340', '5700', '6060', '3000', '7440', '244', '215', '1800', '1320', '1800', '-3300', '5340', '5280', '219', '1320', '182', '171', '3600', '7200', '5340', '5400', '5520', '7320', '7500', '5400', '214', '3600', '4980', '-2520', '-4440', '1620', '5280', '3000', '5220', '185', '-2880', '238', '6840', '1800', '5520', '1800', '202', '3600', '4380', '323', '5160', '5040', '1500', '2700', '199', '1800', '1800', '198', '4980', '4800', '2280', '6300', '1320', '1800', '381', '1320', '1320', '8700', '3600', '5400', '6180', '5940', '30', '3600', '6960', '258', '7020', '329', '5400', '3600', '66', '6120', '7500', '235', '6000', '5460', '5400', '5040', '6660', '6120', '8520', '4980', '-1980', '4740', '2580', '250', '220', '225', '367', '169', '5880', '5340', '6960', '2700', '600', '5820', '6000', '3600', '197', '300', '173', '182', '200', '220', '6000', '461', '1800', '8040', '7320', '5400', '6420', '5280', '4980', '6900', '3960', '6600', '4860', '6900', '6600', '221', '182', '6600', '6840', '6540', '7500', '1757', '4620', '2100', '6000', '316', '6060', '10620', '840', '6900', '226', '540', '258', '5160', '6960', '4200', '240', '237', '226', '239', '1500', '1440', '7080', '7740', '7500', '8400', '6480', '600', '660', '1440', '4320', '1320', '300', '4140', '7560', '5280', '126', '255', '186', '222', '290', '196', '660', '208', '5820', '259', '155', '5820', '2820', '5820', '6000', '5340', '6900', '209', '240', '8760', '291', '8340', '6120', '5760', '190', '244', '6780', '258', '263', '289', '261', '660', '-1680', '292', '202', '6720', '267', '292', '229', '244', '5880', '1500', '8160', '1320', '199', '208', '6000', '230', '2640', '237', '235', '256', '259', '2580', '284', '5040', '267', '1260', '7020', '272', '155', '4800', '6600', '442', '5760', '5400', '265', '5700', '200', '5580', '6360', '4800', '4200', '5520', '5940', '1800', '194', '4020', '174', '10920', '5400', '3600', '180', '2940', '3360', '119', '6720', '399', '240', '3600', '2700', '7680', '237', '-3540', '5880', '1298', '5340', '93', '660', '5700', '6180', '188', '6900', '213', '720', '249', '201', '3600', '4200', '3600', '900', '190', '3000', '5700', '2758', '10800', '5400', '249', '3000', '385', '194', '6420', '5400', '5100', '5340', '7920', '7080', '3780', '2820', '5520', '2520', '5340', '5940', '4620', '5760', '5760', '4200', '311', '7680', '305', '6060', '5280', '7380', '210', '257', '6720', '5100', '271', '210', '6240', '3600', '305', '153', '5160', '228', '340', '132', '336', '5160', '7140', '275', '120', '519', '6300', '5400', '1800', '5700', '4980', '202', '3600', '4920', '5640', '5760', '6180', '6000', '178', '6780', '208', '6480', '5520', '189', '3600', '7200', '3600', '8460', '169', '1800', '8280', '5940', '5820', '5460', '5760', '261', '311', '3600', '197', '350', '182', '3600', '285', '189', '210', '281', '-7200', '6300', '713', '275', '443', '5580', '4200', '247', '224', '3600', '4800', '5700', '3600', '5400', '313', '242', '182', '180', '7920', '119', '5400', '3000', '1560', '202', '194', '235', '288', '299', '162', '180', '-2880', '1320', '3720', '3120', '2340', '5940', '1800', '169', '4440', '600', '6600', '5400', '5700', '215', '248', '246', '5340', '1500', '5220', '6000', '6840', '1500', '241', '3600', '180', '202', '271', '2760', '234', '5700', '2880', '262', '546', '7800', '181', '-5400', '6480', '6360', '287', '303', '146', '-3000', '5400', '5280', '5280', '6600', '6540', '5280', '6600', '4800', '4500', '6540', '5580', '6300', '182', '7200', '9180', '3600', '1800', '6900', '184', '5400', '5280', '15900', '202', '148', '264', '6360', '7800', '5640', '153', '2880', '5760', '1200', '5700', '3600', '5400', '7740', '243', '7080', '4440', '5880', '4140', '5640', '2520', '305', '249', '5700', '225', '431', '260', '199', '-1320', '280', '6000', '6600', '8760', '7680', '234', '213', '4740', '300', '7380', '8040', '3720', '5640', '5760', '217', '1800', '7020', '8820', '6780', '960', '-3000', '230', '274', '3600', '3600', '3600', '-2880', '3600', '3600', '3600', '60', '3600', '60', '8160', '5100', '4500', '360', '1348', '7740', '5100', '3600', '3600', '6120', '185', '4500', '6000', '9900', '7260', '7140', '15900', '4200', '3900', '261', '5340', '155', '4920', '2520', '6900', '5700', '2580', '4440', '6000', '9900', '187', '196', '2400', '2700', '5700', '5520', '-2820', '2400', '2700', '780', '1800', '6120', '509', '15900', '12600', '1800', '4620', '1800', '1320', '337', '2820', '256', '240', '309', '347', '135', '4620', '6120', '4680', '6600', '6420', '7980', '258', '4500', '295', '6660', '5160', '206', '236', '1380', '7740', '2700', '2700', '4500', '2820', '5520', '3600', '5460', '5700', '6000', '-720', '3600', '5040', '5700', '7200', '8820', '1800', '6960', '5400', '5520', '5400', '211', '5400', '8520', '6360', '8340', '121', '5400', '3600', '178', '166', '4800', '6060', '307', '3000', '86400', '5100', '210', '213', '1800', '5160', '1700', '221', '5220', '238', '5160', '239', '168', '6000', '5640', '480', '1800', '213', '4140', '251', '220', '1440', '7320', '5400', '15900', '2760', '3600', '5760', '7200', '8160', '1740', '6120', '4680', '15900', '-2880', '-2760', '5580', '-6000', '6540', '6720', '2520', '7800', '1800', '6900', '5520', '5880', '15900', '900', '2700', '2400', '245', '780', '5520', '221', '5400', '4320', '5580', '5820', '4920', '5700', '-3000', '302', '9840', '7', '720', '234', '-1320', '10080', '-1320', '1380', '943', '10440', '11100', '4560', '8040', '5280', '3600', '6600', '2640', '208', '300', '-5400', '5700', '428', '6000', '209', '4980', '1200', '5700', '190', '6660', '6900', '3600', '5160', '-3900', '-1680', '195', '6300', '1320', '8700', '6660', '7140', '269', '5820', '6420', '1800', '4800', '7380', '6060', '1620', '6720', '5880', '168', '4020', '3360', '6300', '4800', '6420', '6780', '252', '203', '413', '7440', '3180', '-3180', '174', '6600', '2700', '4800', '3180', '6420', '180', '211', '7080', '8280', '5400', '9660', '6000', '5700', '201', '190', '225', '-3000', '5280', '7320', '287', '6600', '3900', '6300', '4620', '8820', '720', '758', '196', '206', '7380', '6360', '8760', '1440', '182', '208', '298', '374', '7', '12', '5640', '239', '5460', '660', '4740', '5880', '8880', '6300', '1245', '2400', '1320', '7200', '219', '2880', '4980', '231', '4200', '992', '6000', '4920', '8100', '239', '317', '150', '395', '134', '4200', '7140', '163', '6600', '180', '203', '200', '1800', '5700', '-2700', '-2880', '5340', '180', '150', '4260', '179', '5340', '6720', '5400', '5280', '5400', '5100', '5400', '6240', '6000', '4200', '1800', '7200', '8580', '7260', '5400', '7740', '3600', '245', '373', '4980', '4020', '-2520', '9540', '7200', '216', '238', '7020', '300', '350', '41', '259', '255', '197', '4320', '5280', '5640', '286', '7080', '216', '3000', '6360', '5400', '6360', '3300', '4620', '196', '4860', '5760', '5580', '202', '176', '2700', '5820', '2640', '5520', '5580', '5520', '6300', '5160', '165', '8400', '208', '316', '5880', '5940', '6720', '233', '178', '233', '234', '-4980', '7860', '208', '5400', '3000', '6600', '5400', '193', '5820', '3000', '413', '1800', '224', '6180', '3600', '219', '7200', '3600', '1320', '2700', '3600', '216', '5340', '600', '8160', '8880', '202', '203', '200', '4200', '1680', '9180', '5400', '5400', '292', '5640', '6480', '245', '306', '219', '6240', '6600', '9000', '5100', '6300', '6600', '5760', '172', '2820', '660', '5100', '6600', '5880', '6000', '1200', '5820', '7260', '303', '5460', '4320', '840', '7980', '5040', '430', '5400', '1020', '4260', '223', '-2700', '6540', '245', '4860', '7440', '8100', '3600', '152', '5820', '199', '5400', '2760', '242', '7620', '5160', '5580', '5220', '6120', '5940', '6180', '2520', '4860', '5640', '162', '239', '184', '4740', '222', '599', '516', '5220', '7440', '6840', '6240', '7140', '5700', '5760', '3300', '6000', '6480', '5700', '132', '6300', '7440', '4200', '4440', '5700', '390', '600', '421', '1038', '5880', '2400', '5160', '3000', '5160', '1800', '4200', '4920', '5400', '392', '5340', '3000', '227', '220', '179', '7140', '540', '1560', '6480', '4920', '3420', '5880', '3600', '5280', '6900', '5280', '180', '5340', '4560', '5760', '5400', '3900', '420', '6300', '5400', '6000', '3420', '4440', '93', '1260', '5460', '6480', '5940', '6360', '4800', '7320', '5820', '5700', '5520', '6480', '1800', '4740', '3480', '224', '118', '5520', '4500', '5340', '209', '5400', '6420', '5040', '205', '160', '4440', '5520', '4980', '4200', '7200', '7320', '5820', '146', '5700', '2700', '3480', '10740', '10560', '4800', '6360', '4920', '7080', '3900', '229', '14220', '4920', '5400', '4560', '5520', '4200', '3000', '3300', '3000', '225', '360', '5820', '215', '660', '7200', '4680', '5400', '5520', '7020', '3600', '1800', '4980', '3900', '6900', '5040', '5760', '5700', '5220', '5280', '5700', '5340', '10800', '4920', '5400', '5400', '5700', '5760', '1500', '1380', '215', '6240', '3000', '900', '1860', '2640', '5700', '5700', '6120', '360', '5460', '5700', '2700', '3600', '5340', '5580', '720', '5400', '6360', '3000', '480', '7440', '243', '252', '7260', '5700', '5100', '4980', '7440', '2640', '5700', '232', '5400', '6240', '5580', '7020', '5760', '420', '5100', '5400', '5520', '3600', '5220', '7200', '5040', '451', '5400', '6180', '3000', '4800', '365', '1800', '5700', '5340', '6000', '495', '5340', '260', '5880', '6240', '3900', '5340', '8100', '235', '234', '250', '1710', '177', '3720', '7080', '4320', '2520', '162', '5280', '4140', '5760', '5400', '5400', '6300', '3600', '3600', '6240', '167', '3480', '600', '5760', '1260', '1020', '5220', '1800', '1080', '178', '221', '229', '2580', '191', '2700', '281', '283', '2700', '6120', '1020', '230', '180', '3600', '1525', '1500', '1505', '5160', '5520', '6000', '-1800', '60', '7260', '5100', '4740', '6240', '4320', '160', '6600', '5760', '4440', '6000', '5700', '6000', '6240', '6240', '4920', '6480', '5220', '5700', '5520', '2700', '1440', '1440', '1140', '2400', '7200', '6720', '3900', '3480', '5340', '7080', '6300', '900', '3600', '900', '780', '4140', '1680', '4500', '6000', '4140', '5700', '5400', '5220', '2880', '5760', '5700', '3600', '10380', '1500', '288', '5940', '5760', '4980', '2700', '5100', '5520', '5520', '5640', '6600', '4920', '1800', '5160', '5880', '7980', '10800', '5640', '9000', '6000', '6000', '5340', '5700', '6840', '660', '4980', '2521', '3761', '181', '7200', '5160', '5580', '5280', '6000', '5760', '7620', '1620', '340', '5400', '9420', '191', '3000', '4800', '4800', '6900', '7680', '5700', '1440', '2100', '1380', '5160', '8160', '3600', '3900', '1800', '5280', '5100', '540', '5640', '4980', '5700', '3600', '4440', '5160', '4800', '6120', '180', '5040', '3600', '5760', '5640', '5340', '5400', '5820', '5760', '5400', '6420', '60', '5040', '780', '3000', '7500', '6360', '12000', '272', '5820', '3480', '22', '6480', '4260', '5820', '6000', '6960', '6240', '2520', '900', '478', '1560', '4920', '4620', '5400', '6420', '239', '256', '5580', '1080', '1260', '2880', '5400', '3840', '5820', '5400', '284', '198', '5880', '480', '4800', '5400', '4800', '4020', '4200', '5700', '5520', '6360', '5340', '5340', '2580', '6000', '278', '441', '6120', '3900', '5340', '5640', '245', '8520', '5340', '1020', '4380', '5760', '6240', '5940', '4500', '4860', '200', '4440', '5820', '4200', '6960', '5100', '4860', '233', '3600', '780', '8760', '-360', '1440', '1800', '5880', '7200', '4200', '6420', '3480', '4500', '5760', '4260', '3000', '3720', '6360', '31320', '3300', '6420', '5640', '5940', '4740', '5280', '4800', '6120', '3900', '5340', '6120', '5940', '6360', '7800', '1200', '5040', '720', '4920', '435', '3300', '7200', '1800', '6780', '1800', '2700', '5820', '3780', '600', '1255', '2100', '3000', '10800', '3000', '3000', '3000', '4320', '5220', '8220', '5400', '5520', '5820', '6540', '420', '5340', '5040', '4800', '6060', '360', '281', '840', '6360', '3000', '240', '5400', '-1680', '187', '4680', '420', '335', '186', '4740', '3840', '4380', '6300', '5400', '4800', '5460', '6000', '6000', '228', '192', '1500', '3600', '4500', '5040', '5400', '152', '7500', '6420', '4380', '3000', '8280', '250', '5700', '6660', '5520', '8100', '1020', '9420', '274', '228', '356', '336', '1800', '1080', '7980', '3660', '3600', '3000', '256', '3420', '3000', '4020', '4200', '5940', '3840', '5580', '1800', '2280', '6420', '5040', '1260', '214', '3120', '7620', '231', '5760', '516', '6480', '198', '208', '-1500', '7080', '6000', '5460', '199', '205', '8460', '5340', '4260', '2700', '3600', '5400', '3600', '-5400', '5880', '7020', '7200', '3000', '6300', '4620', '6420', '5160', '4860', '5700', '5040', '6600', '4320', '5760', '6780', '1140', '4800', '4200', '5280', '6540', '6480', '1980', '672', '6000', '5760', '6240', '5040', '1080', '5700', '4680', '5400', '6300', '6360', '8400', '2700', '228', '238', '6420', '3120', '204', '6240', '5400', '3600', '3000', '185', '232', '4920', '6420', '263', '219', '225', '230', '3000', '4200', '6360', '44100', '2700', '7920', '240', '5940', '6300', '1800', '229', '-900', '6420', '976', '265', '225', '362', '1800', '3600', '6660', '7500', '249', '238', '3960', '4320', '5400', '240', '3960', '3660', '3960', '4320', '5460', '4500', '5700', '-3000', '7200', '3420', '5640', '5700', '6120', '5820', '140', '4140', '5820', '6420', '3600', '2460', '1800', '7800', '5280', '6480', '5160', '6540', '5880', '5400', '5880', '5880', '5400', '6000', '6060', '6240', '6480', '3120', '5280', '9120', '351', '6480', '5040', '5460', '5940', '5760', '5400', '198', '6720', '233', '-4260', '3600', '3600', '6300', '4320', '420', '212', '600', '1020', '460', '7020', '5760', '5400', '8400', '6720', '4740', '7860', '5220', '5400', '8280', '163', '165', '229', '6480', '5520', '420', '217', '226', '5460', '182', '4140', '3000', '3600', '3000', '3480', '6300', '6000', '3600', '5280', '720', '5340', '4980', '5340', '2280', '6240', '5400', '5340', '1800', '3600', '4920', '151.8', '264', '6780', '9600', '4200', '180', '5640', '9000', '6480', '5760', '5700', '2700', '4980', '5940', '4680', '2700', '780', '5100', '540', '6360', '1800', '1020', '3060', '7140', '5640', '5400', '2880', '1380', '4200', '480', '2880', '3780', '7200', '5160', '9060', '3360', '4860', '154', '183', '150', '211', '121', '3960', '4200', '3780', '3600', '660', '5700', '6000', '5100', '2700', '8400', '-4380', '9240', '5400', '5640', '261', '6960', '5700', '7', '12', '293', '355', '143', '346', '5940', '9720', '5700', '1800', '423', '3180', '5100', '2460', '420', '540', '5460', '6240', '5880', '6000', '282', '285', '200', '5040', '6120', '6000', '5460', '-3360', '5220', '7500', '5640', '6000', '3600', '7920', '4980', '3180', '3000', '5700', '3000', '145', '1380', '497', '5400', '5940', '2820', '5760', '6060', '4440', '229', '1200', '3000', '4320', '1500', '1800', '3000', '540', '5340', '380', '6120', '5400', '1440', '4980', '2700', '540', '6960', '5460', '5400', '5100', '987', '2700', '4980', '7020', '4080', '8580', '3420', '900', '5280', '4440', '-4200', '3600', '3900', '4680', '3000', '1800', '3600', '6720', '4200', '7800', '4860', '3600', '5400', '5880', '2940', '8520', '4500', '-3000', '5520', '4800', '934', '3000', '5580', '3600', '2640', '5400', '1260', '2700', '6360', '609', '7140', '5400', '221', '6600', '8100', '6840', '6480', '6240', '6600', '5280', '5400', '4980', '5880', '5700', '162', '5400', '6420', '6000', '4680', '5160', '5100', '2400', '8100', '221', '5640', '2880', '5460', '420', '5760', '3000', '151', '194', '217', '239', '282', '6660', '5520', '3000', '5100', '6600', '3600', '4680', '14220', '6060', '3900', '5220', '5580', '4200', '4560', '145', '5400', '5220', '3000', '3900', '163', '2700', '1620', '5460', '4980', '6720', '5220', '4200', '4860', '7680', '5160', '5100', '3360', '6480', '660', '5040', '5040', '6060', '7200', '3780', '6120', '5700', '3120', '5100', '5220', '4200', '5520', '5820', '6180', '188', '2460', '279', '6240', '6180', '6480', '184', '3000', '5640', '6120', '6000', '168', '203', '5700', '5400', '162', '5400', '250', '4320', '457', '215', '5400', '5580', '5820', '218', '188', '192', '7080', '4680', '6000', '4500', '1200', '1380', '5940', '6240', '1800', '1800', '5400', '5400', '3600', '4500', '420', '255', '4800', '257', '3600', '5640', '720', '3960', '5820', '2700', '5040', '420', '6900', '14400', '5400', '2880', '119', '210', '122', '446', '5340', '5880', '4860', '3000', '6240', '3000', '1020', '5100', '5280', '4740', '3480', '271', '355', '1800', '5880', '4560', '3000', '5640', '3900', '5100', '259', '174', '7320', '6060', '196', '190', '3720', '4500', '407', '7080', '5640', '8520', '2700', '5820', '7440', '6120', '6540', '401', '5220', '6360', '209', '1195', '5220', '2580', '154', '6660', '4800', '7200', '6000', '415', '500', '1800', '6540', '5160', '5160', '4860', '5760', '6000', '5400', '497', '-3000', '5700', '5400', '12', '166', '197', '137', '209', '223', '212', '293', '420', '4740', '3000', '300', '6300', '252', '372', '6600', '5400', '1320', '5340', '5580', '220', '5820', '5400', '5760', '5040', '2520', '5400', '300', '3300', '6420', '3600', '5880', '5160', '5100', '4020', '3600', '258', '6180', '7620', '5700', '10440', '6180', '-2820', '5940', '4860', '5760', '3600', '3540', '3000', '3600', '3600', '3600', '12000', '5760', '3180', '5640', '5880', '5820', '7200', '4980', '6780', '1620', '7500', '5460', '5400', '5700', '135', '5820', '3180', '5400', '5940', '5760', '6000', '152', '6180', '2700', '3120', '7320', '5520', '3000', '3960', '7740', '5220', '5460', '420', '4260', '248', '2940', '6660', '780', '4200', '262', '2520', '5400', '242', '4980', '5220', '5880', '427', '188', '2700', '205', '135', '5940', '3540', '5340', '5280', '205', '5520', '172', '420', '5460', '6000', '6960', '5160', '1147', '4260', '1320', '5280', '142', '213', '5820', '6300', '4140', '5820', '10200', '6000', '3300', '3600', '6000', '1800', '7200', '885', '5100', '3000', '7620', '4860', '4800', '4860', '1980', '290', '6300', '5640', '7860', '2700', '5520', '5460', '4500', '209', '5460', '4500', '247', '420', '6660', '1800', '5760', '5820', '5340', '5400', '5880', '5760', '6000', '5400', '5100', '3420', '5220', '6000', '6000', '6000', '3000', '5400', '1800', '6900', '3000', '230', '4500', '6720', '7', '12', '217', '250', '780', '1560', '5700', '2700', '5820', '6300', '6600', '5040', '6120', '5760', '5160', '5640', '5640', '5880', '5280', '3000', '4560', '4200', '3600', '5220', '3000', '3600', '500', '-480', '420', '5400', '3000', '3420', '7920', '4200', '1245', '2400', '316', '5400', '217', '220', '285', '291', '6600', '3120', '3300', '215', '5880', '6360', '210', '283', '302', '6780', '7140', '1011', '4500', '3000', '213', '3600', '4680', '5700', '5160', '5520', '4440', '5220', '4080', '9420', '6960', '6960', '5520', '5700', '5400', '360', '6600', '3600', '73', '6720', '6360', '3000', '4680', '3480', '5520', '5760', '5580', '1800', '-3600', '3600', '1800', '3600', '7680', '5520', '7200', '180', '6900', '174', '2400', '5460', '5580', '-3420', '3600', '5400', '6300', '5460', '220', '182', '600', '5760', '3180', '5340', '900', '5400', '1020', '1980', '3600', '312', '660', '7200', '175', '6180', '5280', '5100', '5400', '226', '5760', '4560', '3960', '5400', '4920', '4440', '4680', '255', '6180', '1500', '6480', '2700', '210', '6720', '5520', '378', '2700', '198', '38', '4320', '6180', '229', '3600', '6000', '4800', '4500', '4980', '1245', '2400', '3480', '210', '5400', '5</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>In which films directed by Garry Marshall was Julia Roberts starring?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>["http://dbpedia.org/resource/http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['4']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>What is the most frequent cause of death?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
         </is>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Who developed the video game World of Warcraft?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Give me all the TV shows with Neil Patrick Harris.</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/8-Bit_Christmas', 'http://dbpedia.org/resource/A_Million_Ways_to_Die_in_the_West', 'http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/A_Very_Harold_&amp;_Kumar_Christmas', 'http://dbpedia.org/resource/Animal_Room', 'http://dbpedia.org/resource/Batman:_Under_the_Red_Hood', 'http://dbpedia.org/resource/Beastly_(film)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Cats_&amp;_Dogs:_The_Revenge_of_Kitty_Galore', "http://dbpedia.org/resource/Clara's_Heart", 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_(film)', 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_2', 'http://dbpedia.org/resource/Company_(2011_film)', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/Gone_Girl_(film)', 'http://dbpedia.org/resource/Harold_&amp;_Kumar_Escape_from_Guantanamo_Bay', 'http://dbpedia.org/resource/Harold_&amp;_Kumar', 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', 'http://dbpedia.org/resource/Justice_League:_The_New_Frontier', 'http://dbpedia.org/resource/My_Antonia_(film)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Purple_People_Eater_(film)', 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/Starship_Troopers_(film)', 'http://dbpedia.org/resource/The_Best_and_the_Brightest_(film)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/The_Matrix_Resurrections', 'http://dbpedia.org/resource/The_Proposition_(1998_film)', 'http://dbpedia.org/resource/The_Smurfs_(film)', 'http://dbpedia.org/resource/The_Smurfs_2', 'http://dbpedia.org/resource/The_Unbearable_Weight_of_Massive_Talent', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>What country is Mount Everest in?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Which people were born in Heraklion?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,37 +758,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>Give me all islands that belong to Japan.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,57 +838,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>Give me all the TV shows with Neil Patrick Harris.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/8-Bit_Christmas', 'http://dbpedia.org/resource/A_Million_Ways_to_Die_in_the_West', 'http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/A_Very_Harold_&amp;_Kumar_Christmas', 'http://dbpedia.org/resource/Animal_Room', 'http://dbpedia.org/resource/Batman:_Under_the_Red_Hood', 'http://dbpedia.org/resource/Beastly_(film)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Cats_&amp;_Dogs:_The_Revenge_of_Kitty_Galore', "http://dbpedia.org/resource/Clara's_Heart", 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_(film)', 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_2', 'http://dbpedia.org/resource/Company_(2011_film)', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/Gone_Girl_(film)', 'http://dbpedia.org/resource/Harold_&amp;_Kumar_Escape_from_Guantanamo_Bay', 'http://dbpedia.org/resource/Harold_&amp;_Kumar', 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', 'http://dbpedia.org/resource/Justice_League:_The_New_Frontier', 'http://dbpedia.org/resource/My_Antonia_(film)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Purple_People_Eater_(film)', 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/Starship_Troopers_(film)', 'http://dbpedia.org/resource/The_Best_and_the_Brightest_(film)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/The_Matrix_Resurrections', 'http://dbpedia.org/resource/The_Proposition_(1998_film)', 'http://dbpedia.org/resource/The_Smurfs_(film)', 'http://dbpedia.org/resource/The_Smurfs_2', 'http://dbpedia.org/resource/The_Unbearable_Weight_of_Massive_Talent', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>Give me all movies with Tom Cruise.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/American_Sniper', 'http://dbpedia.org/resource/Bird_(1988_film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Breezy', 'http://dbpedia.org/resource/Changeling_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Flags_of_Our_Fathers_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/Hereafter_(film)', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Invictus_(film)', 'http://dbpedia.org/resource/J._Edgar', 'http://dbpedia.org/resource/Letters_from_Iwo_Jima', 'http://dbpedia.org/resource/Midnight_in_the_Garden_of_Good_and_Evil_(film)', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Mystic_River_(film)', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Richard_Jewell_(film)', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_15:17_to_Paris', 'http://dbpedia.org/resource/The_Blues_(film_series)__Piano_Blues__1', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
         </is>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>What country is Mount Everest in?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>What was the last movie with Alec Guinness?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Who created Batman?</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,40 +958,460 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>What movies does Jesse Eisenberg play in?</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>How many children did Benjamin Franklin have?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>How tall is Claudia Schiffer?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['1.8']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['1.8']</t>
+        </is>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Give me the birth place of Frank Sinatra.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+        </is>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Which city has the least inhabitants?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+        </is>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Give me all Swedish holidays.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
+        </is>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Where did Abraham Lincoln die?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+        </is>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>In which country is the Limerick Lake?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Canada']</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Canada']</t>
+        </is>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>How tall is Michael Jordan?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>['1.9812']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0.001444', '0.0016', '0.00172', '0.00178', '0.015', '0.016', '0.0162', '0.0165', '0.0165', '0.0166', '0.0168', '0.0168', '0.017', '0.0173', '0.0173', '0.0174', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0176', '0.0177', '0.0177', '0.0178', '0.0178', '0.0179', '0.0179', '0.0179', '0.0179', '0.0179', '0.0179', '0.018', '0.018', '0.018', '0.018', '0.018', '0.0181', '0.0183', '0.0184', '0.0185', '0.0185', '0.0185', '0.0185', '0.0186', '0.0188', '0.0188', '0.0188', '0.0188', '0.0188', '0.0188', '0.0188', '0.0189', '0.019', '0.0191', '0.0192', '0.0195', '0.0195', '0.0195', '0.0195', '0.0195', '0.0196', '0.0197', '0.0197', '0.0197', '0.0198', '0.0198', '0.02', '0.0202', '0.0205', '0.028575', '0.03', '0.03', '0.03', '0.035', '0.0381', '0.04', '0.04', '0.044958', '0.05', '0.05', '0.0508', '0.054', '0.063246', '0.07', '0.0700001', '0.0705', '0.07112', '0.072', '0.075', '0.076', '0.076', '0.0762', '0.079', '0.08', '0.082', '0.08255', '0.08255', '0.083', '0.085', '0.087', '0.0889', '0.0889', '0.0889', '0.089916', '0.09', '0.09144', '0.092075', '0.09398', '0.094234', '0.095', '0.096', '0.098', '0.098044', '0.099', '0.09906', '0.09906', '0.09906', '0.09906', '0.09906', '0.1', '0.1016', '0.1016', '0.1016', '0.1016', '0.1016', '0.1016', '0.1016', '0.1016', '0.102', '0.104', '0.104775', '0.105918', '0.109', '0.109', '0.109', '0.10922', '0.10922', '0.10922', '0.10922', '0.11', '0.11', '0.112', '0.113', '0.1143', '0.1143', '0.1143', '0.1143', '0.115', '0.11684', '0.11684', '0.117', '0.117', '0.117094', '0.118', '0.11938', '0.11938', '0.11938', '0.12', '0.12', '0.12', '0.12065', '0.12065', '0.121', '0.121', '0.122', '0.123', '0.124', '0.12446', '0.125', '0.125', '0.125', '0.125', '0.125', '0.125984', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.1275', '0.129', '0.129286', '0.12954', '0.129794', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.131', '0.132', '0.132', '0.132', '0.132', '0.13208', '0.13208', '0.13208', '0.13208', '0.132715', '0.13335', '0.13335', '0.1335', '0.133604', '0.134', '0.134', '0.134', '0.134', '0.134', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.136', '0.136', '0.136', '0.136', '0.136', '0.136', '0.136', '0.137', '0.137', '0.137', '0.137008', '0.13716', '0.1375', '0.138', '0.1382', '0.13843', '0.13843', '0.13843', '0.13843', '0.139', '0.139', '0.1397', '0.1397', '0.1397', '0.1397', '0.1397', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.141224', '0.142', '0.142', '0.142', '0.142', '0.142', '0.142', '0.14224', '0.14224', '0.14224', '0.143', '0.143', '0.143', '0.144', '0.14478', '0.145', '0.145', '0.145', '0.145', '0.145', '0.145', '0.14605', '0.14605', '0.147', '0.15', '0.15', '0.15', '0.15', '0.152', '0.152146', '0.1524', '0.1524', '0.1524', '0.1524', '0.1524', '0.153924', '0.1545', '0.155575', '0.157', '0.158', '0.159', '0.16', '0.16', '0.16', '0.16', '0.165', '0.1695', '0.17', '0.17', '0.17018', '0.175', '0.175', '0.1778', '0.1778', '0.1778', '0.1778', '0.1778', '0.1778', '0.1778', '0.18', '0.18', '0.182', '0.185', '0.185', '0.186', '0.19', '0.19', '0.19', '0.19', '0.19', '0.191', '0.195', '0.195', '0.195', '0.195', '0.196', '0.196', '0.196', '0.19685', '0.199', '0.199', '0.2', '0.2', '0.2', '0.201', '0.2032', '0.2032', '0.2032', '0.2032', '0.2032', '0.2032', '0.204978', '0.205', '0.205', '0.205', '0.208', '0.209804', '0.21', '0.21', '0.21', '0.212', '0.214', '0.22', '0.22', '0.22', '0.22', '0.22', '0.22098', '0.223', '0.225', '0.225', '0.23', '0.23', '0.238', '0.23876', '0.24', '0.241', '0.245', '0.246', '0.25', '0.25', '0.255', '0.258', '0.258', '0.25908', '0.2591', '0.26', '0.262', '0.263', '0.263', '0.26416', '0.267', '0.27', '0.27', '0.275', '0.277', '0.279', '0.28', '0.28', '0.283', '0.28448', '0.2888', '0.29', '0.29', '0.291', '0.294', '0.31', '0.32', '0.32', '0.32', '0.322', '0.3429', '0.37', '0.373', '0.381', '0.391922', '0.415', '0.4318', '0.44', '0.455', '0.4572', '0.46', '0.47', '0.475', '0.478', '0.495', '0.508', '0.515', '0.53', '0.53', '0.5334', '0.546', '0.54864', '0.56', '0.56', '0.5993', '0.6', '0.60325', '0.6096', '0.6096', '0.6096', '0.6096', '0.6096', '0.6096', '0.62', '0.621', '0.63', '0.635', '0.644', '0.66', '0.66', '0.6604', '0.664', '0.67', '0.672', '0.68', '0.681', '0.6858', '0.69', '0.693', '0.693', '0.693', '0.693', '0.693', '0.693', '0.6975', '0.7', '0.7005', '0.701', '0.7112', '0.7112', '0.725', '0.7366', '0.74', '0.74', '0.76', '0.762', '0.762', '0.762', '0.775', '0.7874', '0.7874', '0.7874', '0.795', '0.8', '0.8', '0.81', '0.81', '0.8128', '0.8128', '0.8128', '0.83', '0.83', '0.838', '0.84', '0.84', '0.84', '0.84455', '0.86', '0.863', '0.8636', '0.8636', '0.8636', '0.8636', '0.87', '0.889', '0.89', '0.9', '0.9', '0.903', '0.91', '0.91', '0.91', '0.914', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.92', '0.93', '0.93', '0.93', '0.935', '0.9398', '0.9398', '0.9398', '0.9398', '0.94', '0.94', '0.95', '0.96', '0.965', '0.965', '0.9652', '0.97', '0.97', '0.97', '0.97', '0.972', '0.975385', '0.977', '0.98', '0.98', '0.98', '0.98', '0.98', '0.983', '0.983', '0.99', '0.99', '0.99', '0.9906', '0.9906', '0.9906', '0.9906', '0.991', '0.99314', '0.995', '0.995', '0.99568', '0.999', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1.009', '1.01', '1.015', '1.016', '1.019', '1.02', '1.02', '1.02', '1.021', '1.025', '1.0287', '1.03', '1.03', '1.03', '1.03124', '1.04', '1.04', '1.04', '1.041', '1.0414', '1.0414', '1.0414', '1.0414', '1.045', '1.049', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.0541', '1.055', '1.055', '1.06', '1.06', '1.063', '1.065', '1.065', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.067', '1.067', '1.067', '1.069', '1.069', '1.07', '1.07', '1.07', '1.07', '1.07', '1.07', '1.07', '1.07', '1.0701', '1.074', '1.075', '1.076', '1.0795', '1.0795', '1.0795', '1.0795', '1.08', '1.08', '1.08', '1.085', '1.08585', '1.09', '1.09', '1.09', '1.09', '1.092', '1.092', '1.092', '1.092', '1.0922', '1.0922', '1.0922', '1.09449', '1.095', '1.09728', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1049', '1.1049', '1.105', '1.105', '1.105', '1.105', '1.108', '1.10998', '1.11', '1.11', '1.11', '1.11', '1.11', '1.11', '1.111', '1.111', '1.112', '1.11252', '1.114', '1.114', '1.116', '1.116', '1.116', '1.116', '1.117', '1.117', '1.117', '1.1176', '1.1176', '1.1176', '1.118', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.122', '1.124', '1.127', '1.127', '1.127', '1.13', '1.13', '1.13', '1.13', '1.13', '1.13', '1.13', '1.13', '1.1303', '1.1303', '1.1303', '1.132', '1.133', '1.134', '1.134', '1.135', '1.135', '1.135', '1.135', '1.135', '1.13538', '1.136', '1.138', '1.138', '1.138', '1.138', '1.139', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.141', '1.142', '1.142', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.145', '1.147', '1.148', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15062', '1.15062', '1.151', '1.152', '1.153', '1.155', '1.156', '1.156', '1.158', '1.16', '1.16', '1.16', '1.16', '1.16', '1.16', '1.16', '1.16', '1.16', '1.164', '1.165', '1.165', '1.165', '1.166', '1.166', '1.168', '1.168', '1.168', '1.168', '1.1684', '1.1684', '1.1684', '1.1684', '1.1684', '1.1684', '1.169', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.175', '1.175', '1.175', '1.175', '1.175', '1.175', '1.17602', '1.17602', '1.17856', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.181', '1.181', '1.181', '1.1811', '1.182', '1.182', '1.183', '1.184', '1.185', '1.185', '1.185', '1.186', '1.186', '1.187', '1.188', '1.188', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.191', '1.19126', '1.192', '1.1938', '1.1938', '1.1938', '1.1938', '1.194', '1.194', '1.195', '1.195', '1.195', '1.195', '1.198', '1.198', '1.198', '1.198', '1.198', '1.19888', '1.19888', '1.199', '1.199', '1.199', '1.199', '1.199', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.20142', '1.202', '1.202', '1.202', '1.203', '1.203', '1.20396', '1.204', '1.204', '1.204', '1.205', '1.205', '1.206', '1.2065', '1.2065', '1.2065', '1.2065', '1.207', '1.208', '1.208', '1.21', '1.21', '1.21', '1.21', '1.21', '1.21', '1.21', '1.21', '1.21158', '1.212', '1.212', '1.213', '1.213', '1.213', '1.21361', '1.214', '1.214', '1.214', '1.21412', '1.21412', '1.215', '1.215', '1.215', '1.216', '1.21666', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.21923', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.222', '1.222', '1.222', '1.22237', '1.224', '1.22428', '1.225', '1.225', '1.225', '1.22555', '1.22555', '1.226', '1.22682', '1.227', '1.229', '1.22936', '1.22936', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.2319', '1.233', '1.233', '1.23444', '1.23444', '1.23444', '1.23444', '1.23444', '1.23444', '1.235', '1.235', '1.235', '1.235', '1.235', '1.23698', '1.237', '1.239', '1.23952', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.242', '1.24206', '1.243', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.245', '1.245', '1.245', '1.245', '1.245', '1.245', '1.245', '1.245', '1.247', '1.24714', '1.24993', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25095', '1.25095', '1.252', '1.252', '1.25222', '1.25222', '1.254', '1.25476', '1.255', '1.255', '1.255', '1.255', '1.255', '1.257', '1.257', '1.2573', '1.2573', '1.25984', '1.25984', '1.25984', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.261', '1.261', '1.262', '1.262', '1.26238', '1.26238', '1.263', '1.26365', '1.26492', '1.26492', '1.26492', '1.265', '1.265', '1.265', '1.265', '1.267', '1.26898', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.272', '1.27254', '1.27254', '1.27254', '1.27254', '1.273', '1.274', '1.275', '1.275', '1.275', '1.275', '1.275', '1.275', '1.27508', '1.27508', '1.27508', '1.27508', '1.27508', '1.27508', '1.27508', '1.276', '1.276', '1.276', '1.27635', '1.277', '1.277', '1.27762', '1.278', '1.279', '1.279', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28016', '1.28016', '1.28016', '1.28016', '1.28016', '1.281', '1.2827', '1.2827', '1.283', '1.284', '1.285', '1.285', '1.285', '1.285', '1.285', '1.285', '1.285', '1.28524', '1.28524', '1.28524', '1.28778', '1.28778', '1.28778', '1.288', '1.288', '1.289', '1.289', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29007', '1.29007', '1.29032', '1.29032', '1.29032', '1.29032', '1.29032', '1.291', '1.29286', '1.29286', '1.29286', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.297', '1.297', '1.29794', '1.29794', '1.29794', '1.29794', '1.298', '1.298', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.30048', '1.30048', '1.30048', '1.30048', '1.30048', '1.301', '1.301', '1.302', '1.302', '1.303', '1.303', '1.30302', '1.304', '1.304', '1.305', '1.305', '1.305', '1.305', '1.305', '1.305', '1.305', '1.30556', '1.30556', '1.30556', '1.30556', '1.30556', '1.30556', '1.30556', '1.308', '1.308', '1.308', '1.3081', '1.3081', '1.309', '1.30988', '1.30988', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.311', '1.311', '1.313', '1.31318', '1.31318', '1.314', '1.314', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.31572', '1.31572', '1.31572', '1.31572', '1.31572', '1.318', '1.318', '1.318', '1.318', '1.31826', '1.31826', '1.31826', '1.31826', '1.31826', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.321', '1.321', '1.321', '1.321', '1.321', '1.321', '1.321', '1.322', '1.32334', '1.32334', '1.32334', '1.32334', '1.324', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.32588', '1.32588', '1.32588', '1.32588', '1.32588', '1.326', '1.32715', '1.328', '1.328', '1.32842', '1.32842', '1.32842', '1.32842', '1.32842', '1.32842', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33096', '1.33096', '1.33096', '1.33096', '1.33096', '1.33096', '1.33096', '1.33096', '1.331', '1.332', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.334', '1.334', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.336', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33858', '1.33858', '1.33858', '1.33858', '1.33858', '1.33985', '1.33985', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.341', '1.341', '1.341', '1.341', '1.34112', '1.34112', '1.34112', '1.34112', '1.34112', '1.34112', '1.34112', '1.34366', '1.34366', '1.34366', '1.34366', '1.34366', '1.34366', '1.34366', '1.34366', '1.344', '1.344', '1.345', '1.345', '1.345', '1.345', '1.345', '1.345', '1.345', '1.346', '1.346', '1.346', '1.346', '1.346', '1.346', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.349', '1.34937', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.352', '1.352', '1.352', '1.35255', '1.353', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.354', '1.354', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.35636', '1.35636', '1.35636', '1.35636', '1.35636', '1.357', '1.358', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.359', '1.359', '1.359', '1.359', '1.359', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.361', '1.36144', '1.36144', '1.36144', '1.36144', '1.362', '1.362', '1.362', '1.363', '1.363', '1.363', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.364', '1.364', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.366', '1.36652', '1.36652', '1.36652', '1.36652', '1.36652', '1.36652', '1.367', '1.367', '1.369', '1.369', '1.369', '1.369', '1.369', '1.369', '1.36906', '1.36906', '1.36906', '1.36906', '1.36906', '1.36906', '1.36906', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.371', '1.371', '1.371', '1.371', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.372', '1.372', '1.372', '1.372', '1.372', '1.372', '1.372', '1.372', '1.374', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37439', '1.37477', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.377', '1.377', '1.37795', '1.378', '1.379', '1.379', '1.379', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37998', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.381', '1.381', '1.38176', '1.38176', '1.38176', '1.38176', '1.38176', '1.38176', '1.382', '1.383', '1.383', '1.384', '1.384', '1.384', '1.384', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.386', '1.386', '1.38684', '1.38684', '1.38684', '1.38684', '1.38684', '1.38684', '1.38684', '1.38684', '1.387', '1.387', '1.388', '1.388', '1.388', '1.389', '1.389', '1.389', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38989', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39065', '1.391', '1.391', '1.39192', '1.39192', '1.39192', '1.39192', '1.39192', '1.39192', '1.392', '1.392', '1.392', '1.392', '1.393', '1.393', '1.393', '1.394', '1.394', '1.394', '1.394', '1.394', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.396', '1.396', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.398', '1.398', '1.398', '1.398', '1.399', '1.399', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.401', '1.402', '1.402', '1.40208', '1.40208', '1.40208', '1.40208', '1.403', '1.404', '1.404', '1.40462', '1.40462', '1.40462', '1.40462', '1.40462', '1.40462', '1.40462', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.406', '1.40652', '1.40716', '1.40716', '1.40716', '1.40716', '1.40716', '1.40716', '1.408', '1.408', '1.408', '1.409', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.411', '1.412', '1.412', '1.412', '1.412', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.413', '1.413', '1.41351', '1.414', '1.414', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.416', '1.416', '1.416', '1.416', '1.416', '1.417', '1.417', '1.417', '1.417', '1.417', '1.41732', '1.41732', '1.41732', '1.41732', '1.41732', '1.41732', '1.41732', '1.41732', '1.418', '1.418', '1.418', '1.419', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.421', '1.421', '1.421', '1.421', '1.422', '1.422', '1.422', '1.422', '1.422', '1.422', '1.422', '1.422', '1.422', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.423', '1.423', '1.423', '1.423', '1.424', '1.424', '1.424', '1.424', '1.424', '1.42494', '1.42494', '1.42494', '1.42494', '1.42494', '1.42494', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.42557', '1.426', '1.426', '1.426', '1.426', '1.427', '1.427', '1.427', '1.427', '1.427', '1.427', '1.427', '1.427', '1.42748', '1.42748', '1.42748', '1.42748', '1.42748', '1.42748', '1.42748', '1.42748', '1.428', '1.428', '1.429', '1.429', '1.429', '1.429', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.431', '1.432', '1.432', '1.432', '1.432', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.433', '1.433', '1.433', '1.433', '1.434', '1.434', '1.435', '1.435', '1.435', </t>
+        </is>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/American_Sniper', 'http://dbpedia.org/resource/Bird_(1988_film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Breezy', 'http://dbpedia.org/resource/Changeling_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Flags_of_Our_Fathers_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/Hereafter_(film)', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Invictus_(film)', 'http://dbpedia.org/resource/J._Edgar', 'http://dbpedia.org/resource/Letters_from_Iwo_Jima', 'http://dbpedia.org/resource/Midnight_in_the_Garden_of_Good_and_Evil_(film)', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Mystic_River_(film)', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Richard_Jewell_(film)', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_15:17_to_Paris', 'http://dbpedia.org/resource/The_Blues_(film_series)__Piano_Blues__1', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>In which countries can you pay using the West African CFA franc?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>how much is the population Iraq?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>['40462701']</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['40462701']</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Who designed the Brooklyn Bridge?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather_Saga', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>What is the birth name of Adele?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>['Adele Laurie Blue Adkins']</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['Adele Laurie Blue Adkins']</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Who discovered Ceres?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+        </is>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>What is the capital of Canada?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
+        </is>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Who created Family Guy?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+        </is>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Who created Batman?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+        </is>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>['34084130000']</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['34084130000']</t>
+        </is>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>What movies does Jesse Eisenberg play in?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
+        </is>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>To which countries does the Himalayan mountain system extend?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+        </is>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
-      <c r="D28" t="b">
+      <c r="D49" t="b">
         <v>0</v>
       </c>
     </row>

--- a/QALD9-Plus-testing/few-shot-entity-aligned/few_shot_wikidata_dbpedia/comparison_results_llama_fewshot_wikidata_dbpedia.xlsx
+++ b/QALD9-Plus-testing/few-shot-entity-aligned/few_shot_wikidata_dbpedia/comparison_results_llama_fewshot_wikidata_dbpedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>Give me all actors starring in movies directed by William Shatner.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -558,37 +558,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Give me the runtime of Toy Story.</t>
+          <t>Which movies star both Liz Taylor and Richard Burton?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['4860']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['5280', '5580', '205', '3600', '4980', '5700', '1380', '2160', '3000', '6000', '6120', '6120', '6000', '260', '6540', '288', '6300', '14400', '6480', '273', '1320', '-2100', '-2700', '-5400', '5760', '5400', '217', '5400', '280', '3600', '4800', '-2640', '5100', '225', '228', '185', '180', '207', '-2700', '1500', '202', '250', '236', '6300', '6780', '2400', '185', '255', '214', '6300', '1800', '206', '5580', '202', '204', '1620', '6000', '202', '218', '5460', '3000', '6000', '-2700', '219', '3600', '2640', '3600', '222', '162', '188', '192', '128', '-2700', '2700', '5760', '221', '5400', '7320', '2640', '5700', '3600', '3600', '205', '6480', '6780', '2520', '5040', '7200', '7140', '358', '586', '1800', '1800', '6300', '5340', '146', '2880', '2640', '2640', '2640', '8760', '210', '5340', '-5400', '251', '5640', '3600', '597', '2520', '2580', '6240', '-3600', '4740', '9180', '208', '5400', '270', '182', '2700', '6000', '2520', '600', '6060', '3000', '5760', '4980', '6720', '205', '5820', '210', '3720', '3600', '223', '5880', '5940', '276', '9480', '260', '300', '2580', '1800', '3900', '152', '242', '2700', '236', '223', '272.4', '223', '969', '5700', '5280', '1200', '6120', '4920', '5400', '217', '3660', '3120', '5760', '5700', '1800', '5100', '247', '242', '5400', '9000', '4680', '168', '209', '210', '1320', '6060', '1800', '1200', '1800', '197', '182', '149', '270', '236', '4560', '218', '13680', '283', '233', '331', '225', '207', '6840', '297', '5940', '224', '232', '252', '295', '298', '359', '177', '292', '326', '8400', '229', '1500', '3600', '5220', '205', '1500', '1260', '225', '230', '446', '283', '223', '245', '323', '203', '289', '148', '231', '217', '500', '225', '205', '135', '235', '270', '230', '150', '156', '5400', '120', '60', '220', '219', '225', '308', '273', '206', '470', '300', '209', '197', '7', '284', '246', '246', '394', '238', '214', '218', '246', '242', '168', '235', '3600', '177', '225', '206', '243', '244', '283', '206', '144', '179', '260', '133', '203', '221', '290', '141', '178', '178', '214', '246', '345', '251', '160', '225', '235', '211', '203', '216', '290', '186', '195', '145', '264', '279', '263', '216', '245', '323', '656', '150', '270', '274', '205', '185', '249', '406', '113', '170', '280', '214', '266', '175', '12', '238', '355', '169', '178', '163', '252', '115', '215', '143', '229', '188', '205', '7', '269', '496', '260', '185', '207', '236', '212', '239', '206', '250', '228', '208', '220', '215', '368', '138', '178', '177', '241', '321', '155', '185', '166', '207', '211', '132', '234', '180', '233', '190', '162', '212', '372', '106', '106', '171', '269', '158', '198', '255', '267', '274', '213', '173', '201', '127', '143', '140', '238', '297', '7', '921', '217', '208', '255', '339', '303', '170', '159', '151', '158', '249', '289', '177', '600', '242', '247', '257', '293', '207', '144', '175', '277', '5040', '6540', '230', '187', '661', '270', '180', '12', '201', '242', '183', '230', '158', '243', '255', '288', '200', '220', '223', '145', '5040', '125', '136', '227', '186', '175', '169', '240', '141', '220', '142', '180', '200', '180', '189', '198', '209', '422', '162', '178', '195', '220', '273', '210', '241', '208', '143', '205', '142', '195', '5760', '225', '220', '138', '130', '172', '191', '260', '239', '257', '146', '265', '267', '214', '212', '244', '175', '190', '239', '208', '240', '12', '216', '260', '175', '201', '165', '180', '130', '159', '196', '200', '209', '165', '203', '165', '171', '206', '245', '276', '277', '180', '360', '174', '180', '350', '137', '152', '180', '142', '208', '242', '179', '1800', '1320', '1800', '5520', '2040', '1800', '3600', '179', '232', '5520', '7860', '2040', '212', '367', '271', '7200', '5400', '2520', '5400', '5400', '255', '290', '6000', '2700', '4920', '1380', '219', '5760', '192', '4260', '4200', '4800', '3600', '3000', '1800', '3300', '4680', '4740', '1260', '5460', '394', '3300', '368', '5460', '2520', '11880', '5400', '5400', '5040', '6300', '4320', '2700', '1101', '7200', '5700', '5520', '6720', '5400', '5340', '9000', '2700', '6120', '2520', '1800', '2880', '6240', '5160', '1800', '3600', '4800', '3720', '5160', '5400', '163', '241', '372', '-1320', '-2580', '2820', '2700', '3000', '5400', '1800', '3600', '3600', '7', '208', '144', '205', '5160', '621', '215', '258', '250', '5220', '4980', '308', '202', '201', '213', '1800', '207', '198', '200', '115', '6240', '205', '218', '3000', '4200', '3600', '8340', '9420', '10620', '2580', '420', '6360', '6300', '198', '1860', '232', '463', '656', '5520', '248', '273', '250', '200', '7320', '179', '5220', '6420', '5460', '6240', '7320', '6660', '185', '8640', '208', '114', '4920', '-1320', '2580', '2580', '262', '600', '5580', '199', '234', '5340', '5520', '3300', '3900', '5280', '1315', '7020', '5100', '6660', '5640', '6000', '5880', '187', '5280', '157', '1500', '5820', '6600', '6060', '3240', '6060', '166', '1800', '3600', '3600', '2880', '233', '6540', '3600', '5700', '6420', '167', '5940', '173', '6180', '262', '5700', '222', '5100', '5760', '5220', '212', '267', '9900', '10140', '238', '176', '300', '5280', '780', '6960', '8460', '2580', '2580', '206', '334', '185', '3600', '223', '5400', '1440', '2700', '256', '1440', '2640', '9420', '6000', '6240', '1320', '4020', '-5100', '2520', '900', '-2520', '-3600', '5220', '5700', '-1440', '227', '271', '3600', '5400', '6300', '5040', '-3600', '5040', '5640', '205', '1440', '278', '-2460', '1800', '3600', '5400', '6480', '1800', '5880', '275', '1560', '6000', '217', '217', '-6540', '5640', '226', '1500', '1320', '6600', '5580', '5280', '1320', '7200', '5520', '7200', '5880', '138', '245', '239', '3300', '3600', '7200', '6780', '790', '2220', '200', '344', '4740', '231', '1800', '181', '252', '196', '148', '179', '5100', '222', '3600', '3600', '3600', '9060', '8400', '3600', '280', '3600', '5400', '5760', '3600', '3600', '303', '141', '274', '212', '48', '259', '5700', '4500', '239', '12840', '5940', '1260', '1320', '240', '5580', '227', '4500', '187', '5280', '5580', '5520', '6000', '1800', '247', '1320', '660', '6180', '4440', '1320', '1500', '6600', '4680', '5280', '2640', '3600', '6480', '7200', '4440', '6000', '6120', '6120', '3360', '284', '244', '332', '3600', '7200', '9000', '5580', '6240', '6120', '5400', '6600', '10800', '4980', '6300', '1500', '5280', '230', '5940', '204', '1800', '6600', '5640', '5160', '4860', '240', '224', '175', '213', '12000', '5820', '9600', '223', '5160', '7140', '4800', '-4860', '6120', '8100', '5220', '6900', '7980', '1260', '1320', '324', '7560', '1320', '1320', '1239', '120', '4500', '2700', '266', '243', '2040', '7140', '8100', '7440', '9540', '180', '5700', '4680', '5760', '7020', '1320', '6360', '3600', '260', '5400', '5160', '1620', '5100', '5040', '5160', '5340', '5580', '5700', '7080', '-2880', '7740', '4500', '3060', '-720', '6180', '6540', '5640', '5400', '6300', '7740', '5160', '1320', '4440', '5340', '8040', '174', '2580', '5520', '1500', '5340', '147', '392', '5160', '1440', '7200', '7200', '7200', '5580', '185', '5160', '183', '4860', '7920', '5640', '7800', '4800', '9780', '5820', '5640', '-1800', '7500', '8460', '6600', '6960', '5220', '2760', '5100', '1800', '4320', '5220', '6060', '4140', '5340', '5040', '5880', '4620', '2700', '8640', '8100', '3840', '3840', '6840', '6480', '5580', '-5880', '7920', '5700', '6060', '5520', '5700', '4200', '4800', '3000', '3300', '3600', '310', '5100', '6000', '5940', '24960', '218', '6840', '433', '3780', '6300', '5940', '-1500', '5640', '5700', '6060', '6660', '4800', '256', '5400', '6360', '175', '6240', '8400', '8580', '9360', '5760', '5820', '5400', '7440', '275', '3900', '1080', '159', '206', '179', '5880', '7200', '6960', '6000', '1800', '4980', '5760', '3000', '1800', '7680', '156', '237', '222', '203', '5520', '3000', '1800', '6120', '3600', '8700', '17040', '9480', '3000', '4920', '250', '6000', '8340', '5400', '6120', '5280', '3600', '1320', '3600', '226', '188', '148', '196', '6300', '293', '220', '5880', '211', '5160', '6120', '166', '191', '295', '5100', '3600', '1080', '240', '1800', '8460', '10080', '5400', '6780', '2640', '6240', '249', '5580', '-4500', '231', '5700', '232', '5220', '4200', '6060', '5280', '6900', '210', '1320', '4800', '6600', '1920', '2520', '3600', '5520', '6000', '5400', '6600', '7800', '7560', '1980', '7320', '5100', '4980', '1200', '4800', '3600', '6000', '-4020', '6900', '5700', '7740', '-3720', '4980', '235', '277', '205', '1800', '-2640', '4680', '5940', '200', '217', '2520', '-2700', '210', '6180', '234', '6480', '1320', '9240', '9720', '14820', '19020', '155', '311', '193', '7500', '2700', '6720', '4920', '3000', '7140', '5760', '5640', '5940', '225', '245', '8280', '7020', '7140', '10200', '8640', '8220', '8100', '6060', '178', '266', '7080', '8760', '213', '9420', '6000', '180', '5460', '7320', '207', '283', '239', '5700', '5760', '180', '238', '6540', '305', '332', '7200', '7800', '5640', '5700', '8100', '4800', '7800', '282', '262', '8940', '256', '264', '241', '6120', '219', '6720', '5400', '6000', '179', '222', '805', '5400', '60', '207', '5100', '190', '193', '221', '2880', '6600', '179', '7740', '1800', '3300', '5340', '6060', '5700', '3000', '3000', '3600', '-3120', '243', '5760', '260', '6360', '223', '365', '481', '189', '6060', '216', '378', '236', '230', '5400', '2700', '206', '294', '157', '229', '1500', '1800', '4740', '184', '1800', '226', '6960', '292', '8580', '5400', '267', '165', '201', '53', '5460', '229', '187', '280', '241', '245', '-1320', '3000', '6480', '5700', '4200', '6000', '5760', '6060', '6300', '221', '6480', '6300', '3720', '1800', '6540', '8160', '212', '6000', '3600', '8400', '9060', '193', '196', '205', '5040', '7', '336', '432', '472', '616', '1800', '5820', '364', '1260', '7320', '245', '331', '231', '5100', '240', '184', '199', '232', '6000', '9000', '195', '285', '325', '1320', '226', '6420', '200', '5400', '202', '263', '6240', '5880', '480', '5700', '5100', '204', '8820', '212', '6420', '5460', '6780', '6720', '5640', '-7200', '5220', '5700', '5400', '4320', '229', '4980', '1800', '5040', '7860', '3600', '5700', '5700', '3660', '6300', '7620', '3000', '5700', '9480', '5040', '4680', '3600', '7200', '230', '-4980', '2520', '5940', '6060', '6900', '5880', '171', '5520', '7200', '6540', '172', '2700', '172', '285', '180', '220', '6600', '7260', '5400', '1800', '4800', '5040', '5220', '8580', '5940', '4620', '5640', '187', '7200', '7200', '3600', '7200', '7200', '7200', '7200', '7200', '8160', '16200', '6960', '201', '16200', '9480', '199', '221', '773', '4800', '5220', '5100', '541', '16200', '1075', '1075', '16200', '4530', '9900', '1065', '5340', '8400', '-21600', '8400', '8400', '10800', '7800', '5460', '-480', '10800', '5460', '1320', '98', '8700', '1320', '8100', '5400', '5880', '6000', '5640', '360', '7560', '5520', '7740', '360', '6180', '6240', '123', '6000', '6840', '258', '1560', '205', '3600', '3600', '219', '7140', '3600', '237', '297', '357', '3600', '7080', '7380', '3240', '193', '163', '5580', '1500', '6000', '4320', '7440', '281', '321', '6060', '6540', '-2880', '4680', '6600', '242', '190', '224', '155', '234', '303', '215', '208', '2640', '6300', '573', '3600', '2940', '5160', '139', '1233', '205', '6600', '127', '5520', '7680', '167', '170', '212', '251', '310', '240', '219', '180', '211', '261', '444', '220', '186', '173', '232', '232', '6900', '5400', '7320', '113', '8580', '6720', '7260', '214', '360', '176', '-1440', '7200', '5940', '252', '179', '3000', '5880', '243', '6180', '480', '6120', '4680', '5340', '305', '11100', '226', '4680', '9840', '4620', '197', '182', '160', '-3060', '6420', '5400', '6600', '4620', '6840', '6780', '-5400', '3600', '1860', '7020', '86400', '-3600', '3600', '-4080', '4500', '206', '241', '201', '215', '1800', '2700', '5400', '5400', '4380', '5040', '6420', '5400', '4620', '4920', '5640', '5580', '5460', '1800', '5580', '258', '249', '8400', '-2700', '-2700', '-2700', '-2700', '-5400', '6180', '60', '2580', '2580', '5340', '6120', '231', '271', '282', '279', '1800', '197', '225', '274', '221', '-4500', '7800', '6900', '2880', '5400', '225', '1800', '5100', '5520', '6480', '8400', '6960', '260', '172', '290', '-5640', '1800', '236', '145', '3480', '1380', '960', '8100', '231', '1500', '151', '7860', '8100', '207', '7080', '6660', '6660', '5880', '6000', '6720', '5160', '4500', '3360', '6240', '6780', '4920', '189', '201', '5940', '176', '163', '237', '4980', '6240', '1740', '5580', '291', '210', '151', '6660', '5220', '6060', '237', '5520', '1080', '5400', '-1800', '215', '151', '6420', '1800', '-4260', '270', '4200', '2700', '186', '234', '247', '1800', '2700', '153', '163', '194', '195', '2640', '5700', '8880', '213', '236', '2700', '2580', '5880', '5280', '319', '5760', '163', '350', '355', '4800', '5880', '1320', '5280', '5280', '5520', '5640', '4380', '5940', '5400', '5580', '4740', '4980', '6900', '5520', '4920', '7020', '2520', '5640', '7200', '4860', '7320', '9600', '1009', '1980', '6000', '4440', '6900', '5520', '3600', '6360', '6480', '169', '10260', '4260', '220', '228', '3600', '215', '166', '300', '180', '7680', '5400', '7200', '7620', '5400', '177', '5040', '5760', '5580', '5280', '5580', '21300', '1800', '4680', '185', '5400', '6180', '-1800', '6600', '6000', '1020', '6000', '1320', '4920', '6000', '5220', '5340', '5700', '6060', '3000', '7440', '244', '215', '1800', '1320', '1800', '-3300', '5340', '5280', '219', '1320', '182', '171', '3600', '7200', '5340', '5400', '5520', '7320', '7500', '5400', '214', '3600', '4980', '-2520', '-4440', '1620', '5280', '3000', '5220', '185', '-2880', '238', '6840', '1800', '5520', '1800', '202', '3600', '4380', '323', '5160', '5040', '1500', '2700', '199', '1800', '1800', '198', '4980', '4800', '2280', '6300', '1320', '1800', '381', '1320', '1320', '8700', '3600', '5400', '6180', '5940', '30', '3600', '6960', '258', '7020', '329', '5400', '3600', '66', '6120', '7500', '235', '6000', '5460', '5400', '5040', '6660', '6120', '8520', '4980', '-1980', '4740', '2580', '250', '220', '225', '367', '169', '5880', '5340', '6960', '2700', '600', '5820', '6000', '3600', '197', '300', '173', '182', '200', '220', '6000', '461', '1800', '8040', '7320', '5400', '6420', '5280', '4980', '6900', '3960', '6600', '4860', '6900', '6600', '221', '182', '6600', '6840', '6540', '7500', '1757', '4620', '2100', '6000', '316', '6060', '10620', '840', '6900', '226', '540', '258', '5160', '6960', '4200', '240', '237', '226', '239', '1500', '1440', '7080', '7740', '7500', '8400', '6480', '600', '660', '1440', '4320', '1320', '300', '4140', '7560', '5280', '126', '255', '186', '222', '290', '196', '660', '208', '5820', '259', '155', '5820', '2820', '5820', '6000', '5340', '6900', '209', '240', '8760', '291', '8340', '6120', '5760', '190', '244', '6780', '258', '263', '289', '261', '660', '-1680', '292', '202', '6720', '267', '292', '229', '244', '5880', '1500', '8160', '1320', '199', '208', '6000', '230', '2640', '237', '235', '256', '259', '2580', '284', '5040', '267', '1260', '7020', '272', '155', '4800', '6600', '442', '5760', '5400', '265', '5700', '200', '5580', '6360', '4800', '4200', '5520', '5940', '1800', '194', '4020', '174', '10920', '5400', '3600', '180', '2940', '3360', '119', '6720', '399', '240', '3600', '2700', '7680', '237', '-3540', '5880', '1298', '5340', '93', '660', '5700', '6180', '188', '6900', '213', '720', '249', '201', '3600', '4200', '3600', '900', '190', '3000', '5700', '2758', '10800', '5400', '249', '3000', '385', '194', '6420', '5400', '5100', '5340', '7920', '7080', '3780', '2820', '5520', '2520', '5340', '5940', '4620', '5760', '5760', '4200', '311', '7680', '305', '6060', '5280', '7380', '210', '257', '6720', '5100', '271', '210', '6240', '3600', '305', '153', '5160', '228', '340', '132', '336', '5160', '7140', '275', '120', '519', '6300', '5400', '1800', '5700', '4980', '202', '3600', '4920', '5640', '5760', '6180', '6000', '178', '6780', '208', '6480', '5520', '189', '3600', '7200', '3600', '8460', '169', '1800', '8280', '5940', '5820', '5460', '5760', '261', '311', '3600', '197', '350', '182', '3600', '285', '189', '210', '281', '-7200', '6300', '713', '275', '443', '5580', '4200', '247', '224', '3600', '4800', '5700', '3600', '5400', '313', '242', '182', '180', '7920', '119', '5400', '3000', '1560', '202', '194', '235', '288', '299', '162', '180', '-2880', '1320', '3720', '3120', '2340', '5940', '1800', '169', '4440', '600', '6600', '5400', '5700', '215', '248', '246', '5340', '1500', '5220', '6000', '6840', '1500', '241', '3600', '180', '202', '271', '2760', '234', '5700', '2880', '262', '546', '7800', '181', '-5400', '6480', '6360', '287', '303', '146', '-3000', '5400', '5280', '5280', '6600', '6540', '5280', '6600', '4800', '4500', '6540', '5580', '6300', '182', '7200', '9180', '3600', '1800', '6900', '184', '5400', '5280', '15900', '202', '148', '264', '6360', '7800', '5640', '153', '2880', '5760', '1200', '5700', '3600', '5400', '7740', '243', '7080', '4440', '5880', '4140', '5640', '2520', '305', '249', '5700', '225', '431', '260', '199', '-1320', '280', '6000', '6600', '8760', '7680', '234', '213', '4740', '300', '7380', '8040', '3720', '5640', '5760', '217', '1800', '7020', '8820', '6780', '960', '-3000', '230', '274', '3600', '3600', '3600', '-2880', '3600', '3600', '3600', '60', '3600', '60', '8160', '5100', '4500', '360', '1348', '7740', '5100', '3600', '3600', '6120', '185', '4500', '6000', '9900', '7260', '7140', '15900', '4200', '3900', '261', '5340', '155', '4920', '2520', '6900', '5700', '2580', '4440', '6000', '9900', '187', '196', '2400', '2700', '5700', '5520', '-2820', '2400', '2700', '780', '1800', '6120', '509', '15900', '12600', '1800', '4620', '1800', '1320', '337', '2820', '256', '240', '309', '347', '135', '4620', '6120', '4680', '6600', '6420', '7980', '258', '4500', '295', '6660', '5160', '206', '236', '1380', '7740', '2700', '2700', '4500', '2820', '5520', '3600', '5460', '5700', '6000', '-720', '3600', '5040', '5700', '7200', '8820', '1800', '6960', '5400', '5520', '5400', '211', '5400', '8520', '6360', '8340', '121', '5400', '3600', '178', '166', '4800', '6060', '307', '3000', '86400', '5100', '210', '213', '1800', '5160', '1700', '221', '5220', '238', '5160', '239', '168', '6000', '5640', '480', '1800', '213', '4140', '251', '220', '1440', '7320', '5400', '15900', '2760', '3600', '5760', '7200', '8160', '1740', '6120', '4680', '15900', '-2880', '-2760', '5580', '-6000', '6540', '6720', '2520', '7800', '1800', '6900', '5520', '5880', '15900', '900', '2700', '2400', '245', '780', '5520', '221', '5400', '4320', '5580', '5820', '4920', '5700', '-3000', '302', '9840', '7', '720', '234', '-1320', '10080', '-1320', '1380', '943', '10440', '11100', '4560', '8040', '5280', '3600', '6600', '2640', '208', '300', '-5400', '5700', '428', '6000', '209', '4980', '1200', '5700', '190', '6660', '6900', '3600', '5160', '-3900', '-1680', '195', '6300', '1320', '8700', '6660', '7140', '269', '5820', '6420', '1800', '4800', '7380', '6060', '1620', '6720', '5880', '168', '4020', '3360', '6300', '4800', '6420', '6780', '252', '203', '413', '7440', '3180', '-3180', '174', '6600', '2700', '4800', '3180', '6420', '180', '211', '7080', '8280', '5400', '9660', '6000', '5700', '201', '190', '225', '-3000', '5280', '7320', '287', '6600', '3900', '6300', '4620', '8820', '720', '758', '196', '206', '7380', '6360', '8760', '1440', '182', '208', '298', '374', '7', '12', '5640', '239', '5460', '660', '4740', '5880', '8880', '6300', '1245', '2400', '1320', '7200', '219', '2880', '4980', '231', '4200', '992', '6000', '4920', '8100', '239', '317', '150', '395', '134', '4200', '7140', '163', '6600', '180', '203', '200', '1800', '5700', '-2700', '-2880', '5340', '180', '150', '4260', '179', '5340', '6720', '5400', '5280', '5400', '5100', '5400', '6240', '6000', '4200', '1800', '7200', '8580', '7260', '5400', '7740', '3600', '245', '373', '4980', '4020', '-2520', '9540', '7200', '216', '238', '7020', '300', '350', '41', '259', '255', '197', '4320', '5280', '5640', '286', '7080', '216', '3000', '6360', '5400', '6360', '3300', '4620', '196', '4860', '5760', '5580', '202', '176', '2700', '5820', '2640', '5520', '5580', '5520', '6300', '5160', '165', '8400', '208', '316', '5880', '5940', '6720', '233', '178', '233', '234', '-4980', '7860', '208', '5400', '3000', '6600', '5400', '193', '5820', '3000', '413', '1800', '224', '6180', '3600', '219', '7200', '3600', '1320', '2700', '3600', '216', '5340', '600', '8160', '8880', '202', '203', '200', '4200', '1680', '9180', '5400', '5400', '292', '5640', '6480', '245', '306', '219', '6240', '6600', '9000', '5100', '6300', '6600', '5760', '172', '2820', '660', '5100', '6600', '5880', '6000', '1200', '5820', '7260', '303', '5460', '4320', '840', '7980', '5040', '430', '5400', '1020', '4260', '223', '-2700', '6540', '245', '4860', '7440', '8100', '3600', '152', '5820', '199', '5400', '2760', '242', '7620', '5160', '5580', '5220', '6120', '5940', '6180', '2520', '4860', '5640', '162', '239', '184', '4740', '222', '599', '516', '5220', '7440', '6840', '6240', '7140', '5700', '5760', '3300', '6000', '6480', '5700', '132', '6300', '7440', '4200', '4440', '5700', '390', '600', '421', '1038', '5880', '2400', '5160', '3000', '5160', '1800', '4200', '4920', '5400', '392', '5340', '3000', '227', '220', '179', '7140', '540', '1560', '6480', '4920', '3420', '5880', '3600', '5280', '6900', '5280', '180', '5340', '4560', '5760', '5400', '3900', '420', '6300', '5400', '6000', '3420', '4440', '93', '1260', '5460', '6480', '5940', '6360', '4800', '7320', '5820', '5700', '5520', '6480', '1800', '4740', '3480', '224', '118', '5520', '4500', '5340', '209', '5400', '6420', '5040', '205', '160', '4440', '5520', '4980', '4200', '7200', '7320', '5820', '146', '5700', '2700', '3480', '10740', '10560', '4800', '6360', '4920', '7080', '3900', '229', '14220', '4920', '5400', '4560', '5520', '4200', '3000', '3300', '3000', '225', '360', '5820', '215', '660', '7200', '4680', '5400', '5520', '7020', '3600', '1800', '4980', '3900', '6900', '5040', '5760', '5700', '5220', '5280', '5700', '5340', '10800', '4920', '5400', '5400', '5700', '5760', '1500', '1380', '215', '6240', '3000', '900', '1860', '2640', '5700', '5700', '6120', '360', '5460', '5700', '2700', '3600', '5340', '5580', '720', '5400', '6360', '3000', '480', '7440', '243', '252', '7260', '5700', '5100', '4980', '7440', '2640', '5700', '232', '5400', '6240', '5580', '7020', '5760', '420', '5100', '5400', '5520', '3600', '5220', '7200', '5040', '451', '5400', '6180', '3000', '4800', '365', '1800', '5700', '5340', '6000', '495', '5340', '260', '5880', '6240', '3900', '5340', '8100', '235', '234', '250', '1710', '177', '3720', '7080', '4320', '2520', '162', '5280', '4140', '5760', '5400', '5400', '6300', '3600', '3600', '6240', '167', '3480', '600', '5760', '1260', '1020', '5220', '1800', '1080', '178', '221', '229', '2580', '191', '2700', '281', '283', '2700', '6120', '1020', '230', '180', '3600', '1525', '1500', '1505', '5160', '5520', '6000', '-1800', '60', '7260', '5100', '4740', '6240', '4320', '160', '6600', '5760', '4440', '6000', '5700', '6000', '6240', '6240', '4920', '6480', '5220', '5700', '5520', '2700', '1440', '1440', '1140', '2400', '7200', '6720', '3900', '3480', '5340', '7080', '6300', '900', '3600', '900', '780', '4140', '1680', '4500', '6000', '4140', '5700', '5400', '5220', '2880', '5760', '5700', '3600', '10380', '1500', '288', '5940', '5760', '4980', '2700', '5100', '5520', '5520', '5640', '6600', '4920', '1800', '5160', '5880', '7980', '10800', '5640', '9000', '6000', '6000', '5340', '5700', '6840', '660', '4980', '2521', '3761', '181', '7200', '5160', '5580', '5280', '6000', '5760', '7620', '1620', '340', '5400', '9420', '191', '3000', '4800', '4800', '6900', '7680', '5700', '1440', '2100', '1380', '5160', '8160', '3600', '3900', '1800', '5280', '5100', '540', '5640', '4980', '5700', '3600', '4440', '5160', '4800', '6120', '180', '5040', '3600', '5760', '5640', '5340', '5400', '5820', '5760', '5400', '6420', '60', '5040', '780', '3000', '7500', '6360', '12000', '272', '5820', '3480', '22', '6480', '4260', '5820', '6000', '6960', '6240', '2520', '900', '478', '1560', '4920', '4620', '5400', '6420', '239', '256', '5580', '1080', '1260', '2880', '5400', '3840', '5820', '5400', '284', '198', '5880', '480', '4800', '5400', '4800', '4020', '4200', '5700', '5520', '6360', '5340', '5340', '2580', '6000', '278', '441', '6120', '3900', '5340', '5640', '245', '8520', '5340', '1020', '4380', '5760', '6240', '5940', '4500', '4860', '200', '4440', '5820', '4200', '6960', '5100', '4860', '233', '3600', '780', '8760', '-360', '1440', '1800', '5880', '7200', '4200', '6420', '3480', '4500', '5760', '4260', '3000', '3720', '6360', '31320', '3300', '6420', '5640', '5940', '4740', '5280', '4800', '6120', '3900', '5340', '6120', '5940', '6360', '7800', '1200', '5040', '720', '4920', '435', '3300', '7200', '1800', '6780', '1800', '2700', '5820', '3780', '600', '1255', '2100', '3000', '10800', '3000', '3000', '3000', '4320', '5220', '8220', '5400', '5520', '5820', '6540', '420', '5340', '5040', '4800', '6060', '360', '281', '840', '6360', '3000', '240', '5400', '-1680', '187', '4680', '420', '335', '186', '4740', '3840', '4380', '6300', '5400', '4800', '5460', '6000', '6000', '228', '192', '1500', '3600', '4500', '5040', '5400', '152', '7500', '6420', '4380', '3000', '8280', '250', '5700', '6660', '5520', '8100', '1020', '9420', '274', '228', '356', '336', '1800', '1080', '7980', '3660', '3600', '3000', '256', '3420', '3000', '4020', '4200', '5940', '3840', '5580', '1800', '2280', '6420', '5040', '1260', '214', '3120', '7620', '231', '5760', '516', '6480', '198', '208', '-1500', '7080', '6000', '5460', '199', '205', '8460', '5340', '4260', '2700', '3600', '5400', '3600', '-5400', '5880', '7020', '7200', '3000', '6300', '4620', '6420', '5160', '4860', '5700', '5040', '6600', '4320', '5760', '6780', '1140', '4800', '4200', '5280', '6540', '6480', '1980', '672', '6000', '5760', '6240', '5040', '1080', '5700', '4680', '5400', '6300', '6360', '8400', '2700', '228', '238', '6420', '3120', '204', '6240', '5400', '3600', '3000', '185', '232', '4920', '6420', '263', '219', '225', '230', '3000', '4200', '6360', '44100', '2700', '7920', '240', '5940', '6300', '1800', '229', '-900', '6420', '976', '265', '225', '362', '1800', '3600', '6660', '7500', '249', '238', '3960', '4320', '5400', '240', '3960', '3660', '3960', '4320', '5460', '4500', '5700', '-3000', '7200', '3420', '5640', '5700', '6120', '5820', '140', '4140', '5820', '6420', '3600', '2460', '1800', '7800', '5280', '6480', '5160', '6540', '5880', '5400', '5880', '5880', '5400', '6000', '6060', '6240', '6480', '3120', '5280', '9120', '351', '6480', '5040', '5460', '5940', '5760', '5400', '198', '6720', '233', '-4260', '3600', '3600', '6300', '4320', '420', '212', '600', '1020', '460', '7020', '5760', '5400', '8400', '6720', '4740', '7860', '5220', '5400', '8280', '163', '165', '229', '6480', '5520', '420', '217', '226', '5460', '182', '4140', '3000', '3600', '3000', '3480', '6300', '6000', '3600', '5280', '720', '5340', '4980', '5340', '2280', '6240', '5400', '5340', '1800', '3600', '4920', '151.8', '264', '6780', '9600', '4200', '180', '5640', '9000', '6480', '5760', '5700', '2700', '4980', '5940', '4680', '2700', '780', '5100', '540', '6360', '1800', '1020', '3060', '7140', '5640', '5400', '2880', '1380', '4200', '480', '2880', '3780', '7200', '5160', '9060', '3360', '4860', '154', '183', '150', '211', '121', '3960', '4200', '3780', '3600', '660', '5700', '6000', '5100', '2700', '8400', '-4380', '9240', '5400', '5640', '261', '6960', '5700', '7', '12', '293', '355', '143', '346', '5940', '9720', '5700', '1800', '423', '3180', '5100', '2460', '420', '540', '5460', '6240', '5880', '6000', '282', '285', '200', '5040', '6120', '6000', '5460', '-3360', '5220', '7500', '5640', '6000', '3600', '7920', '4980', '3180', '3000', '5700', '3000', '145', '1380', '497', '5400', '5940', '2820', '5760', '6060', '4440', '229', '1200', '3000', '4320', '1500', '1800', '3000', '540', '5340', '380', '6120', '5400', '1440', '4980', '2700', '540', '6960', '5460', '5400', '5100', '987', '2700', '4980', '7020', '4080', '8580', '3420', '900', '5280', '4440', '-4200', '3600', '3900', '4680', '3000', '1800', '3600', '6720', '4200', '7800', '4860', '3600', '5400', '5880', '2940', '8520', '4500', '-3000', '5520', '4800', '934', '3000', '5580', '3600', '2640', '5400', '1260', '2700', '6360', '609', '7140', '5400', '221', '6600', '8100', '6840', '6480', '6240', '6600', '5280', '5400', '4980', '5880', '5700', '162', '5400', '6420', '6000', '4680', '5160', '5100', '2400', '8100', '221', '5640', '2880', '5460', '420', '5760', '3000', '151', '194', '217', '239', '282', '6660', '5520', '3000', '5100', '6600', '3600', '4680', '14220', '6060', '3900', '5220', '5580', '4200', '4560', '145', '5400', '5220', '3000', '3900', '163', '2700', '1620', '5460', '4980', '6720', '5220', '4200', '4860', '7680', '5160', '5100', '3360', '6480', '660', '5040', '5040', '6060', '7200', '3780', '6120', '5700', '3120', '5100', '5220', '4200', '5520', '5820', '6180', '188', '2460', '279', '6240', '6180', '6480', '184', '3000', '5640', '6120', '6000', '168', '203', '5700', '5400', '162', '5400', '250', '4320', '457', '215', '5400', '5580', '5820', '218', '188', '192', '7080', '4680', '6000', '4500', '1200', '1380', '5940', '6240', '1800', '1800', '5400', '5400', '3600', '4500', '420', '255', '4800', '257', '3600', '5640', '720', '3960', '5820', '2700', '5040', '420', '6900', '14400', '5400', '2880', '119', '210', '122', '446', '5340', '5880', '4860', '3000', '6240', '3000', '1020', '5100', '5280', '4740', '3480', '271', '355', '1800', '5880', '4560', '3000', '5640', '3900', '5100', '259', '174', '7320', '6060', '196', '190', '3720', '4500', '407', '7080', '5640', '8520', '2700', '5820', '7440', '6120', '6540', '401', '5220', '6360', '209', '1195', '5220', '2580', '154', '6660', '4800', '7200', '6000', '415', '500', '1800', '6540', '5160', '5160', '4860', '5760', '6000', '5400', '497', '-3000', '5700', '5400', '12', '166', '197', '137', '209', '223', '212', '293', '420', '4740', '3000', '300', '6300', '252', '372', '6600', '5400', '1320', '5340', '5580', '220', '5820', '5400', '5760', '5040', '2520', '5400', '300', '3300', '6420', '3600', '5880', '5160', '5100', '4020', '3600', '258', '6180', '7620', '5700', '10440', '6180', '-2820', '5940', '4860', '5760', '3600', '3540', '3000', '3600', '3600', '3600', '12000', '5760', '3180', '5640', '5880', '5820', '7200', '4980', '6780', '1620', '7500', '5460', '5400', '5700', '135', '5820', '3180', '5400', '5940', '5760', '6000', '152', '6180', '2700', '3120', '7320', '5520', '3000', '3960', '7740', '5220', '5460', '420', '4260', '248', '2940', '6660', '780', '4200', '262', '2520', '5400', '242', '4980', '5220', '5880', '427', '188', '2700', '205', '135', '5940', '3540', '5340', '5280', '205', '5520', '172', '420', '5460', '6000', '6960', '5160', '1147', '4260', '1320', '5280', '142', '213', '5820', '6300', '4140', '5820', '10200', '6000', '3300', '3600', '6000', '1800', '7200', '885', '5100', '3000', '7620', '4860', '4800', '4860', '1980', '290', '6300', '5640', '7860', '2700', '5520', '5460', '4500', '209', '5460', '4500', '247', '420', '6660', '1800', '5760', '5820', '5340', '5400', '5880', '5760', '6000', '5400', '5100', '3420', '5220', '6000', '6000', '6000', '3000', '5400', '1800', '6900', '3000', '230', '4500', '6720', '7', '12', '217', '250', '780', '1560', '5700', '2700', '5820', '6300', '6600', '5040', '6120', '5760', '5160', '5640', '5640', '5880', '5280', '3000', '4560', '4200', '3600', '5220', '3000', '3600', '500', '-480', '420', '5400', '3000', '3420', '7920', '4200', '1245', '2400', '316', '5400', '217', '220', '285', '291', '6600', '3120', '3300', '215', '5880', '6360', '210', '283', '302', '6780', '7140', '1011', '4500', '3000', '213', '3600', '4680', '5700', '5160', '5520', '4440', '5220', '4080', '9420', '6960', '6960', '5520', '5700', '5400', '360', '6600', '3600', '73', '6720', '6360', '3000', '4680', '3480', '5520', '5760', '5580', '1800', '-3600', '3600', '1800', '3600', '7680', '5520', '7200', '180', '6900', '174', '2400', '5460', '5580', '-3420', '3600', '5400', '6300', '5460', '220', '182', '600', '5760', '3180', '5340', '900', '5400', '1020', '1980', '3600', '312', '660', '7200', '175', '6180', '5280', '5100', '5400', '226', '5760', '4560', '3960', '5400', '4920', '4440', '4680', '255', '6180', '1500', '6480', '2700', '210', '6720', '5520', '378', '2700', '198', '38', '4320', '6180', '229', '3600', '6000', '4800', '4500', '4980', '1245', '2400', '3480', '210', '5400', '5</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>In which films directed by Garry Marshall was Julia Roberts starring?</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>["http://dbpedia.org/resource/http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+          <t>['5280', '5580', '205', '3600', '4980', '5700', '1380', '2160', '3000', '6000', '6120', '6120', '6000', '260', '6540', '288', '6300', '14400', '6480', '273', '1320', '-2100', '-2700', '-5400', '5760', '5400', '217', '5400', '280', '3600', '4800', '-2640', '5100', '225', '228', '185', '180', '207', '-2700', '1500', '202', '250', '236', '6300', '6780', '2400', '185', '255', '214', '6300', '1800', '206', '5580', '202', '204', '1620', '6000', '202', '218', '5460', '3000', '6000', '-2700', '219', '3600', '2640', '3600', '222', '162', '188', '192', '128', '-2700', '2700', '5760', '221', '5400', '7320', '2640', '5700', '3600', '3600', '205', '6480', '6780', '2520', '5040', '7200', '7140', '358', '586', '1800', '1800', '6300', '5340', '146', '2880', '2640', '2640', '2640', '8760', '210', '5340', '-5400', '251', '5640', '3600', '597', '2520', '2580', '6240', '-3600', '4740', '9180', '208', '5400', '270', '182', '2700', '6000', '2520', '600', '6060', '3000', '5760', '4980', '6720', '205', '5820', '210', '3720', '3600', '223', '5880', '5940', '276', '9480', '260', '300', '2580', '1800', '3900', '152', '242', '2700', '236', '223', '272.4', '223', '969', '5700', '5280', '1200', '6120', '4920', '5400', '217', '3660', '3120', '5760', '5700', '1800', '5100', '247', '242', '5400', '9000', '4680', '168', '209', '210', '1320', '6060', '1800', '1200', '1800', '197', '182', '149', '270', '236', '4560', '218', '13680', '283', '233', '331', '225', '207', '6840', '297', '5940', '224', '232', '252', '295', '298', '359', '177', '292', '326', '8400', '229', '1500', '3600', '5220', '205', '1500', '1260', '225', '230', '446', '283', '223', '245', '323', '203', '289', '148', '231', '217', '500', '225', '205', '135', '235', '270', '230', '150', '156', '5400', '120', '60', '220', '219', '225', '308', '273', '206', '470', '300', '209', '197', '7', '284', '246', '246', '394', '238', '214', '218', '246', '242', '168', '235', '3600', '177', '225', '206', '243', '244', '283', '206', '144', '179', '260', '133', '203', '221', '290', '141', '178', '178', '214', '246', '345', '251', '160', '225', '235', '211', '203', '216', '290', '186', '195', '145', '264', '279', '263', '216', '245', '323', '656', '150', '270', '274', '205', '185', '249', '406', '113', '170', '280', '214', '266', '175', '12', '238', '355', '169', '178', '163', '252', '115', '215', '143', '229', '188', '205', '7', '269', '496', '260', '185', '207', '236', '212', '239', '206', '250', '228', '208', '220', '215', '368', '138', '178', '177', '241', '321', '155', '185', '166', '207', '211', '132', '234', '180', '233', '190', '162', '212', '372', '106', '106', '171', '269', '158', '198', '255', '267', '274', '213', '173', '201', '127', '143', '140', '238', '297', '7', '921', '217', '208', '255', '339', '303', '170', '159', '151', '158', '249', '289', '177', '600', '242', '247', '257', '293', '207', '144', '175', '277', '5040', '6540', '230', '187', '661', '270', '180', '12', '201', '242', '183', '230', '158', '243', '255', '288', '200', '220', '223', '145', '5040', '125', '136', '227', '186', '175', '169', '240', '141', '220', '142', '180', '200', '180', '189', '198', '209', '422', '162', '178', '195', '220', '273', '210', '241', '208', '143', '205', '142', '195', '5760', '225', '220', '138', '130', '172', '191', '260', '239', '257', '146', '265', '267', '214', '212', '244', '175', '190', '239', '208', '240', '12', '216', '260', '175', '201', '165', '180', '130', '159', '196', '200', '209', '165', '203', '165', '171', '206', '245', '276', '277', '180', '360', '174', '180', '350', '137', '152', '180', '142', '208', '242', '179', '1800', '1320', '1800', '5520', '2040', '1800', '3600', '179', '232', '5520', '7860', '2040', '212', '367', '271', '7200', '5400', '2520', '5400', '5400', '255', '290', '6000', '2700', '4920', '1380', '219', '5760', '192', '4260', '4200', '4800', '3600', '3000', '1800', '3300', '4680', '4740', '1260', '5460', '394', '3300', '368', '5460', '2520', '11880', '5400', '5400', '5040', '6300', '4320', '2700', '1101', '7200', '5700', '5520', '6720', '5400', '5340', '9000', '2700', '6120', '2520', '1800', '2880', '6240', '5160', '1800', '3600', '4800', '3720', '5160', '5400', '163', '241', '372', '-1320', '-2580', '2820', '2700', '3000', '5400', '1800', '3600', '3600', '7', '208', '144', '205', '5160', '621', '215', '258', '250', '5220', '4980', '308', '202', '201', '213', '1800', '207', '198', '200', '115', '6240', '205', '218', '3000', '4200', '3600', '8340', '9420', '10620', '2580', '420', '6360', '6300', '198', '1860', '232', '463', '656', '5520', '248', '273', '250', '200', '7320', '179', '5220', '6420', '5460', '6240', '7320', '6660', '185', '8640', '208', '114', '4920', '-1320', '2580', '2580', '262', '600', '5580', '199', '234', '5340', '5520', '3300', '3900', '5280', '1315', '7020', '5100', '6660', '5640', '6000', '5880', '187', '5280', '157', '1500', '5820', '6600', '6060', '3240', '6060', '166', '1800', '3600', '3600', '2880', '233', '6540', '3600', '5700', '6420', '167', '5940', '173', '6180', '262', '5700', '222', '5100', '5760', '5220', '212', '267', '9900', '10140', '238', '176', '300', '5280', '780', '6960', '8460', '2580', '2580', '206', '334', '185', '3600', '223', '5400', '1440', '2700', '256', '1440', '2640', '9420', '6000', '6240', '1320', '4020', '-5100', '2520', '900', '-2520', '-3600', '5220', '5700', '-1440', '227', '271', '3600', '5400', '6300', '5040', '-3600', '5040', '5640', '205', '1440', '278', '-2460', '1800', '3600', '5400', '6480', '1800', '5880', '275', '1560', '6000', '217', '217', '-6540', '5640', '226', '1500', '1320', '6600', '5580', '5280', '1320', '7200', '5520', '7200', '5880', '138', '245', '239', '3300', '3600', '7200', '6780', '790', '2220', '200', '344', '4740', '231', '1800', '181', '252', '196', '148', '179', '5100', '222', '3600', '3600', '3600', '9060', '8400', '3600', '280', '3600', '5400', '5760', '3600', '3600', '303', '141', '274', '212', '48', '259', '5700', '4500', '239', '12840', '5940', '1260', '1320', '240', '5580', '227', '4500', '187', '5280', '5580', '5520', '6000', '1800', '247', '1320', '660', '6180', '4440', '1320', '1500', '6600', '4680', '5280', '2640', '3600', '6480', '7200', '4440', '6000', '6120', '6120', '3360', '284', '244', '332', '3600', '7200', '9000', '5580', '6240', '6120', '5400', '6600', '10800', '4980', '6300', '1500', '5280', '230', '5940', '204', '1800', '6600', '5640', '5160', '4860', '240', '224', '175', '213', '12000', '5820', '9600', '223', '5160', '7140', '4800', '-4860', '6120', '8100', '5220', '6900', '7980', '1260', '1320', '324', '7560', '1320', '1320', '1239', '120', '4500', '2700', '266', '243', '2040', '7140', '8100', '7440', '9540', '180', '5700', '4680', '5760', '7020', '1320', '6360', '3600', '260', '5400', '5160', '1620', '5100', '5040', '5160', '5340', '5580', '5700', '7080', '-2880', '7740', '4500', '3060', '-720', '6180', '6540', '5640', '5400', '6300', '7740', '5160', '1320', '4440', '5340', '8040', '174', '2580', '5520', '1500', '5340', '147', '392', '5160', '1440', '7200', '7200', '7200', '5580', '185', '5160', '183', '4860', '7920', '5640', '7800', '4800', '9780', '5820', '5640', '-1800', '7500', '8460', '6600', '6960', '5220', '2760', '5100', '1800', '4320', '5220', '6060', '4140', '5340', '5040', '5880', '4620', '2700', '8640', '8100', '3840', '3840', '6840', '6480', '5580', '-5880', '7920', '5700', '6060', '5520', '5700', '4200', '4800', '3000', '3300', '3600', '310', '5100', '6000', '5940', '24960', '218', '6840', '433', '3780', '6300', '5940', '-1500', '5640', '5700', '6060', '6660', '4800', '256', '5400', '6360', '175', '6240', '8400', '8580', '9360', '5760', '5820', '5400', '7440', '275', '3900', '1080', '159', '206', '179', '5880', '7200', '6960', '6000', '1800', '4980', '5760', '3000', '1800', '7680', '156', '237', '222', '203', '5520', '3000', '1800', '6120', '3600', '8700', '17040', '9480', '3000', '4920', '250', '6000', '8340', '5400', '6120', '5280', '3600', '1320', '3600', '226', '188', '148', '196', '6300', '293', '220', '5880', '211', '5160', '6120', '166', '191', '295', '5100', '3600', '1080', '240', '1800', '8460', '10080', '5400', '6780', '2640', '6240', '249', '5580', '-4500', '231', '5700', '232', '5220', '4200', '6060', '5280', '6900', '210', '1320', '4800', '6600', '1920', '2520', '3600', '5520', '6000', '5400', '6600', '7800', '7560', '1980', '7320', '5100', '4980', '1200', '4800', '3600', '6000', '-4020', '6900', '5700', '7740', '-3720', '4980', '235', '277', '205', '1800', '-2640', '4680', '5940', '200', '217', '2520', '-2700', '210', '6180', '234', '6480', '1320', '9240', '9720', '14820', '19020', '155', '311', '193', '7500', '2700', '6720', '4920', '3000', '7140', '5760', '5640', '5940', '225', '245', '8280', '7020', '7140', '10200', '8640', '8220', '8100', '6060', '178', '266', '7080', '8760', '213', '9420', '6000', '180', '5460', '7320', '207', '283', '239', '5700', '5760', '180', '238', '6540', '305', '332', '7200', '7800', '5640', '5700', '8100', '4800', '7800', '282', '262', '8940', '256', '264', '241', '6120', '219', '6720', '5400', '6000', '179', '222', '805', '5400', '60', '207', '5100', '190', '193', '221', '2880', '6600', '179', '7740', '1800', '3300', '5340', '6060', '5700', '3000', '3000', '3600', '-3120', '243', '5760', '260', '6360', '223', '365', '481', '189', '6060', '216', '378', '236', '230', '5400', '2700', '206', '294', '157', '229', '1500', '1800', '4740', '184', '1800', '226', '6960', '292', '8580', '5400', '267', '165', '201', '53', '5460', '229', '187', '280', '241', '245', '-1320', '3000', '6480', '5700', '4200', '6000', '5760', '6060', '6300', '221', '6480', '6300', '3720', '1800', '6540', '8160', '212', '6000', '3600', '8400', '9060', '193', '196', '205', '5040', '7', '336', '432', '472', '616', '1800', '5820', '364', '1260', '7320', '245', '331', '231', '5100', '240', '184', '199', '232', '6000', '9000', '195', '285', '325', '1320', '226', '6420', '200', '5400', '202', '263', '6240', '5880', '480', '5700', '5100', '204', '8820', '212', '6420', '5460', '6780', '6720', '5640', '-7200', '5220', '5700', '5400', '4320', '229', '4980', '1800', '5040', '7860', '3600', '5700', '5700', '3660', '6300', '7620', '3000', '5700', '9480', '5040', '4680', '3600', '7200', '230', '-4980', '2520', '5940', '6060', '6900', '5880', '171', '5520', '7200', '6540', '172', '2700', '172', '285', '180', '220', '6600', '7260', '5400', '1800', '4800', '5040', '5220', '8580', '5940', '4620', '5640', '187', '7200', '7200', '3600', '7200', '7200', '7200', '7200', '7200', '8160', '16200', '6960', '201', '16200', '9480', '199', '221', '773', '4800', '5220', '5100', '541', '16200', '1075', '1075', '16200', '4530', '9900', '1065', '5340', '8400', '-21600', '8400', '8400', '10800', '7800', '5460', '-480', '10800', '5460', '1320', '98', '8700', '1320', '8100', '5400', '5880', '6000', '5640', '360', '7560', '5520', '7740', '360', '6180', '6240', '123', '6000', '6840', '258', '1560', '205', '3600', '3600', '219', '7140', '3600', '237', '297', '357', '3600', '7080', '7380', '3240', '193', '163', '5580', '1500', '6000', '4320', '7440', '281', '321', '6060', '6540', '-2880', '4680', '6600', '242', '190', '224', '155', '234', '303', '215', '208', '2640', '6300', '573', '3600', '2940', '5160', '139', '1233', '205', '6600', '127', '5520', '7680', '167', '170', '212', '251', '310', '240', '219', '180', '211', '261', '444', '220', '186', '173', '232', '232', '6900', '5400', '7320', '113', '8580', '6720', '7260', '214', '360', '176', '-1440', '7200', '5940', '252', '179', '3000', '5880', '243', '6180', '480', '6120', '4680', '5340', '305', '11100', '226', '4680', '9840', '4620', '197', '182', '160', '-3060', '6420', '5400', '6600', '4620', '6840', '6780', '-5400', '3600', '1860', '7020', '86400', '-3600', '3600', '-4080', '4500', '206', '241', '201', '215', '1800', '2700', '5400', '5400', '4380', '5040', '6420', '5400', '4620', '4920', '5640', '5580', '5460', '1800', '5580', '258', '249', '8400', '-2700', '-2700', '-2700', '-2700', '-5400', '6180', '60', '2580', '2580', '5340', '6120', '231', '271', '282', '279', '1800', '197', '225', '274', '221', '-4500', '7800', '6900', '2880', '5400', '225', '1800', '5100', '5520', '6480', '8400', '6960', '260', '172', '290', '-5640', '1800', '236', '145', '3480', '1380', '960', '8100', '231', '1500', '151', '7860', '8100', '207', '7080', '6660', '6660', '5880', '6000', '6720', '5160', '4500', '3360', '6240', '6780', '4920', '189', '201', '5940', '176', '163', '237', '4980', '6240', '1740', '5580', '291', '210', '151', '6660', '5220', '6060', '237', '5520', '1080', '5400', '-1800', '215', '151', '6420', '1800', '-4260', '270', '4200', '2700', '186', '234', '247', '1800', '2700', '153', '163', '194', '195', '2640', '5700', '8880', '213', '236', '2700', '2580', '5880', '5280', '319', '5760', '163', '350', '355', '4800', '5880', '1320', '5280', '5280', '5520', '5640', '4380', '5940', '5400', '5580', '4740', '4980', '6900', '5520', '4920', '7020', '2520', '5640', '7200', '4860', '7320', '9600', '1009', '1980', '6000', '4440', '6900', '5520', '3600', '6360', '6480', '169', '10260', '4260', '220', '228', '3600', '215', '166', '300', '180', '7680', '5400', '7200', '7620', '5400', '177', '5040', '5760', '5580', '5280', '5580', '21300', '1800', '4680', '185', '5400', '6180', '-1800', '6600', '6000', '1020', '6000', '1320', '4920', '6000', '5220', '5340', '5700', '6060', '3000', '7440', '244', '215', '1800', '1320', '1800', '-3300', '5340', '5280', '219', '1320', '182', '171', '3600', '7200', '5340', '5400', '5520', '7320', '7500', '5400', '214', '3600', '4980', '-2520', '-4440', '1620', '5280', '3000', '5220', '185', '-2880', '238', '6840', '1800', '5520', '1800', '202', '3600', '4380', '323', '5160', '5040', '1500', '2700', '199', '1800', '1800', '198', '4980', '4800', '2280', '6300', '1320', '1800', '381', '1320', '1320', '8700', '3600', '5400', '6180', '5940', '30', '3600', '6960', '258', '7020', '329', '5400', '3600', '66', '6120', '7500', '235', '6000', '5460', '5400', '5040', '6660', '6120', '8520', '4980', '-1980', '4740', '2580', '250', '220', '225', '367', '169', '5880', '5340', '6960', '2700', '600', '5820', '6000', '3600', '197', '300', '173', '182', '200', '220', '6000', '461', '1800', '8040', '7320', '5400', '6420', '5280', '4980', '6900', '3960', '6600', '4860', '6900', '6600', '221', '182', '6600', '6840', '6540', '7500', '1757', '4620', '2100', '6000', '316', '6060', '10620', '840', '6900', '226', '540', '258', '5160', '6960', '4200', '240', '237', '226', '239', '1500', '1440', '7080', '7740', '7500', '8400', '6480', '600', '660', '1440', '4320', '1320', '300', '4140', '7560', '5280', '126', '255', '186', '222', '290', '196', '660', '208', '5820', '259', '155', '5820', '2820', '5820', '6000', '5340', '6900', '209', '240', '8760', '291', '8340', '6120', '5760', '190', '244', '6780', '258', '263', '289', '261', '660', '-1680', '292', '202', '6720', '267', '292', '229', '244', '5880', '1500', '8160', '1320', '199', '208', '6000', '230', '2640', '237', '235', '256', '259', '2580', '284', '5040', '267', '1260', '7020', '272', '155', '4800', '6600', '442', '5760', '5400', '265', '5700', '200', '5580', '6360', '4800', '4200', '5520', '5940', '1800', '194', '4020', '174', '10920', '5400', '3600', '180', '2940', '3360', '119', '6720', '399', '240', '3600', '2700', '7680', '237', '-3540', '5880', '1298', '5340', '93', '660', '5700', '6180', '188', '6900', '213', '720', '249', '201', '3600', '4200', '3600', '900', '190', '3000', '5700', '2758', '10800', '5400', '249', '3000', '385', '194', '6420', '5400', '5100', '5340', '7920', '7080', '3780', '2820', '5520', '2520', '5340', '5940', '4620', '5760', '5760', '4200', '311', '7680', '305', '6060', '5280', '7380', '210', '257', '6720', '5100', '271', '210', '6240', '3600', '305', '153', '5160', '228', '340', '132', '336', '5160', '7140', '275', '120', '519', '6300', '5400', '1800', '5700', '4980', '202', '3600', '4920', '5640', '5760', '6180', '6000', '178', '6780', '208', '6480', '5520', '189', '3600', '7200', '3600', '8460', '169', '1800', '8280', '5940', '5820', '5460', '5760', '261', '311', '3600', '197', '350', '182', '3600', '285', '189', '210', '281', '-7200', '6300', '713', '275', '443', '5580', '4200', '247', '224', '3600', '4800', '5700', '3600', '5400', '313', '242', '182', '180', '7920', '119', '5400', '3000', '1560', '202', '194', '235', '288', '299', '162', '180', '-2880', '1320', '3720', '3120', '2340', '5940', '1800', '169', '4440', '600', '6600', '5400', '5700', '215', '248', '246', '5340', '1500', '5220', '6000', '6840', '1500', '241', '3600', '180', '202', '271', '2760', '234', '5700', '2880', '262', '546', '7800', '181', '-5400', '6480', '6360', '287', '303', '146', '-3000', '5400', '5280', '5280', '6600', '6540', '5280', '6600', '4800', '4500', '6540', '5580', '6300', '182', '7200', '9180', '3600', '1800', '6900', '184', '5400', '5280', '15900', '202', '148', '264', '6360', '7800', '5640', '153', '2880', '5760', '1200', '5700', '3600', '5400', '7740', '243', '7080', '4440', '5880', '4140', '5640', '2520', '305', '249', '5700', '225', '431', '260', '199', '-1320', '280', '6000', '6600', '8760', '7680', '234', '213', '4740', '300', '7380', '8040', '3720', '5640', '5760', '217', '1800', '7020', '8820', '6780', '960', '-3000', '230', '274', '3600', '3600', '3600', '-2880', '3600', '3600', '3600', '60', '3600', '60', '8160', '5100', '4500', '360', '1348', '7740', '5100', '3600', '3600', '6120', '185', '4500', '6000', '9900', '7260', '7140', '15900', '4200', '3900', '261', '5340', '155', '4920', '2520', '6900', '5700', '2580', '4440', '6000', '9900', '187', '196', '2400', '2700', '5700', '5520', '-2820', '2400', '2700', '780', '1800', '6120', '509', '15900', '12600', '1800', '4620', '1800', '1320', '337', '2820', '256', '240', '309', '347', '135', '4620', '6120', '4680', '6600', '6420', '7980', '258', '4500', '295', '6660', '5160', '206', '236', '1380', '7740', '2700', '2700', '4500', '2820', '5520', '3600', '5460', '5700', '6000', '-720', '3600', '5040', '5700', '7200', '8820', '1800', '6960', '5400', '5520', '5400', '211', '5400', '8520', '6360', '8340', '121', '5400', '3600', '178', '166', '4800', '6060', '307', '3000', '86400', '5100', '210', '213', '1800', '5160', '1700', '221', '5220', '238', '5160', '239', '168', '6000', '5640', '480', '1800', '213', '4140', '251', '220', '1440', '7320', '5400', '15900', '2760', '3600', '5760', '7200', '8160', '1740', '6120', '4680', '15900', '-2880', '-2760', '5580', '-6000', '6540', '6720', '2520', '7800', '1800', '6900', '5520', '5880', '15900', '900', '2700', '2400', '245', '780', '5520', '221', '5400', '4320', '5580', '5820', '4920', '5700', '-3000', '302', '9840', '7', '720', '234', '-1320', '10080', '-1320', '1380', '943', '10440', '11100', '4560', '8040', '5280', '3600', '6600', '2640', '208', '300', '-5400', '5700', '428', '6000', '209', '4980', '1200', '5700', '190', '6660', '6900', '3600', '5160', '-3900', '-1680', '195', '6300', '1320', '8700', '6660', '7140', '269', '5820', '6420', '1800', '4800', '7380', '6060', '1620', '6720', '5880', '168', '4020', '3360', '6300', '4800', '6420', '6780', '252', '203', '413', '7440', '3180', '-3180', '174', '6600', '2700', '4800', '3180', '6420', '180', '211', '7080', '8280', '5400', '9660', '6000', '5700', '201', '190', '225', '-3000', '5280', '7320', '287', '6600', '3900', '6300', '4620', '8820', '720', '758', '196', '206', '7380', '6360', '8760', '1440', '182', '208', '298', '374', '7', '12', '5640', '239', '5460', '660', '4740', '5880', '8880', '6300', '1245', '2400', '1320', '7200', '219', '2880', '4980', '231', '4200', '992', '6000', '4920', '8100', '239', '317', '150', '395', '134', '4200', '7140', '163', '6600', '180', '203', '200', '1800', '5700', '-2700', '-2880', '5340', '180', '150', '4260', '179', '5340', '6720', '5400', '5280', '5400', '5100', '5400', '6240', '6000', '4200', '1800', '7200', '8580', '7260', '5400', '7740', '3600', '245', '373', '4980', '4020', '-2520', '9540', '7200', '216', '238', '7020', '300', '350', '41', '259', '255', '197', '4320', '5280', '5640', '286', '7080', '216', '3000', '6360', '5400', '6360', '3300', '4620', '196', '4860', '5760', '5580', '202', '176', '2700', '5820', '2640', '5520', '5580', '5520', '6300', '5160', '165', '8400', '208', '316', '5880', '5940', '6720', '233', '178', '233', '234', '-4980', '7860', '208', '5400', '3000', '6600', '5400', '193', '5820', '3000', '413', '1800', '224', '6180', '3600', '219', '7200', '3600', '1320', '2700', '3600', '216', '5340', '600', '8160', '8880', '202', '203', '200', '4200', '1680', '9180', '5400', '5400', '292', '5640', '6480', '245', '306', '219', '6240', '6600', '9000', '5100', '6300', '6600', '5760', '172', '2820', '660', '5100', '6600', '5880', '6000', '1200', '5820', '7260', '303', '5460', '4320', '840', '7980', '5040', '430', '5400', '1020', '4260', '223', '-2700', '6540', '245', '4860', '7440', '8100', '3600', '152', '5820', '199', '5400', '2760', '242', '7620', '5160', '5580', '5220', '6120', '5940', '6180', '2520', '4860', '5640', '162', '239', '184', '4740', '222', '599', '516', '5220', '7440', '6840', '6240', '7140', '5700', '5760', '3300', '6000', '6480', '5700', '132', '6300', '7440', '4200', '4440', '5700', '390', '600', '421', '1038', '5880', '2400', '5160', '3000', '5160', '1800', '4200', '4920', '5400', '392', '5340', '3000', '227', '220', '179', '7140', '540', '1560', '6480', '4920', '3420', '5880', '3600', '5280', '6900', '5280', '180', '5340', '4560', '5760', '5400', '3900', '420', '6300', '5400', '6000', '3420', '4440', '93', '1260', '5460', '6480', '5940', '6360', '4800', '7320', '5820', '5700', '5520', '6480', '1800', '4740', '3480', '224', '118', '5520', '4500', '5340', '209', '5400', '6420', '5040', '205', '160', '4440', '5520', '4980', '4200', '7200', '7320', '5820', '146', '5700', '2700', '3480', '10740', '10560', '4800', '6360', '4920', '7080', '3900', '229', '14220', '4920', '5400', '4560', '5520', '4200', '3000', '3300', '3000', '225', '360', '5820', '215', '660', '7200', '4680', '5400', '5520', '7020', '3600', '1800', '4980', '3900', '6900', '5040', '5760', '5700', '5220', '5280', '5700', '5340', '10800', '4920', '5400', '5400', '5700', '5760', '1500', '1380', '215', '6240', '3000', '900', '1860', '2640', '5700', '5700', '6120', '360', '5460', '5700', '2700', '3600', '5340', '5580', '720', '5400', '6360', '3000', '480', '7440', '243', '252', '7260', '5700', '5100', '4980', '7440', '2640', '5700', '232', '5400', '6240', '5580', '7020', '5760', '420', '5100', '5400', '5520', '3600', '5220', '7200', '5040', '451', '5400', '6180', '3000', '4800', '365', '1800', '5700', '5340', '6000', '495', '5340', '260', '5880', '6240', '3900', '5340', '8100', '235', '234', '250', '1710', '177', '3720', '7080', '4320', '2520', '162', '5280', '4140', '5760', '5400', '5400', '6300', '3600', '3600', '6240', '167', '3480', '600', '5760', '1260', '1020', '5220', '1800', '1080', '178', '221', '229', '2580', '191', '2700', '281', '283', '2700', '6120', '1020', '230', '180', '3600', '1525', '1500', '1505', '5160', '5520', '6000', '-1800', '60', '7260', '5100', '4740', '6240', '4320', '160', '6600', '5760', '4440', '6000', '5700', '6000', '6240', '6240', '4920', '6480', '5220', '5700', '5520', '2700', '1440', '1440', '1140', '2400', '7200', '6720', '3900', '3480', '5340', '7080', '6300', '900', '3600', '900', '780', '4140', '1680', '4500', '6000', '4140', '5700', '5400', '5220', '2880', '5760', '5700', '3600', '10380', '1500', '288', '5940', '5760', '4980', '2700', '5100', '5520', '5520', '5640', '6600', '4920', '1800', '5160', '5880', '7980', '10800', '5640', '9000', '6000', '6000', '5340', '5700', '6840', '660', '4980', '2521', '3761', '181', '7200', '5160', '5580', '5280', '6000', '5760', '7620', '1620', '340', '5400', '9420', '191', '3000', '4800', '4800', '6900', '7680', '5700', '1440', '2100', '1380', '5160', '8160', '3600', '3900', '1800', '5280', '5100', '540', '5640', '4980', '5700', '3600', '4440', '5160', '4800', '6120', '180', '5040', '3600', '5760', '5640', '5340', '5400', '5820', '5760', '5400', '6420', '60', '5040', '780', '3000', '7500', '6360', '12000', '272', '5820', '3480', '22', '6480', '4260', '5820', '6000', '6960', '6240', '2520', '900', '478', '1560', '4920', '4620', '5400', '6420', '239', '256', '5580', '1080', '1260', '2880', '5400', '3840', '5820', '5400', '284', '198', '5880', '480', '4800', '5400', '4800', '4020', '4200', '5700', '5520', '6360', '5340', '5340', '2580', '6000', '278', '441', '6120', '3900', '5340', '5640', '245', '8520', '5340', '1020', '4380', '5760', '6240', '5940', '4500', '4860', '200', '4440', '5820', '4200', '6960', '5100', '4860', '233', '3600', '780', '8760', '-360', '1440', '1800', '5880', '7200', '4200', '6420', '3480', '4500', '5760', '4260', '3000', '3720', '6360', '31320', '3300', '6420', '5640', '5940', '4740', '5280', '4800', '6120', '3900', '5340', '6120', '5940', '6360', '7800', '1200', '5040', '720', '4920', '435', '3300', '7200', '1800', '6780', '1800', '2700', '5820', '3780', '600', '1255', '2100', '3000', '10800', '3000', '3000', '3000', '4320', '5220', '8220', '5400', '5520', '5820', '6540', '420', '5340', '5040', '4800', '6060', '360', '281', '840', '6360', '3000', '240', '5400', '-1680', '187', '4680', '420', '335', '186', '4740', '3840', '4380', '6300', '5400', '4800', '5460', '6000', '6000', '228', '192', '1500', '3600', '4500', '5040', '5400', '152', '7500', '6420', '4380', '3000', '8280', '250', '5700', '6660', '5520', '8100', '1020', '9420', '274', '228', '356', '336', '1800', '1080', '7980', '3660', '3600', '3000', '256', '3420', '3000', '4020', '4200', '5940', '3840', '5580', '1800', '2280', '6420', '5040', '1260', '214', '3120', '7620', '231', '5760', '516', '6480', '198', '208', '-1500', '7080', '6000', '5460', '199', '205', '8460', '5340', '4260', '2700', '3600', '5400', '3600', '-5400', '5880', '7020', '7200', '3000', '6300', '4620', '6420', '5160', '4860', '5700', '5040', '6600', '4320', '5760', '6780', '1140', '4800', '4200', '5280', '6540', '6480', '1980', '672', '6000', '5760', '6240', '5040', '1080', '5700', '4680', '5400', '6300', '6360', '8400', '2700', '228', '238', '6420', '3120', '204', '6240', '5400', '3600', '3000', '185', '232', '4920', '6420', '263', '219', '225', '230', '3000', '4200', '6360', '44100', '2700', '7920', '240', '5940', '6300', '1800', '229', '-900', '6420', '976', '265', '225', '362', '1800', '3600', '6660', '7500', '249', '238', '3960', '4320', '5400', '240', '3960', '3660', '3960', '4320', '5460', '4500', '5700', '-3000', '7200', '3420', '5640', '5700', '6120', '5820', '140', '4140', '5820', '6420', '3600', '2460', '1800', '7800', '5280', '6480', '5160', '6540', '5880', '5400', '5880', '5880', '5400', '6000', '6060', '6240', '6480', '3120', '5280', '9120', '351', '6480', '5040', '5460', '5940', '5760', '5400', '198', '6720', '233', '-4260', '3600', '3600', '6300', '4320', '420', '212', '600', '1020', '460', '7020', '5760', '5400', '8400', '6720', '4740', '7860', '5220', '5400', '8280', '163', '165', '229', '6480', '5520', '420', '217', '226', '5460', '182', '4140', '3000', '3600', '3000', '3480', '6300', '6000', '3600', '5280', '720', '5340', '4980', '5340', '2280', '6240', '5400', '5340', '1800', '3600', '4920', '151.8', '264', '6780', '9600', '4200', '180', '5640', '9000', '6480', '5760', '5700', '2700', '4980', '5940', '4680', '2700', '780', '5100', '540', '6360', '1800', '1020', '3060', '7140', '5640', '5400', '2880', '1380', '4200', '480', '2880', '3780', '7200', '5160', '9060', '3360', '4860', '154', '183', '150', '211', '121', '3960', '4200', '3780', '3600', '660', '5700', '6000', '5100', '2700', '8400', '-4380', '9240', '5400', '5640', '261', '6960', '5700', '7', '12', '293', '355', '143', '346', '5940', '9720', '5700', '1800', '423', '3180', '5100', '2460', '420', '540', '5460', '6240', '5880', '6000', '282', '285', '200', '5040', '6120', '6000', '5460', '-3360', '5220', '7500', '5640', '6000', '3600', '7920', '4980', '3180', '3000', '5700', '3000', '145', '1380', '497', '5400', '5940', '2820', '5760', '6060', '4440', '229', '1200', '3000', '4320', '1500', '1800', '3000', '540', '5340', '380', '6120', '5400', '1440', '4980', '2700', '540', '6960', '5460', '5400', '5100', '987', '2700', '4980', '7020', '4080', '8580', '3420', '900', '5280', '4440', '-4200', '3600', '3900', '4680', '3000', '1800', '3600', '6720', '4200', '7800', '4860', '3600', '5400', '5880', '2940', '8520', '4500', '-3000', '5520', '4800', '934', '3000', '5580', '3600', '2640', '5400', '1260', '2700', '6360', '609', '7140', '5400', '221', '6600', '8100', '6840', '6480', '6240', '6600', '5280', '5400', '4980', '5880', '5700', '162', '5400', '6420', '6000', '4680', '5160', '5100', '2400', '8100', '221', '5640', '2880', '5460', '420', '5760', '3000', '151', '194', '217', '239', '282', '6660', '5520', '3000', '5100', '6600', '3600', '4680', '14220', '6060', '3900', '5220', '5580', '4200', '4560', '145', '5400', '5220', '3000', '3900', '163', '2700', '1620', '5460', '4980', '6720', '5220', '4200', '4860', '7680', '5160', '5100', '3360', '6480', '660', '5040', '5040', '6060', '7200', '3780', '6120', '5700', '3120', '5100', '5220', '4200', '5520', '5820', '6180', '188', '2460', '279', '6240', '6180', '6480', '184', '3000', '5640', '6120', '6000', '168', '203', '5700', '5400', '162', '5400', '250', '4320', '457', '215', '5400', '5580', '5820', '218', '188', '192', '7080', '4680', '6000', '4500', '1200', '1380', '5940', '6240', '1800', '1800', '5400', '5400', '3600', '4500', '420', '255', '4800', '257', '3600', '5640', '720', '3960', '5820', '2700', '5040', '420', '6900', '14400', '5400', '2880', '119', '210', '122', '446', '5340', '5880', '4860', '3000', '6240', '3000', '1020', '5100', '5280', '4740', '3480', '271', '355', '1800', '5880', '4560', '3000', '5640', '3900', '5100', '259', '174', '7320', '6060', '196', '190', '3720', '4500', '407', '7080', '5640', '8520', '2700', '5820', '7440', '6120', '6540', '401', '5220', '6360', '209', '1195', '5220', '2580', '154', '6660', '4800', '7200', '6000', '415', '500', '1800', '6540', '5160', '5160', '4860', '5760', '6000', '5400', '497', '-3000', '5700', '5400', '12', '166', '197', '137', '209', '223', '212', '293', '420', '4740', '3000', '300', '6300', '252', '372', '6600', '5400', '1320', '5340', '5580', '220', '5820', '5400', '5760', '5040', '2520', '5400', '300', '3300', '6420', '3600', '5880', '5160', '5100', '4020', '3600', '258', '6180', '7620', '5700', '10440', '6180', '-2820', '5940', '4860', '5760', '3600', '3540', '3000', '3600', '3600', '3600', '12000', '5760', '3180', '5640', '5880', '5820', '7200', '4980', '6780', '1620', '7500', '5460', '5400', '5700', '135', '5820', '3180', '5400', '5940', '5760', '6000', '152', '6180', '2700', '3120', '7320', '5520', '3000', '3960', '7740', '5220', '5460', '420', '4260', '248', '2940', '6660', '780', '4200', '262', '2520', '5400', '242', '4980', '5220', '5880', '427', '188', '2700', '205', '135', '5940', '3540', '5340', '5280', '205', '5520', '172', '420', '5460', '6000', '6960', '5160', '1147', '4260', '1320', '5280', '142', '213', '5820', '6300', '4140', '5820', '10200', '6000', '3300', '3600', '6000', '1800', '7200', '885', '5100', '3000', '7620', '4860', '4800', '4860', '1980', '290', '6300', '5640', '7860', '2700', '5520', '5460', '4500', '209', '5460', '4500', '247', '420', '6660', '1800', '5760', '5820', '5340', '5400', '5880', '5760', '6000', '5400', '5100', '3420', '5220', '6000', '6000', '6000', '3000', '5400', '1800', '6900', '3000', '230', '4500', '6720', '7', '12', '217', '250', '780', '1560', '5700', '2700', '5820', '6300', '6600', '5040', '6120', '5760', '5160', '5640', '5640', '5880', '5280', '3000', '4560', '4200', '3600', '5220', '3000', '3600', '500', '-480', '420', '5400', '3000', '3420', '7920', '4200', '1245', '2400', '316', '5400', '217', '220', '285', '291', '6600', '3120', '3300', '215', '5880', '6360', '210', '283', '302', '6780', '7140', '1011', '4500', '3000', '213', '3600', '4680', '5700', '5160', '5520', '4440', '5220', '4080', '9420', '6960', '6960', '5520', '5700', '5400', '360', '6600', '3600', '73', '6720', '6360', '3000', '4680', '3480', '5520', '5760', '5580', '1800', '-3600', '3600', '1800', '3600', '7680', '5520', '7200', '180', '6900', '174', '2400', '5460', '5580', '-3420', '3600', '5400', '6300', '5460', '220', '182', '600', '5760', '3180', '5340', '900', '5400', '1020', '1980', '3600', '312', '660', '7200', '175', '6180', '5280', '5100', '5400', '226', '5760', '4560', '3960', '5400', '4920', '4440', '4680', '255', '6180', '1500', '6480', '2700', '210', '6720', '5520', '378', '2700', '198', '38', '4320', '6180', '229', '3600', '6000', '4800', '4500', '4980', '1245', '2400', '3480', '210', '5400', '5</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -598,57 +598,57 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>In which films directed by Garry Marshall was Julia Roberts starring?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>["http://dbpedia.org/resource/http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
         </is>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>What is the most frequent cause of death?</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>What is the most frequent cause of death?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,57 +678,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['4']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Give me all islands that belong to Japan.</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Who developed the video game World of Warcraft?</t>
+          <t>Give me all islands that belong to Japan.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,57 +838,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Give me all the TV shows with Neil Patrick Harris.</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/8-Bit_Christmas', 'http://dbpedia.org/resource/A_Million_Ways_to_Die_in_the_West', 'http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/A_Very_Harold_&amp;_Kumar_Christmas', 'http://dbpedia.org/resource/Animal_Room', 'http://dbpedia.org/resource/Batman:_Under_the_Red_Hood', 'http://dbpedia.org/resource/Beastly_(film)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Cats_&amp;_Dogs:_The_Revenge_of_Kitty_Galore', "http://dbpedia.org/resource/Clara's_Heart", 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_(film)', 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_2', 'http://dbpedia.org/resource/Company_(2011_film)', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/Gone_Girl_(film)', 'http://dbpedia.org/resource/Harold_&amp;_Kumar_Escape_from_Guantanamo_Bay', 'http://dbpedia.org/resource/Harold_&amp;_Kumar', 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', 'http://dbpedia.org/resource/Justice_League:_The_New_Frontier', 'http://dbpedia.org/resource/My_Antonia_(film)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Purple_People_Eater_(film)', 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/Starship_Troopers_(film)', 'http://dbpedia.org/resource/The_Best_and_the_Brightest_(film)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/The_Matrix_Resurrections', 'http://dbpedia.org/resource/The_Proposition_(1998_film)', 'http://dbpedia.org/resource/The_Smurfs_(film)', 'http://dbpedia.org/resource/The_Smurfs_2', 'http://dbpedia.org/resource/The_Unbearable_Weight_of_Massive_Talent', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Give me all movies with Tom Cruise.</t>
+          <t>Give me all the TV shows with Neil Patrick Harris.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+          <t>['http://dbpedia.org/resource/8-Bit_Christmas', 'http://dbpedia.org/resource/A_Million_Ways_to_Die_in_the_West', 'http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/A_Very_Harold_&amp;_Kumar_Christmas', 'http://dbpedia.org/resource/Animal_Room', 'http://dbpedia.org/resource/Batman:_Under_the_Red_Hood', 'http://dbpedia.org/resource/Beastly_(film)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Cats_&amp;_Dogs:_The_Revenge_of_Kitty_Galore', "http://dbpedia.org/resource/Clara's_Heart", 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_(film)', 'http://dbpedia.org/resource/Cloudy_with_a_Chance_of_Meatballs_2', 'http://dbpedia.org/resource/Company_(2011_film)', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/Gone_Girl_(film)', 'http://dbpedia.org/resource/Harold_&amp;_Kumar_Escape_from_Guantanamo_Bay', 'http://dbpedia.org/resource/Harold_&amp;_Kumar', 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', 'http://dbpedia.org/resource/Justice_League:_The_New_Frontier', 'http://dbpedia.org/resource/My_Antonia_(film)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Purple_People_Eater_(film)', 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/Starship_Troopers_(film)', 'http://dbpedia.org/resource/The_Best_and_the_Brightest_(film)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/The_Matrix_Resurrections', 'http://dbpedia.org/resource/The_Proposition_(1998_film)', 'http://dbpedia.org/resource/The_Smurfs_(film)', 'http://dbpedia.org/resource/The_Smurfs_2', 'http://dbpedia.org/resource/The_Unbearable_Weight_of_Massive_Talent', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>What country is Mount Everest in?</t>
+          <t>Give me all movies with Tom Cruise.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
+          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
+          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Where was JFK assassinated?</t>
+          <t>What country is Mount Everest in?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Dallas']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Dallas']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>What was the last movie with Alec Guinness?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>What was the last movie with Alec Guinness?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Which people were born in Heraklion?</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -978,57 +978,57 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Give me all Swedish holidays.</t>
+          <t>Which city has the least inhabitants?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Give me all Swedish holidays.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,37 +1118,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0.001444', '0.0016', '0.00172', '0.00178', '0.015', '0.016', '0.0162', '0.0165', '0.0165', '0.0166', '0.0168', '0.0168', '0.017', '0.0173', '0.0173', '0.0174', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0175', '0.0176', '0.0177', '0.0177', '0.0178', '0.0178', '0.0179', '0.0179', '0.0179', '0.0179', '0.0179', '0.0179', '0.018', '0.018', '0.018', '0.018', '0.018', '0.0181', '0.0183', '0.0184', '0.0185', '0.0185', '0.0185', '0.0185', '0.0186', '0.0188', '0.0188', '0.0188', '0.0188', '0.0188', '0.0188', '0.0188', '0.0189', '0.019', '0.0191', '0.0192', '0.0195', '0.0195', '0.0195', '0.0195', '0.0195', '0.0196', '0.0197', '0.0197', '0.0197', '0.0198', '0.0198', '0.02', '0.0202', '0.0205', '0.028575', '0.03', '0.03', '0.03', '0.035', '0.0381', '0.04', '0.04', '0.044958', '0.05', '0.05', '0.0508', '0.054', '0.063246', '0.07', '0.0700001', '0.0705', '0.07112', '0.072', '0.075', '0.076', '0.076', '0.0762', '0.079', '0.08', '0.082', '0.08255', '0.08255', '0.083', '0.085', '0.087', '0.0889', '0.0889', '0.0889', '0.089916', '0.09', '0.09144', '0.092075', '0.09398', '0.094234', '0.095', '0.096', '0.098', '0.098044', '0.099', '0.09906', '0.09906', '0.09906', '0.09906', '0.09906', '0.1', '0.1016', '0.1016', '0.1016', '0.1016', '0.1016', '0.1016', '0.1016', '0.1016', '0.102', '0.104', '0.104775', '0.105918', '0.109', '0.109', '0.109', '0.10922', '0.10922', '0.10922', '0.10922', '0.11', '0.11', '0.112', '0.113', '0.1143', '0.1143', '0.1143', '0.1143', '0.115', '0.11684', '0.11684', '0.117', '0.117', '0.117094', '0.118', '0.11938', '0.11938', '0.11938', '0.12', '0.12', '0.12', '0.12065', '0.12065', '0.121', '0.121', '0.122', '0.123', '0.124', '0.12446', '0.125', '0.125', '0.125', '0.125', '0.125', '0.125984', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.127', '0.1275', '0.129', '0.129286', '0.12954', '0.129794', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.13', '0.131', '0.132', '0.132', '0.132', '0.132', '0.13208', '0.13208', '0.13208', '0.13208', '0.132715', '0.13335', '0.13335', '0.1335', '0.133604', '0.134', '0.134', '0.134', '0.134', '0.134', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.135', '0.136', '0.136', '0.136', '0.136', '0.136', '0.136', '0.136', '0.137', '0.137', '0.137', '0.137008', '0.13716', '0.1375', '0.138', '0.1382', '0.13843', '0.13843', '0.13843', '0.13843', '0.139', '0.139', '0.1397', '0.1397', '0.1397', '0.1397', '0.1397', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.14', '0.141224', '0.142', '0.142', '0.142', '0.142', '0.142', '0.142', '0.14224', '0.14224', '0.14224', '0.143', '0.143', '0.143', '0.144', '0.14478', '0.145', '0.145', '0.145', '0.145', '0.145', '0.145', '0.14605', '0.14605', '0.147', '0.15', '0.15', '0.15', '0.15', '0.152', '0.152146', '0.1524', '0.1524', '0.1524', '0.1524', '0.1524', '0.153924', '0.1545', '0.155575', '0.157', '0.158', '0.159', '0.16', '0.16', '0.16', '0.16', '0.165', '0.1695', '0.17', '0.17', '0.17018', '0.175', '0.175', '0.1778', '0.1778', '0.1778', '0.1778', '0.1778', '0.1778', '0.1778', '0.18', '0.18', '0.182', '0.185', '0.185', '0.186', '0.19', '0.19', '0.19', '0.19', '0.19', '0.191', '0.195', '0.195', '0.195', '0.195', '0.196', '0.196', '0.196', '0.19685', '0.199', '0.199', '0.2', '0.2', '0.2', '0.201', '0.2032', '0.2032', '0.2032', '0.2032', '0.2032', '0.2032', '0.204978', '0.205', '0.205', '0.205', '0.208', '0.209804', '0.21', '0.21', '0.21', '0.212', '0.214', '0.22', '0.22', '0.22', '0.22', '0.22', '0.22098', '0.223', '0.225', '0.225', '0.23', '0.23', '0.238', '0.23876', '0.24', '0.241', '0.245', '0.246', '0.25', '0.25', '0.255', '0.258', '0.258', '0.25908', '0.2591', '0.26', '0.262', '0.263', '0.263', '0.26416', '0.267', '0.27', '0.27', '0.275', '0.277', '0.279', '0.28', '0.28', '0.283', '0.28448', '0.2888', '0.29', '0.29', '0.291', '0.294', '0.31', '0.32', '0.32', '0.32', '0.322', '0.3429', '0.37', '0.373', '0.381', '0.391922', '0.415', '0.4318', '0.44', '0.455', '0.4572', '0.46', '0.47', '0.475', '0.478', '0.495', '0.508', '0.515', '0.53', '0.53', '0.5334', '0.546', '0.54864', '0.56', '0.56', '0.5993', '0.6', '0.60325', '0.6096', '0.6096', '0.6096', '0.6096', '0.6096', '0.6096', '0.62', '0.621', '0.63', '0.635', '0.644', '0.66', '0.66', '0.6604', '0.664', '0.67', '0.672', '0.68', '0.681', '0.6858', '0.69', '0.693', '0.693', '0.693', '0.693', '0.693', '0.693', '0.6975', '0.7', '0.7005', '0.701', '0.7112', '0.7112', '0.725', '0.7366', '0.74', '0.74', '0.76', '0.762', '0.762', '0.762', '0.775', '0.7874', '0.7874', '0.7874', '0.795', '0.8', '0.8', '0.81', '0.81', '0.8128', '0.8128', '0.8128', '0.83', '0.83', '0.838', '0.84', '0.84', '0.84', '0.84455', '0.86', '0.863', '0.8636', '0.8636', '0.8636', '0.8636', '0.87', '0.889', '0.89', '0.9', '0.9', '0.903', '0.91', '0.91', '0.91', '0.914', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.9144', '0.92', '0.93', '0.93', '0.93', '0.935', '0.9398', '0.9398', '0.9398', '0.9398', '0.94', '0.94', '0.95', '0.96', '0.965', '0.965', '0.9652', '0.97', '0.97', '0.97', '0.97', '0.972', '0.975385', '0.977', '0.98', '0.98', '0.98', '0.98', '0.98', '0.983', '0.983', '0.99', '0.99', '0.99', '0.9906', '0.9906', '0.9906', '0.9906', '0.991', '0.99314', '0.995', '0.995', '0.99568', '0.999', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1', '1.009', '1.01', '1.015', '1.016', '1.019', '1.02', '1.02', '1.02', '1.021', '1.025', '1.0287', '1.03', '1.03', '1.03', '1.03124', '1.04', '1.04', '1.04', '1.041', '1.0414', '1.0414', '1.0414', '1.0414', '1.045', '1.049', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.05', '1.0541', '1.055', '1.055', '1.06', '1.06', '1.063', '1.065', '1.065', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.0668', '1.067', '1.067', '1.067', '1.069', '1.069', '1.07', '1.07', '1.07', '1.07', '1.07', '1.07', '1.07', '1.07', '1.0701', '1.074', '1.075', '1.076', '1.0795', '1.0795', '1.0795', '1.0795', '1.08', '1.08', '1.08', '1.085', '1.08585', '1.09', '1.09', '1.09', '1.09', '1.092', '1.092', '1.092', '1.092', '1.0922', '1.0922', '1.0922', '1.09449', '1.095', '1.09728', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1', '1.1049', '1.1049', '1.105', '1.105', '1.105', '1.105', '1.108', '1.10998', '1.11', '1.11', '1.11', '1.11', '1.11', '1.11', '1.111', '1.111', '1.112', '1.11252', '1.114', '1.114', '1.116', '1.116', '1.116', '1.116', '1.117', '1.117', '1.117', '1.1176', '1.1176', '1.1176', '1.118', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.12', '1.122', '1.124', '1.127', '1.127', '1.127', '1.13', '1.13', '1.13', '1.13', '1.13', '1.13', '1.13', '1.13', '1.1303', '1.1303', '1.1303', '1.132', '1.133', '1.134', '1.134', '1.135', '1.135', '1.135', '1.135', '1.135', '1.13538', '1.136', '1.138', '1.138', '1.138', '1.138', '1.139', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.14', '1.141', '1.142', '1.142', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.143', '1.145', '1.147', '1.148', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15', '1.15062', '1.15062', '1.151', '1.152', '1.153', '1.155', '1.156', '1.156', '1.158', '1.16', '1.16', '1.16', '1.16', '1.16', '1.16', '1.16', '1.16', '1.16', '1.164', '1.165', '1.165', '1.165', '1.166', '1.166', '1.168', '1.168', '1.168', '1.168', '1.1684', '1.1684', '1.1684', '1.1684', '1.1684', '1.1684', '1.169', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.17', '1.175', '1.175', '1.175', '1.175', '1.175', '1.175', '1.17602', '1.17602', '1.17856', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.18', '1.181', '1.181', '1.181', '1.1811', '1.182', '1.182', '1.183', '1.184', '1.185', '1.185', '1.185', '1.186', '1.186', '1.187', '1.188', '1.188', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.19', '1.191', '1.19126', '1.192', '1.1938', '1.1938', '1.1938', '1.1938', '1.194', '1.194', '1.195', '1.195', '1.195', '1.195', '1.198', '1.198', '1.198', '1.198', '1.198', '1.19888', '1.19888', '1.199', '1.199', '1.199', '1.199', '1.199', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.2', '1.20142', '1.202', '1.202', '1.202', '1.203', '1.203', '1.20396', '1.204', '1.204', '1.204', '1.205', '1.205', '1.206', '1.2065', '1.2065', '1.2065', '1.2065', '1.207', '1.208', '1.208', '1.21', '1.21', '1.21', '1.21', '1.21', '1.21', '1.21', '1.21', '1.21158', '1.212', '1.212', '1.213', '1.213', '1.213', '1.21361', '1.214', '1.214', '1.214', '1.21412', '1.21412', '1.215', '1.215', '1.215', '1.216', '1.21666', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.2192', '1.21923', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.22', '1.222', '1.222', '1.222', '1.22237', '1.224', '1.22428', '1.225', '1.225', '1.225', '1.22555', '1.22555', '1.226', '1.22682', '1.227', '1.229', '1.22936', '1.22936', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.23', '1.2319', '1.233', '1.233', '1.23444', '1.23444', '1.23444', '1.23444', '1.23444', '1.23444', '1.235', '1.235', '1.235', '1.235', '1.235', '1.23698', '1.237', '1.239', '1.23952', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.24', '1.242', '1.24206', '1.243', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.2446', '1.245', '1.245', '1.245', '1.245', '1.245', '1.245', '1.245', '1.245', '1.247', '1.24714', '1.24993', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25', '1.25095', '1.25095', '1.252', '1.252', '1.25222', '1.25222', '1.254', '1.25476', '1.255', '1.255', '1.255', '1.255', '1.255', '1.257', '1.257', '1.2573', '1.2573', '1.25984', '1.25984', '1.25984', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.26', '1.261', '1.261', '1.262', '1.262', '1.26238', '1.26238', '1.263', '1.26365', '1.26492', '1.26492', '1.26492', '1.265', '1.265', '1.265', '1.265', '1.267', '1.26898', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.27', '1.272', '1.27254', '1.27254', '1.27254', '1.27254', '1.273', '1.274', '1.275', '1.275', '1.275', '1.275', '1.275', '1.275', '1.27508', '1.27508', '1.27508', '1.27508', '1.27508', '1.27508', '1.27508', '1.276', '1.276', '1.276', '1.27635', '1.277', '1.277', '1.27762', '1.278', '1.279', '1.279', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28', '1.28016', '1.28016', '1.28016', '1.28016', '1.28016', '1.281', '1.2827', '1.2827', '1.283', '1.284', '1.285', '1.285', '1.285', '1.285', '1.285', '1.285', '1.285', '1.28524', '1.28524', '1.28524', '1.28778', '1.28778', '1.28778', '1.288', '1.288', '1.289', '1.289', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29', '1.29007', '1.29007', '1.29032', '1.29032', '1.29032', '1.29032', '1.29032', '1.291', '1.29286', '1.29286', '1.29286', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.295', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.2954', '1.297', '1.297', '1.29794', '1.29794', '1.29794', '1.29794', '1.298', '1.298', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.3', '1.30048', '1.30048', '1.30048', '1.30048', '1.30048', '1.301', '1.301', '1.302', '1.302', '1.303', '1.303', '1.30302', '1.304', '1.304', '1.305', '1.305', '1.305', '1.305', '1.305', '1.305', '1.305', '1.30556', '1.30556', '1.30556', '1.30556', '1.30556', '1.30556', '1.30556', '1.308', '1.308', '1.308', '1.3081', '1.3081', '1.309', '1.30988', '1.30988', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.31064', '1.311', '1.311', '1.313', '1.31318', '1.31318', '1.314', '1.314', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.315', '1.31572', '1.31572', '1.31572', '1.31572', '1.31572', '1.318', '1.318', '1.318', '1.318', '1.31826', '1.31826', '1.31826', '1.31826', '1.31826', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.32', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.3208', '1.321', '1.321', '1.321', '1.321', '1.321', '1.321', '1.321', '1.322', '1.32334', '1.32334', '1.32334', '1.32334', '1.324', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.325', '1.32588', '1.32588', '1.32588', '1.32588', '1.32588', '1.326', '1.32715', '1.328', '1.328', '1.32842', '1.32842', '1.32842', '1.32842', '1.32842', '1.32842', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33', '1.33096', '1.33096', '1.33096', '1.33096', '1.33096', '1.33096', '1.33096', '1.33096', '1.331', '1.332', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.3335', '1.334', '1.334', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.335', '1.336', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33604', '1.33858', '1.33858', '1.33858', '1.33858', '1.33858', '1.33985', '1.33985', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.34', '1.341', '1.341', '1.341', '1.341', '1.34112', '1.34112', '1.34112', '1.34112', '1.34112', '1.34112', '1.34112', '1.34366', '1.34366', '1.34366', '1.34366', '1.34366', '1.34366', '1.34366', '1.34366', '1.344', '1.344', '1.345', '1.345', '1.345', '1.345', '1.345', '1.345', '1.345', '1.346', '1.346', '1.346', '1.346', '1.346', '1.346', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.3462', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.34874', '1.349', '1.34937', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.35128', '1.352', '1.352', '1.352', '1.35255', '1.353', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.35382', '1.354', '1.354', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.355', '1.35636', '1.35636', '1.35636', '1.35636', '1.35636', '1.357', '1.358', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.3589', '1.359', '1.359', '1.359', '1.359', '1.359', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.36', '1.361', '1.36144', '1.36144', '1.36144', '1.36144', '1.362', '1.362', '1.362', '1.363', '1.363', '1.363', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.36398', '1.364', '1.364', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.365', '1.366', '1.36652', '1.36652', '1.36652', '1.36652', '1.36652', '1.36652', '1.367', '1.367', '1.369', '1.369', '1.369', '1.369', '1.369', '1.369', '1.36906', '1.36906', '1.36906', '1.36906', '1.36906', '1.36906', '1.36906', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.37', '1.371', '1.371', '1.371', '1.371', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.3716', '1.372', '1.372', '1.372', '1.372', '1.372', '1.372', '1.372', '1.372', '1.374', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37414', '1.37439', '1.37477', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.375', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.37668', '1.377', '1.377', '1.37795', '1.378', '1.379', '1.379', '1.379', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37922', '1.37998', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.38', '1.381', '1.381', '1.38176', '1.38176', '1.38176', '1.38176', '1.38176', '1.38176', '1.382', '1.383', '1.383', '1.384', '1.384', '1.384', '1.384', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.3843', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.385', '1.386', '1.386', '1.38684', '1.38684', '1.38684', '1.38684', '1.38684', '1.38684', '1.38684', '1.38684', '1.387', '1.387', '1.388', '1.388', '1.388', '1.389', '1.389', '1.389', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38938', '1.38989', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39', '1.39065', '1.391', '1.391', '1.39192', '1.39192', '1.39192', '1.39192', '1.39192', '1.39192', '1.392', '1.392', '1.392', '1.392', '1.393', '1.393', '1.393', '1.394', '1.394', '1.394', '1.394', '1.394', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.39446', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.395', '1.396', '1.396', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.397', '1.398', '1.398', '1.398', '1.398', '1.399', '1.399', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.39954', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.4', '1.401', '1.402', '1.402', '1.40208', '1.40208', '1.40208', '1.40208', '1.403', '1.404', '1.404', '1.40462', '1.40462', '1.40462', '1.40462', '1.40462', '1.40462', '1.40462', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.405', '1.406', '1.40652', '1.40716', '1.40716', '1.40716', '1.40716', '1.40716', '1.40716', '1.408', '1.408', '1.408', '1.409', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.4097', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.41', '1.411', '1.412', '1.412', '1.412', '1.412', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.41224', '1.413', '1.413', '1.41351', '1.414', '1.414', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.41478', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.415', '1.416', '1.416', '1.416', '1.416', '1.416', '1.417', '1.417', '1.417', '1.417', '1.417', '1.41732', '1.41732', '1.41732', '1.41732', '1.41732', '1.41732', '1.41732', '1.41732', '1.418', '1.418', '1.418', '1.419', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.41986', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.42', '1.421', '1.421', '1.421', '1.421', '1.422', '1.422', '1.422', '1.422', '1.422', '1.422', '1.422', '1.422', '1.422', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.4224', '1.423', '1.423', '1.423', '1.423', '1.424', '1.424', '1.424', '1.424', '1.424', '1.42494', '1.42494', '1.42494', '1.42494', '1.42494', '1.42494', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.425', '1.42557', '1.426', '1.426', '1.426', '1.426', '1.427', '1.427', '1.427', '1.427', '1.427', '1.427', '1.427', '1.427', '1.42748', '1.42748', '1.42748', '1.42748', '1.42748', '1.42748', '1.42748', '1.42748', '1.428', '1.428', '1.429', '1.429', '1.429', '1.429', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.43002', '1.431', '1.432', '1.432', '1.432', '1.432', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.43256', '1.433', '1.433', '1.433', '1.433', '1.434', '1.434', '1.435', '1.435', '1.435', </t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['1.9812']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/American_Sniper', 'http://dbpedia.org/resource/Bird_(1988_film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Breezy', 'http://dbpedia.org/resource/Changeling_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Flags_of_Our_Fathers_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/Hereafter_(film)', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Invictus_(film)', 'http://dbpedia.org/resource/J._Edgar', 'http://dbpedia.org/resource/Letters_from_Iwo_Jima', 'http://dbpedia.org/resource/Midnight_in_the_Garden_of_Good_and_Evil_(film)', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Mystic_River_(film)', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Richard_Jewell_(film)', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_15:17_to_Paris', 'http://dbpedia.org/resource/The_Blues_(film_series)__Piano_Blues__1', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['147.523', '139', '89', '176', '70', '17', '182.7', '157', '164', '140', '320.04', '55', '60.7649', '73', '126.5', '300', '62.484', '179.1', '47.8536', '72.6399', '192.634', '122', '214.579', '267.614', '80.1624', '47', '37', '153.01', '62.1792', '154.23', '151', '2.9', '0.9', '2.53', '2.2', '2.26', '1.65', '1.88', '172', '120.701', '117.348', '167.335', '180.137', '116', '69', '131', '103', '46', '263.4', '1.6', '1.53', '1.565', '1.5', '2.6', '107.899', '140.21', '131.064', '176.479', '48.768', '145.09', '16.68', '103', '137.16', '121.92', '101.194', '108.509', '28.09', '88', '205', '179.832', '157.886', '90.2208', '150.266', '128', '7.69925', '245.364', '48.768', '103.022', '155', '3.87096', '183', '128.016', '195', '116', '167', '140', '123.139', '191.719', '55', '108', '116', '130.454', '167.03', '133.502', '47.8536', '124', '56', '3.25', '108', '57.912', '145', '1.43', '1.92', '1.74', '214', '16.764', '192.024', '47.4269', '2.2', '75', '190.805', '108.204', '92.964', '60.96', '92.3544', '99.9744', '249.022', '81.0768', '124.968', '118.262', '127.406', '130.454', '85.9536', '151.18', '50', '110', '168.859', '228.295', '241.402', '64', '203.911', '207.569', '435.254', '75.2856', '47.8536', '41.148', '138.379', '85.344', '121.92', '126.492', '110.642', '252.679', '87', '182.88', '200.254', '2.1336', '220', '62', '1.47', '1.09', '152.705', '121.615', '84.13', '77.724', '110', '88.392', '103.022', '48.768', '235.31', '130.1', '180.442', '225', '1.99', '2.27', '1.6', '1.841', '1.82', '15', '205.435', '127', '124', '37', '277.978', '137.77', '82', '100.6', '104.242', '199', '226.5', '228.6', '230.429', '49.9872', '3', '2.55', '243.84', '185.623', '3.5', '46.9392', '203', '47.8536', '190.5', '244.754', '36.576', '209.702', '125.9', '132.6', '132.7', '140.2', '131', '152', '210.617', '45.72', '87.7824', '164.592', '2.2', '167.945', '1.4', '1.23', '1.707', '1.78', '2.8', '279.502', '387.096', '44.5', '160.934', '100.59', '131.88', '88.6968', '229.21', '121', '138.8', '89.0016', '119.482', '183.49', '119.177', '138.684', '158', '173.126', '103.937', '1.99', '1.92', '1.91', '1.8', '2.27', '1.21', '3.63', '1.93', '2.7', '3.3', '178', '195', '56.5587', '79.8576', '166', '51.2064', '107.29', '117.043', '132.283', '151.793', '223.114', '204.216', '84.1248', '47.8536', '48.768', '56.0832', '136.55', '106', '109', '114.605', '131.064', '199', '46.6344', '122.225', '265', '72', '218', '83.82', '114.3', '108.204', '2.57', '133.502', '152', '213', '2.62', '98', '128.93', '216.103', '87', '205.13', '213.36', '207.264', '152.4', '129.54', '47.244', '231.038', '52', '157.277', '234.7', '152.4', '2', '121.31', '128.626', '1.57734', '82', '110.9', '163', '167.03', '5.7912', '128.321', '1.6', '1.6', '1.8034', '49.68', '61.88', '153.619', '1.8288', '409.956', '5.09016', '4.8768', '0.838', '64.008', '76.2', '160', '2.8', '203.911', '175.87', '78.3336', '27.432', '201', '134.417', '152.4', '182.575', '228.295', '132.588', '85.9536', '106.68', '128', '1.6764', '2.5', '1.47', '1.5', '138.989', '76.2', '111.862', '185.7', '240', '278', '290.474', '86.5632', '1.83', '1.8', '55.7784', '99.9744', '93.5736', '106.68', '112.776', '40.511', '110.338', '93.2688', '99.9744', '196.596', '313.5', '392.8', '395', '107.29', '149.352', '140.208', '80.772', '197.51', '309', '153', '81', '118', '228', '1.8', '80', '115', '273', '280.3', '150', '79.8576', '152.4', '109.728', '217', '158.496', '51', '108.8', '423.062', '75.29', '123.4', '142', '153.314', '205.13', '209.398', '247.802', '152.4', '35.3568', '128.321', '20.254', '77.0138', '175', '0.322', '5.75', '2.76', '3', '228', '4', '3.8862', '2.73', '2.49', '2.99', '2.72', '3.05', '3', '3.2', '2.76', '3', '2.3', '2.51', '157.3', '30.48', '75', '300.838', '169.469', '328.879', '2.86512', '2.8', '1.62', '1.6002', '1.17', '0.515', '264', '270.5', '68', '238.049', '168.554', '62', '180', '195.072', '125.273', '239', '124.358', '58.5216', '141.122', '93.5736', '110', '256.8', '292.9', '293', '16.8798', '167.335', '175.26', '121.92', '155.45', '145.39', '203.606', '109.728', '115.824', '167.64', '108.509', '151', '144', '120.701', '182.88', '149', '193.548', '121.92', '134.112', '192.4', '205', '188.976', '211.836', '219.761', '193.243', '159.41', '307.543', '129.235', '138.684', '46.6', '70.104', '190.195', '16.8798', '102', '143.866', '117', '88.5444', '91.4', '235.915', '1.8', '0.96', '1', '48.768', '164.592', '217.5', '169', '179.83', '151', '94', '2.55', '1.87', '190.9', '122', '160', '2.2352', '191.719', '102.6', '2.12', '313.639', '153', '68.58', '43', '155', '127.65', '57.912', '254.813', '282.55', '28.0416', '153.924', '115', '150', '266.7', '73.4568', '134.722', '112.5', '42.3672', '167.335', '156.972', '30.3825', '2.8', '2.39', '124.36', '152.4', '4.25', '75.5904', '109', '188.366', '160', '262.128', '156.972', '392.1', '425.501', '2.7', '1.9', '115.824', '172.2', '183.7', '3', '316.687', '145.085', '1.2', '173', '118.872', '105', '121.92', '46.0248', '115.519', '36.576', '114.605', '1.1', '50.292', '153', '57.3908', '209.398', '87.7', '2.16', '87.1728', '250.85', '175.26', '277.368', '99.9744', '168.859', '148.44', '83.82', '183', '308.153', '86.868', '90.25', '123.139', '236.22', '237.134', '99.9744', '129.845', '212.446', '191', '71.7', '132.67', '180', '159.41', '270', '100', '55.7784', '67.5162', '305.105', '238.049', '41.148', '335.28', '158.496', '115.214', '140', '196.992', '237.744', '89.92', '91.44', '114.91', '74.0664', '197.206', '64.01', '154.534', '237.439', '85', '147', '242.621', '250.241', '314', '224', '1.37', '107', '183.794', '135.18', '124.968', '199.034', '2.7432', '113.081', '155.143', '107', '211.836', '40.2336', '208.483', '230.429', '189', '117.348', '47.244', '132.283', '70.8934', '142', '149.352', '147.218', '144.475', '0.644', '477.622', '206.959', '225.857', '226.466', '0.66', '0.66', '1.2', '1.05', '0.94', '243.84', '259.08', '290.17', '90', '47.244', '137.16', '159.106', '206.959', '198.12', '146.609', '187.452', '48.94', '64.9224', '68.58', '246', '62.484', '78.03', '104.546', '1.2192', '1.55', '56.9976', '129.235', '118.9', '4.8', '1.71', '1.7', '1.37', '1.3', '1.35', '1.22', '1.3', '203.606', '160.02', '220.98', '298', '117.958', '2.27', '200', '65', '150', '252.07', '265.176', '147.14', '2.8', '2.1', '0.89', '438.302', '165.51', '200', '192.024', '160.02', '192.329', '171.602', '1.6256', '2.25', '1.89', '1.42', '1.5', '341', '347.5', '378', '116.129', '130.15', '142.037', '94.1832', '175.87', '146.5', '191.414', '187', '98.7613', '198.12', '42.3672', '265.481', '163.38', '42.672', '57.3908', '179', '141.732', '143.561', '2.0066', '187.452', '55.78', '90.8', '40.511', '64.1421', '82.3905', '40.511', '104', '274.32', '114.3', '50.9016', '51.816', '120.701', '0.19', '1.18', '2.3', '4.2', '2.3', '100', '1.73', '1.7018', '1.778', '1.67', '0', '1.8288', '3.2', '3.9', '0.291', '1.7272', '1.7272', '1.8288', '1.7526', '1.8542', '1.905', '21.6408', '1.8034', '1.6256', '2.0828', '2.032', '1.91', '1.77', '2.0574', '1.85', '1.75', '2.0828', '1.905', '1.905', '1.8', '1.8034', '1.778', '2.0574', '1.8542', '1.84', '1.9558', '1.905', '1.8542', '2.1336', '1.8542', '1.778', '1.8034', '1.9812', '1.8034', '1.778', '21.336', '1.8034', '1.88', '1.8796', '1.8796', '1.9812', '1.8288', '1.905', '1.91', '1.8542', '1.88', '1.8796', '1.8796', '137', '1.8796', '96', '1.83', '1.8288', '1.9558', '1.78', '2.0066', '2.0066', '2.0574', '57.9', '1.8034', '0.028575', '0.155575', '0.092075', '0.1016', '0.1016', '0.08255', '0.08255', '0.13335', '0.1016', '1.7', '2.0828', '1.7526', '1.9558', '1.6256', '1.7', '30.3825', '180', '3.9624', '3.3', '2.4', '1.76', '1.8542', '1.81', '1.84', '1.86', '1.7272', '1.75', '1.8542', '1.63', '1.6256', '181', '0', '1.7', '1.78', '1.905', '1.6', '1.57', '1.8034', '243.8', '1.84', '1.72', '1.8542', '2.032', '1.81', '1.79', '1.96', '1.73', '1.83', '1.67', '1.524', '94', '142', '1.7018', '2.0828', '1.75', '1.8796', '1.8288', '1.82', '1.905', '1.93', '1.9812', '1.7018', '1.6764', '1.88', '2.0066', '1.84', '1.84', '1.7272', '1.84', '1.8288', '1.8', '1.78', '1.86', '1.83', '1.84', '1.75', '1.89', '1.84', '1.9304', '1.8542', '1.92', '1.8', '1.86', '1.524', '1.8288', '1.905', '1.78', '1.8', '1.8542', '1.905', '1.8034', '1.8288', '1.778', '1.778', '1.78', '1.85', '1.905', '1.75', '1.86', '1.89', '1.83', '1.93', '1.83', '1.778', '1.8542', '2.03', '1.7', '1.7272', '1.8', '1.82', '1.93', '1.78', '1.8796', '1.88', '1.75', '1.8034', '1.8542', '1.8796', '1.92', '1.85', '1.9304', '1.7', '1.78', '1.81', '1.77', '1.9304', '1.8034', '1.8288', '1.6764', '1.8796', '1.76', '1.7018', '1.905', '1.85', '1.8542', '1.82', '1.83', '1.84', '1.9304', '2.0574', '1.8288', '1.87', '1.9304', '1.77', '1.8', '2.032', '1.524', '1.81', '1.86', '1.8542', '1.4732', '1.93', '1.76', '1.9812', '1.8034', '1.83', '1.7018', '1.8', '1.8796', '1.7272', '1.75', '2.032', '1.78', '1.79', '1.81', '2.1336', '1.76', '1.8796', '1.84', '1.79', '1.78', '1.85', '1.93', '1.84', '1.73', '2.032', '1.9812', '1.7018', '1.78', '1.8', '1.95', '1.9812', '1.75', '1.82', '1.8034', '1.8', '1.85', '1.9558', '1.83', '1.8288', '1.8288', '1.7', '1.93', '1.778', '1.83', '1.905', '1.83', '1.66', '1.8288', '1.905', '2.032', '1.94', '1.88', '1.83', '1.7272', '1.8542', '1.8', '1.9', '2.02', '1.8288', '1.8542', '1.79', '1.78', '1.8288', '1.73', '1.88', '1.8034', '1.9304', '1.65', '1.91', '1.6764', '1.8', '1.8034', '1.8288', '1.83', '1.82', '1.778', '1.8288', '1.8', '1.8796', '1.86', '1.78', '1.8669', '1.8542', '1.86', '1.9', '1.83', '1.8', '1.8288', '1.8542', '1.8796', '2', '1.75', '2.032', '1.83', '1.9558', '1.7018', '1.76', '1.99', '1.8542', '1.83', '1.905', '1.905', '1.85', '1.75', '1.8', '1.75', '1.8', '1.74', '1.8288', '1.8796', '1.7272', '1.84', '1.88', '1.84', '1.83', '1.95', '1.6764', '1.9558', '1.778', '1.82', '1.7', '1.8542', '1.78', '1.88', '1.88', '1.85', '1.8288', '1.76', '1.8', '1.8288', '1.76', '1.8796', '1.73', '1.75', '1.905', '1.9', '1.9304', '1.9812', '1.7526', '1.71', '1.7272', '1.85', '1.8796', '1.68', '1.93', '1.6764', '1.8034', '1.88', '1.8', '1.78', '1.88', '1.73', '1.7526', '1.92', '1.8542', '1.78', '1.905', '1.6256', '1.68', '1.8', '2.05', '1.89', '1.83', '1.6256', '2.11', '1.8034', '1.9304', '1.83', '1.78', '1.88', '1.99', '1.87', '1.97', '1.8288', '1.76', '1.778', '1.81', '1.71', '1.8034', '1.8288', '1.7272', '1.65', '1.91', '1.9558', '1.78', '1.88', '1.82', '1.7', '1.9304', '1.7', '1.7272', '1.72', '1.91', '1.79', '1.9558', '1.8', '1.88', '1.8288', '1.9304', '1.89', '1.8', '1.83', '1.8796', '1.7272', '1.9304', '1.84', '1.9304', '1.86', '2.0574', '1.63', '1.9558', '1.91', '1.75', '2.0574', '1.82', '1.8542', '1.94', '1.8542', '1.88', '1.524', '1.71', '1.67', '1.8', '1.82', '1.77', '1.73', '14', '1.76', '1.72', '1.778', '1.85', '1.8796', '1.83', '1.78', '1.72', '1.87', '1.75', '1.8288', '1.8288', '1.8796', '1.7272', '1.79', '1.7526', '1.8288', '83', '1.83', '21.5', '1.65', '1.7', '1.524', '1.88', '1.2', '0.97', '1.245', '0.84', '1.14', '1.199', '1.03', '1.94', '1.7', '1.7018', '1.82', '1.73', '1.67', '0.0186', '1.88', '1.77', '1.7', '1.77', '1.84', '1.76', '1.85', '1.77', '1.8034', '1.75', '1.66', '1.75', '1.8', '1.79', '1.82', '1.69', '1.8', '1.76', '1.78', '1.8', '1.97', '1.79', '1.84', '1.8542', '1.83', '1.84', '1.82', '1.86', '1.9', '1.77', '1.78', '1.67', '1.7526', '49.0728', '1.74', '1.7526', '1.524', '1.65', '1.83', '1.7', '1.78', '1.778', '1.67', '1.71', '1.76', '1.6764', '1.75', '1.8034', '1.71', '1.72', '1.75', '1.7018', '1.62', '1.72', '1.81', '1.66', '1.75', '1.82', '1.69', '1.79', '1.83', '1.7018', '1.7018', '1.68', '1.6764', '1.7272', '1.77', '1.75', '1.81', '1.7526', '1.73736', '1.6764', '1.524', '1.8034', '1.5748', '141.1', '110', '1.8', '1.8', '1.7', '1.85', '135', '1.82', '1.88', '1.92', '1.77', '1.98', '1.81', '1.73', '1.87', '1.78', '1.83', '1.8', '1.84', '1.76', '1.68', '1.8', '1.75', '1.75', '1.8', '1.77', '1.88', '1.73', '1.87', '1.9', '1.77', '1.76', '1.88', '1.79', '1.55', '1.88', '1.81', '1.82', '1.87', '2.0574', '1.81', '1.81', '1.86', '1.83', '1.9558', '1.88', '1.78', '1.9', '1.87', '1.72', '1.7', '1.73', '1.85', '1.83', '1.83', '1.905', '1.92', '1.75', '1.87', '1.95', '1.97', '1.81', '1.9', '1.84', '1.9', '1.79', '1.74', '1.79', '1.76', '1.85', '1.86', '1.75', '1.81', '1.82', '1.79', '1.72', '1.88', '1.88', '1.86', '1.79', '1.86', '1.76', '1.77', '1.8', '1.82', '1.84', '1.71', '1.75', '1.84', '1.82', '1.8', '1.78', '1.7', '1.84', '1.89', '1.79', '1.77', '1.88', '1.88', '1.79', '1.9812', '1.73', '1.8034', '1.74', '1.7272', '1.8', '1.8', '1.86', '1.8', '1.69', '1.81', '1.87', '1.82', '1.69', '1.81', '1.9', '1.9', '1.79', '1.97', '1.68', '1.7', '1.85', '1.69', '1.8', '1.75', '1.83', '1.78', '1.78', '1.88', '1.77', '1.85', '1.85', '1.8', '1.78', '1.85', '1.8', '1.76', '1.73', '1.9', '1.79', '1.68', '1.82', '1.67', '1.94', '1.78', '1.78', '1.8', '1.83', '1.78', '1.74', '1.75', '1.8', '1.72', '1.75', '1.92', '1.73', '1.92', '1.83', '1.77', '1.77', '1.77', '1.68', '1.78', '1.7', '1.7', '1.74', '1.82', '1.86', '1.78', '1.75', '1.94', '1.86', '1.83', '1.85', '1.65', '1.85', '1.7', '1.75', '1.85', '1.76', '1.89', '2.0574', '1.92', '1.9', '1.78', '1.68', '1.83', '1.85', '1.81', '1.82', '1.77', '1.85', '1.78', '1.76', '1.68', '1.72', '1.79', '1.68', '1.74', '1.9558', '1.79', '1.82', '1.79', '1.84', '1.9', '1.88', '1.76', '1.78', '1.7', '1.85', '1.84', '1.72', '1.81', '1.84', '1.7', '1.81', '1.85', '1.7', '1.71', '1.8', '1.9', '1.68', '1.84', '1.8', '1.82', '1.79', '1.77', '1.76', '1.75', '1.75', '1.91', '1.91', '1.85', '1.9', '1.8', '1.68', '1.75', '1.82', '1.81', '1.83', '1.9558', '1.91', '1.85', '1.85', '1.86', '1.94', '1.8288', '1.83', '1.85', '1.77', '1.82', '1.778', '1.85', '1.6', '1.78', '1.86', '1.75', '1.72', '1.524', '1.82', '1.83', '1.86', '1.72', '1.74', '1.78', '1.83', '1.9', '1.76', '1.84', '1.81', '1.65', '2.0574', '1.73', '1.74', '1.86', '1.93', '1.87', '1.81', '1.76', '1.85', '1.778', '1.7', '1.82', '1.87', '1.79', '1.83', '1.84', '1.651', '1.78', '1.77', '1.84', '1.7', '1.91', '1.86', '1.79', '1.93', '1.75', '1.86', '1.82', '2.03', '1.92', '1.77', '1.78', '1.78', '1.72', '1.78', '1.77', '1.87', '2.0574', '1.86', '1.75', '1.8', '1.82', '1.83', '1.75', '1.8', '1.87', '2.07', '1.8', '1.8', '1.77', '1.96', '1.82', '1.6256', '1.7018', '1.72', '1.73', '1.82', '1.97', '1.85', '1.86', '1.82', '1.83', '1.79', '1.81', '1.91', '1.87', '1.79', '1.94', '1.81', '1.87', '1.95', '1.84', '1.71', '1.84', '1.91', '1.91', '1.83', '1.74', '1.77', '1.87', '1.9', '1.74', '1.7', '1.84', '1.85', '1.88', '1.7', '1.82', '1.9', '1.71', '1.85', '1.84', '1.75', '1.86', '1.92', '1.82', '1.78', '1.8796', '1.9', '1.89', '1.85', '1.92', '1.8', '1.83', '1.69', '1.76', '1.82', '1.84', '1.89', '1.92', '1.74', '1.8', '1.81', '1.8', '1.78', '1.83', '1.83', '1.85', '1.88', '1.75', '1.84', '1.7526', '1.72', '1.76', '1.8', '1.7', '1.75', '71', '1.81', '1.8', '1.83', '1.89', '1.89', '1.72', '1.83', '1.71', '1.84', '1.76', '1.72', '1.81', '1.82', '1.72', '1.6', '1.83', '1.88', '1.77', '1.85', '1.85', '1.65', '1.8', '1.92', '1.8', '1.905', '1.89', '1.71', '1.8', '1.905', '1.79', '1.74', '1.75', '1.71', '1.82', '1.88', '1.84', '1.68', '1.78', '1.72', '1.78', '1.74', '1.76', '1.74', '2.032', '1.68', '1.84', '1.778', '1.8', '1.8', '1.71', '1.8', '1.72', '1.69', '1.82', '1.77', '1.64', '1.72', '1.75', '1.71', '1.9', '1.8', '1.88', '1.67', '1.64', '1.8796', '1.69', '1.69', '1.8', '1.81', '1.84', '1.7272', '1.89', '1.75', '1.84', '1.88', '1.68', '1.81', '1.778', '1.75', '1.85', '1.82', '1.78', '1.77', '2.0828', '1.71', '1.9', '1.73', '1.8', '1.75', '1.78', '2.032', '1.74', '1.65', '1.87', '1.85801', '1.6', '2.032', '1.75', '1.8', '1.75', '1.75', '1.77', '1.87', '1.88', '1.81', '1.76', '1.86', '1.78', '1.78', '1.8', '1.77', '1.74', '1.71', '1.74', '1.7', '1.71', '1.77', '1.73', '1.78', '1.76', '1.76', '1.75', '1.78', '1.78', '1.74', '1.69', '1.84', '1.76', '1.8', '1.71', '1.73', '1.63', '1.74', '1.78', '1.8', '1.71', '1.79', '1.7', '1.93', '1.79', '1.71', '1.78', '1.55', '1.82', '1.71', '1.83', '1.62', '1.67', '1.83', '1.69', '1.79', '1.77', '1.69', '1.84', '1.85', '1.73', '1.72', '1.7', '1.77', '1.8', '1.79', '1.76', '1.72', '1.67', '1.85', '1.8', '1.66', '1.86', '1.778', '1.72', '1.79', '1.7', '1.7', '1.72', '1.86', '1.85', '1.8', '1.88', '1.83', '1.78', '1.68', '1.79', '1.86', '1.76', '1.86', '1.88', '1.75', '1.72', '1.75', '1.61', '1.8', '1.79', '1.9', '1.76', '1.8', '1.7', '1.78', '1.78', '1.63', '1.7', '1.83', '1.72', '1.82', '1.87', '1.77', '1.68', '1.84', '1.79', '1.7', '1.73', '1.75', '1.76', '1.71', '1.64', '1.73', '1.78', '1.85', '1.74', '1.87', '1.82', '1.75', '1.91', '1.8', '1.7', '1.94', '1.73', '1.72', '1.76', '1.7', '1.65', '1.78', '1.74', '1.78', '1.83', '1.75', '1.76', '1.84', '1.82', '1.71', '1.65', '1.78', '1.75', '1.7', '1.84', '1.76', '1.8', '1.74', '1.76', '1.78', '1.82', '1.75', '1.77', '1.82', '1.77', '1.524', '1.88', '1.85', '1.85', '1.72', '1.74', '1.79', '1.63', '1.69', '1.7', '1.67', '1.83', '1.88', '1.75', '1.73', '1.84', '1.89', '1.7', '1.74', '1.75', '1.72', '1.72', '1.78', '1.84', '1.69', '1.72', '1.7', '1.71', '1.83', '1.88', '1.85', '1.85', '1.75', '1.78', '1.86', '1.86', '1.75', '1.84', '1.79', '1.77', '1.82', '1.75', '1.86', '1.84', '1.91', '1.71', '1.76', '1.71', '1.79', '1.79', '1.72', '1.76', '1.92', '1.77', '1.75', '1.81', '1.78', '1.8', '1.84', '1.82', '1.78', '1.79', '1.8', '1.74', '1.8', '1.73', '1.82', '1.76', '1.76', '1.92', '1.89', '1.76', '1.73', '1.79', '1.72', '1.75', '1.87', '1.74', '1.67', '1.78', '1.65', '2.032', '1.78', '1.84', '1.77', '1.73', '1.75', '1.87', '1.65', '1.88', '1.75', '1.82', '1.77', '1.77', '1.76', '1.77', '1.65', '1.68', '1.85', '1.83', '1.75', '1.84', '1.68', '1.69', '1.81', '1.8288', '1.75', '1.89', '1.77', '1.92', '1.78', '2.0574', '1.72', '1.74', '1.73', '1.68', '1.65', '1.68', '1.68', '1.77', '1.77', '1.58', '1.71', '1.75', '1.82', '1.83', '1.68', '1.78', '1.74', '1.78', '1.73', '1.63', '1.84', '1.77', '1.92', '1.75', '1.74', '1.84', '1.73', '1.7', '1.92', '1.72', '1.78', '1.75', '1.89', '1.78', '1.77', '1.72', '1.72', '1.8', '1.82', '1.75', '1.65', '1.8', '1.77', '1.73', '1.76', '1.76', '1.76', '1.64', '1.8796', '1.82', '1.73', '1.85', '1.73', '1.78', '1.87', '1.7', '1.86', '1.75', '1.72', '1.81', '1.91', '1.65', '1.96', '1.67', '1.8', '1.74', '1.75', '1.7', '1.88', '1.76', '1.74', '1.73', '1.75', '1.74', '1.76', '1.81', '1.73', '1.82', '1.74', '1.81', '1.75', '1.83', '1.68', '1.81', '1.524', '1.6002', '1.524', '1.7018', '1.905', '1.905', '1.778', '1.75', '1.8288', '1.8034', '1.92', '1.8542', '1.76', '1.77', '1.82', '1.8', '1.66', '1.74', '1.75', '1.83', '1.78', '1.58', '1.63', '1.85', '1.7', '1.77', '1.85', '1.73', '1.8', '1.87', '1.82', '1.86', '1.75', '1.7', '1.75', '1.93', '1.7018', '1.63', '1.78', '1.78', '1.89', '1.76', '1.86', '1.85', '1.79', '1.651', '1.68', '1.8', '1.524', '1.73', '1.87', '1.85', '1.75', '1.79', '1.8', '1.87', '1.85', '1.78', '1.71', '1.8', '1.74', '1.81', '1.8796', '1.8', '1.95', '1.83', '1.95', '1.69', '1.88', '1.84', '1.74', '1.82', '1.7272', '1.83', '1.89', '1.76', '1.8', '1.74', '1.61', '1.78', '54', '1.9558', '1.524', '1.72', '1.7', '1.8288', '1.7018', '1.77', '1.76', '1.74', '1.7', '1.73', '1.83', '1.73', '1.68', '1.7526', '1.7', '1.76', '1.71', '1.72', '1.778', '1.95', '1.6764', '1.8', '1.65', '1.71', '1.69', '1.7272', '1.9304', '1.63', '1.71', '1.74', '1.73', '2.0066', '1.77', '1.82', '1.76', '1.83', '1.651', '1.82', '1.7', '1.651', '1.83', '1.5', '1.75', '1.61', '1.778', '1.651', '1.78', '1.65', '1.8', '1.76', '1.7', '3.9624', '99.06', '1.75', '1.88', '1.8', '1.84', '1.8', '1.78', '107.899', '1.85', '1.89', '1.8', '1.1', '1.86', '1.79', '1.87', '1.84', '1.66', '1.85', '1.75', '1.7526', '1.79', '1.7526', '1.8034', '1.524', '1.93', '1.82', '1.81', '1.72', '172.9', '187.3', '1.88', '1.86', '1.95', '1.85', '1.75', '1.77', '0', '1.86', '1.78', '1.8', '1.76', '1.96', '1.83', '1.83', '1.92', '1.85', '1.81', '1.84', '1.8', '1.76', '1.79', '1.89', '1.76', '1.82', '1.82', '1', '1.72', '1.83', '1.68', '1.76', '1.78', '1.8796', '1.77', '1.75', '1.85', '1.73', '1.92', '1.83', '1.8', '1.69', '1.88', '1.92', '1.77', '1.77', '1.88', '1.85', '1.84', '1.82', '1.8', '1.84', '1.75', '1.74', '1.75', '1.93', '1.6', '1.77', '1.85', '1.97', '1.8', '1.73', '1.7018', '1.84', '1.93', '1.8', '1.8', '1.76', '1.8', '1.75', '1.8034', '1.83', '1.8', '1.72', '1.8034', '1.85', '1.8', '1.77', '1.75', '1.87', '1.89', '1.8288', '1.524', '1.74', '1.77', '1.81', '1.9304', '1.85', '1.78', '1.74', '1.75', '1.62', '1.7526', '1.81', '1.94', '1.78', '1.77', '1.7272', '1.91', '1.73', '1.8288', '1.8542', '1.73', '1.87', '1.65', '1.8796', '1.97', '1.8796', '494', '530', '601', '1.8288', '1.8', '1.7526', '1.68', '1.83', '1.76', '1.65', '1.91', '36', '9.144', '117', '140', '1.7', '52.1208', '1.905', '179.5', '1.82', '1.79', '1.7', '1.73', '1.64', '1.89', '1.524', '1.83', '185', '1.95', '1.82', '1.524', '1.73', '1.77', '2.0066', '1.7272', '1.65', '1.65', '1.9558', '1.83', '1.86', '1.78', '1.86', '1.71', '1.74', '1.84', '1.85', '1.85', '1.56', '1.74', '1.8034', '1.78', '1.76', '1.76', '1.85', '1.8542', '1.75', '1.76', '1.86', '1.82', '95', '1.86', '1.73', '54.6', '82', '93.5', '1.75', '1.73', '2.032', '1.74', '1.87', '1.68', '1.77', '1.5494', '1.143', '1.2446', '1.3', '1.2446', '1.2446', '1.2192', '1.2446', '1.3462', '76.5', '1.641', '2.7432', '1.86', '1.87', '1.75', '185', '7.4676', '50.21', '0.19', '1.7', '1.7272', '1.778', '2.0066', '1.8288', '2.032', '73.76', '1.8288', '1.7526', '1.69', '2.32', '1.6764', '1.6', '1226.52', '1.79', '1.8796', '1.85', '1.8', '1.75', '1.83', '1.7', '1.905', '1.78', '1.8', '1.85', '1.9431', '1.85', '1.87', '1.81', '1.8288', '1.8034', '1.9', '1.7', '1.92', '1.88', '1.85', '1.78', '1.81', '1.8', '1.85', '1.78', '1.87', '1.8', '1.78', '1.8', '1.67', '1.72', '114.6', '1.905', '1.78', '1.76', '1.92', '1.9', '1.8', '1.79', '1.81', '1.84', '1.78', '1.85', '1.74', '2.0828', '1.905', '1.79', '1.76', '2.4', '1.97', '1.77', '1.89', '1.73', '212.76', '1.64', '47.5488', '183.6', '190.3', '15.24', '1.597', '1.38938', '1.4097', '1.435', '1.39446', '1.44018', '1.41224', '1.38938', '1.3589', '1.74498', '1.70434', '1.72974', '1.71704', '1.63068', '1.3843', '1.45034', '1.465', '1.45288', '1.44018', '1.447', '1.433', '1.45542', '1.44018', '1.59512', '1.83', '1.7526', '2.032', '1.78', '1.6256', '200', '1.8034', '1.8', '1.79', '1.83', '1.75', '1.7018', '1.73', '1.79', '1.75', '1.9', '1.76', '1.72', '1.82', '1.91', '1.7', '1.82', '1.85', '1.69', '1.82', '1.7', '1.69', '1.85', '1.81', '1.69', '1.89', '1.8', '1.7', '1.73', '1.8', '1.72', '1.9', '1.8034', '1.94', '1.9558', '1.8034', '1.78', '1.78', '1.74', '1.778', '1.85', '1.9304', '1.82', '1.8796', '1.778', '1.74', '1.96', '1.76', '1.88', '1.72', '1.85', '1.85', '1.78', '1.84', '1.65', '1.9', '1.78', '1.8288', '1.93', '1.98', '1.85', '1.65', '2.05', '1.8542', '2.01', '1.84', '1.9304', '1.84', '1.778', '1.8288', '1.82', '1.7526', '1.8034', '1.75', '1.905', '1.87', '1.778', '1.7018', '1.905', '1.87', '1.78', '1.8288', '1.85', '1.75', '1.82', '1.82', '1.85', '1.93', '1.7399', '1.8034', '1.97', '1.8034', '1.8796', '1.93', '1.83', '1.8', '1.81', '1.524', '1.8796', '1.9', '1.9304', '1.8796', '1.79', '1.8', '1.88', '1.8034', '1.79', '1.8034', '1.8034', '1.7526', '1.96', '1.83', '1.7526', '1.93', '1.8', '1.8', '1.8542', '1.8796', '1.85', '1.95', '2.01', '1.778', '1.94', '1.7', '1.93', '1.79', '1.77', '1.8796', '1.87', '1.778', '1.778', '1.89', '1.75', '1.8034', '1.8288', '1.86', '2.0828', '1.79', '1.8542', '1.75', '1.8288', '1.72', '1.78', '1.7526', '1.82', '1.99', '1.8288', '2.04', '1.91', '1.9304', '1.83', '1.8', '1.76', '1.82', '1.96', '1.87', '1.778', '1.8796', '1.9558', '1.8542', '1.8288', '1.78', '1.84', '1.8796', '1.905', '1.9558', '1.88', '1.86', '1.85', '1.8', '1.84', '1.8', '1.85', '1.524', '1.8288', '1.85', '1.8288', '1.8288', '1.778', '1.778', '1.9558', '1.84', '1.78', '1.91', '1.8542', '1.8034', '1.79', '1.88', '1.82', '1.8', '1.76', '1.85', '1.7526', '1.78', '2.0066', '1.7', '1.778', '1.85', '1.8542', '1.8', '1.87', '1.86', '1.8542', '1.524', '1.96', '1.8542', '1.8034', '1.73', '1.86', '1.88', '1.8', '1.78', '1.778', '1.778', '1.905', '1.8288', '1.905', '1.8288', '1.8796', '1.74', '1.9', '1.8034', '1.8', '1.75', '1.7272', '1.79', '1.94', '1.8542', '1.778', '1.7', '1.85', '1.65', '1.8796', '1.92', '1.8', '1.85', '1.91', '1.74', '1.8288', '1.78', '1.74', '1.7018', '1.778', '1.89', '1.94', '1.8796', '1.778', '1.83', '1.7272', '1.76', '1.85', '1.83', '1.93', '1.87', '1.905', '1.9558', '1.8', '1.86', '1.8288', '1.9558', '1.78', '1.8288', '1.96', '1.8542', '1.8796', '1.7526', '1.79', '1.9', '1.8796', '1.77', '1.78', '1.9558', '1.8288', '1.85', '1.9812', '1.9', '1.92', '1.9', '1.778', '1.87', '1.88', '1.8542', '1.93', '1.8034', '1.83', '1.85', '1.94', '1.83', '2.0574', '1.7018', '1.778', '1.76', '1.86', '1.9', '1.7018', '1.905', '1.8542', '1.9', '1.96', '1.7', '1.79', '1.8288', '1.87', '1.87', '1.9', '1.88', '1.87', '1.72', '1.8034', '1.68', '1.82', '1.75', '1.8288', '2.01', '1.83', '1.89', '1.94', '2.05', '1.86', '1.96', '1.8288', '2.0574', '1.778', '1.83', '1.87', '2.0828', '1.84', '1.78', '1.8', '1.83', '1.7', '1.81', '1.85', '1.8288', '2.032', '1.92', '1.86', '1.9', '1.77', '1.8796', '1.9', '1.7526', '1.92', '1.71', '1.8', '1.92', '1.7526', '1.8', '1.905', '1.94', '1.8', '1.73', '1.85', '1.78', '1.9304', '1.79', '1.88', '1.81', '1.72', '1.72', '1.88', '1.86', '2.1717', '1.62', '1.9', '1.905', '2.01', '1.75', '1.85', '1.8034', '1.905', '1.8288', '1.75', '1.8034', '1.85', '1.77', '1.778', '1.8', '1.5494', '1.8288', '1.86', '1.778', '1.97', '1.8', '1.9558', '1.84', '1.8', '1.8542', '1.75', '1.83', '1.8542', '1.86', '1.78', '1.74', '1.8796', '1.88', '1.75', '1.98', '1.74', '1.93', '1.7', '1.88', '1.86', '1.8', '1.81', '1.75', '1.85', '1.85', '1.778', '1.89', '1.8288', '1.78', '1.83', '1.93', '1.72', '1.905', '1.82', '1.83', '1.85', '1.83', '1.778', '1.81', '1.75', '1.83', '1.9', '1.9558', '1.75', '1.7526', '1.78', '1.72', '1.86', '2.01', '1.83', '1.8796', '1.524', '1.8', '1.8542', '1.86', '1.905', '1.91', '1.7526', '1.8034', '1.88', '1.85', '1.78', '1.9304', '1.73', '1.9', '1.95', '1.79', '1.78', '2.032', '1.91', '1.87', '1.8542', '1.7526', '1.75', '1.524', '1.8542', '1.8034', '1.78', '1.73', '1.76', '1.81', '1.73', '1.8288', '1.8288', '1.9', '1.8288', '1.8542', '1.778', '1.8542', '1.8542', '1.9304', '1.8', '1.524', '1.8034', '1.86', '1.7272', '1.75', '1.9304', '1.8', '1.69', '1.83', '1.72', '1.87', '1.77', '1.6764', '1.8288', '1.91', '2.286', '1.9304', '1.9304', '1.98', '1.85', '1.89', '1.8796', '1.75', '1.82', '1.98', '1.8796', '1.8796', '1.91', '2.0574', '1.9', '1.8796', '1.7', '1.8796', '1.86', '1.8288', '1.8', '1.8034', '1.87', '1.83', '1.8542', '1.9', '1.79', '1.905', '1.9', '1.8', '1.86', '1.83', '1.77', '1.82', '1.7', '1.72', '1.8034', '1.85', '1.778', '1.79', '1.83', '1.75', '1.8034', '1.778', '1.76', '1.85', '1.8542', '1.75', '1.8288', '1.47', '1.73', '1.8796', '1.94', '1.7', '1.8542', '1.92', '1.71', '1.82', '1.78', '1.78', '1.8542', '1.8288', '1.7', '1.8288', '1.8034', '1.8796', '1.778', '1.778', '1.778', '1.9304', '1.78', '1.78', '1.8', '1.78', '1.73', '1.76', '2.14', '1.8', '1.92', '1.8796', '1.75', '2', '1.86', '1.905', '1.8288', '1.71', '1.89', '1.83', '1.85', '1.9', '1.83', '1.86', '1.64', '1.7', '1.67', '1.93', '2.03', '1.78', '1.85', '1.8542', '1.96', '1.905', '2', '1.905', '1.8034', '1.8542', '1.8', '1.93', '1.8', '1.8288', '1.524', '2.04', '1.76', '1.9', '1.86', '1.7526', '1.89', '1.778', '1.8796', '1.7526', '1.84', '1.8288', '1.7526', '1.7', '1.8288', '1.778', '1.8', '1.93', '1.83', '1.9304', '1.88', '1.8288', '1.78', '1.94', '1.8288', '1.89', '1.88', '1.85', '1.8288', '1.84', '1.96', '1.96', '1.8288', '1.69', '1.94', '1.778', '1.77', '1.83', '1.84', '1.8542', '1.79', '1.77', '1.93', '1.82', '1.82', '1.9', '1.8', '1.9558', '1.89', '1.79', '1.88', '1.8796', '1.82', '1.85', '1.69', '1.78', '1.9939', '1.68', '1.8542', '1.91', '2', '1.8288', '1.81', '1.84', '1.8288', '1.92', '1.8796', '1.91', '1.92', '1.8', '1.9558', '1.8288', '1.88', '2.03', '1.9', '1.9558', '1.8542', '1.89', '1.778', '1.8542', '1.8288', '1.93', '1.83', '2.159', '1.88', '1.98', '1.524', '1.778', '1.73', '1.94', '2.01', '1.78', '1.7018', '1.68', '1.778', '1.84', '1.83', '1.79', '1.86', '1.84', '2.0574', '1.74', '1.88', '1.8', '1.8', '1.73', '1.8', '1.94', '1.85', '1.82', '1.82', '1.85', '1.8', '1.83', '1.63', '1.78', '2.0574', '1.74', '1.87', '1.86', '1.84', '1.59', '1.7', '1.84', '1.85', '1.7', '1.78', '1.78', '1.77', '1.57', '1.67', '1.87', '1.85', '1.73', '1.8', '1.81', '26', '3.81', '135.026', '1.75', '1.76', '1.8', '30.13', '1.74', '1.78', '1.7018', '1.8', '1.778', '1.88', '1.83', '1.8', '1.8542', '1.74', '2.0066', '1.77', '1.78', '1.778', '51.5', '1.87', '1.79', '1.95', '1.77', '1.7526', '1.778', '1.89', '42', '1.83', '4.8768', '1.77', '1.8796', '1.98', '1.9304', '1.5748', '1.651', '1.77', '275', '370', '228.3', '306.2', '1.81', '1.7526', '1.82', '1.524', '1.8542', '1.8', '1.85', '1.92', '1.9558', '1.8288', '1.7', '1.72', '1.78', '1.9558', '1.69', '1.8288', '1.74', '1.77', '1.8', '1.83', '1.85', '1.84', '1.85', '1.8', '1.778', '1.8', '1.73', '1.86', '1.7', '1.77', '1.65', '1.8', '1.83', '1.72', '1.69', '1.8', '1.76', '1.85', '1.72', '1.84', '1.94', '1.76', '1.8', '1.78', '1.8', '1.84', '1.85', '1.78', '1.95', '1.72', '1.86', '1.78', '1.85', '1.83', '1.7', '1.75', '1.85', '1.8', '1.83', '1.82', '1.73', '1.7', '1.8', '1.78', '1.63', '1.7272', '1.7018', '1.524', '1.85', '1.76', '1.7', '1.6764', '1.59', '1.6764', '1.6764', '43', '1.86', '1.77', '1.778', '1.71', '1.7018', '1.68', '1.7', '1.524', '1.67', '1.75', '1.88', '1.8', '1.4', '1.81', '1.76', '1.6', '1.87', '1.68', '1.6', '1.68', '1.65', '1.62', '1.58', '1.7272', '1.85', '1.87', '1.78', '1.86', '1.65', '1.73', '1.7', '1.76', '1.84', '1.83', '1.82', '2.0828', '1.77', '1.86', '1.84', '1.83', '1.85', '1.81', '1.82', '2.0701', '1.83', '1.6', '1.87', '1.84', '1.78', '1.76', '1.75', '1.87', '1.71', '1.77', '1.73', '1.79', '1.71', '1.75', '1.72', '1.86', '1.79', '1.8', '1.76', '1.74', '1.74', '90', '1.8288', '1.97', '1.84', '1.87', '1.73', '1.68', '1.92', '1.74', '1.7', '1.82', '1.88', '1.89', '1.9304', '1.87', '1.8', '1.93', '1.72', '1.88', '1.78', '1.86', '1.8', '1.8', '1.75', '1.64', '1.8', '1.77', '1.7', '2.56', '76.5', '40', '1.7', '1.76', '1.81', '1.83', '1.84', '1.69', '1.78', '1.74', '1.88', '1.85', '1.73', '1.7', '1.84', '1.89', '1.9', '1.69', '1.79', '1.77', '1.84', '1.68', '1.79', '1.8', '1.651', '1.9', '1.85', '1.8034', '1.72', '1.75', '1.84', '1.81', '1.85', '1.83', '1.8542', '1.778', '1.66', '1.72', '1.905', '1.77', '1.81', '1.87', '1.87', '1.7', '1.83', '1.82', '1.9304', '1.77', '1.87', '1.65', '1.77', '1.82', '1.75', '1.89', '1.9', '1.79', '1.93', '1.71', '1.8', '1.79', '1.85', '1.81', '1.65', '1.84', '1.78', '1.72', '1.8', '1.87', '1.75', '1.87', '1.82', '1.92', '1.77', '1.77', '1.8', '1.77', '1.83', '1.75', '1.8', '1.91', '1.7', '1.94', '1.94945', '1.8542', '1.86', '1.81', '1.9', '1.9558', '1.9', '1.87', '1.9812', '1.88', '1.8', '1.6', '1.8', '1.84', '1.72', '1.8', '1.73', '1.72', '1.9', '1.8', '2.1', '1.95', '1.75', '1.83', '1.8', '1.78', '1.78', '1.73', '1.83', '1.77', '1.75', '1.75', '1.69', '1.81', '1.75', '1.9304', '1.73', '1.7', '1.6', '1.7', '1.81', '3.7', '1.73', '0.84', '1.77', '1.8', '1.75', '1.88', '1.7', '144', '1.7', '1.64', '1.63', '1.58', '1.76', '1.83', '1.8', '1.7', '1.8', '1.78', '1.58', '1.65', '1.86', '1.65', '1.8', '1.6', '1.825', '1.88', '1.46', '1.58', '1.94', '1.651', '1.6764', '0.635', '97', '1.88', '1.73', '1.82', '1.78', '1.81', '1.78', '1.76', '1.79', '1.86', '1.77', '1.71', '1.83', '1.92', '1.7526', '1.84', '1.79', '1.94', '1.85', '1.84', '1.92', '1.78', '45.6', '1.83', '1.9558', '9.144', '1.9304', '1.78', '1.68', '1.81', '1.74', '1.778', '1.76', '1.86', '1.8288', '1.8', '1.77', '1.73', '1.85', '1.87', '1.85', '1.9', '1.84', '1.75', '1.91', '1.86', '1.79', '1.98', '1.88', '1.8', '1.95', '2.032', '1.65', '1.86', '1.73', '1.94', '1.79', '1.85', '1.89', '1.75', '1.76', '1.77', '1.9', '1.91', '1.8', '1.8', '1.91', '1.85', '1.83', '1.8', '1.65', '1.74', '1.9', '1.78', '1.82', '1.79', '1.8', '342', '1.8', '78.9', '1.73', '1.77', '2.04', '1.74', '1.72', '1.88', '1.88', '1.85', '1.85', '1.82', '1.64', '1.83', '1.78', '1.9', '1.72', '1.75', '1.778', '1.84', '1.74', '1.63', '1.83', '1.76', '1.82', '1.88', '1.79', '1.78', '1.83', '1.75', '1.75', '81', '1.74', '1.82', '1.778', '1.524', '1.8', '1.89', '1.69', '1.524', '1.8542', '1.85', '1.73', '1.9304', '2.0828', '1.68', '1.72', '1.86', '1.75', '1.9558', '1.88', '1.8288', '1.85', '1.8034', '1.9558', '1.8034', '1.9812', '1.82', '1.7', '1.87', '1.87', '26', '2.01', '2.0828', '1.97', '1.8', '1.82', '1.73', '1.98', '1.77', '1.83', '1.81', '1.8', '1.87', '1.65', '1.81', '1.83', '1.7', '1.76', '1.72', '1.84', '1.6764', '1.92',</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,37 +1158,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>In which countries can you pay using the West African CFA franc?</t>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/American_Sniper', 'http://dbpedia.org/resource/Bird_(1988_film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Breezy', 'http://dbpedia.org/resource/Changeling_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Flags_of_Our_Fathers_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/Hereafter_(film)', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Invictus_(film)', 'http://dbpedia.org/resource/J._Edgar', 'http://dbpedia.org/resource/Letters_from_Iwo_Jima', 'http://dbpedia.org/resource/Midnight_in_the_Garden_of_Good_and_Evil_(film)', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Mystic_River_(film)', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Richard_Jewell_(film)', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_15:17_to_Paris', 'http://dbpedia.org/resource/The_Blues_(film_series)__Piano_Blues__1', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>In which countries can you pay using the West African CFA franc?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -1198,17 +1198,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,57 +1218,57 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather_Saga', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
         </is>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather_Saga', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
         </is>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D42" t="b">
@@ -1278,17 +1278,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="D43" t="b">
@@ -1298,17 +1298,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -1318,17 +1318,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Who created Batman?</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="D45" t="b">
@@ -1338,17 +1338,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>Who created Batman?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
         </is>
       </c>
       <c r="D46" t="b">
@@ -1358,60 +1358,80 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>What movies does Jesse Eisenberg play in?</t>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>To which countries does the Himalayan mountain system extend?</t>
+          <t>What movies does Jesse Eisenberg play in?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
         </is>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>To which countries does the Himalayan mountain system extend?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+        </is>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
-      <c r="D49" t="b">
+      <c r="D50" t="b">
         <v>0</v>
       </c>
     </row>
